--- a/data/exclude_list.xlsx
+++ b/data/exclude_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mflor\Documents\TNC_2018\paper\data\searches\FIRST_STEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B691E8-BDA1-4A8C-BDE8-DD50CC36D548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFFD991-1BAA-4206-981E-794333201118}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{C6F08BAA-C670-4BEE-8D8B-BC2F9FF4AD91}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="396">
   <si>
     <t>ID</t>
   </si>
@@ -41,9 +41,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>exclude</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vegetation recovery in uranium and diamond mines (natural recovery processes) </t>
   </si>
   <si>
@@ -1086,6 +1083,144 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Biological soil crusts</t>
+  </si>
+  <si>
+    <t>mycorrhizal inoculation</t>
+  </si>
+  <si>
+    <t>effects of plantations on soil chemical properties</t>
+  </si>
+  <si>
+    <t>effect of cultivated exotic trees on native species</t>
+  </si>
+  <si>
+    <t>restoration seeding including natives and exotics</t>
+  </si>
+  <si>
+    <t>effect of revegetation on physicochemical and microbial soil properties</t>
+  </si>
+  <si>
+    <t>seeding, life stage transition probabilities for species used in restoration</t>
+  </si>
+  <si>
+    <t>experiments, App.</t>
+  </si>
+  <si>
+    <t>clay and hydrogel</t>
+  </si>
+  <si>
+    <t>evaluate ideal species for restoration</t>
+  </si>
+  <si>
+    <t>use of shelters in restoration</t>
+  </si>
+  <si>
+    <t>succession after land abandonment</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>testing species for soil restoration</t>
+  </si>
+  <si>
+    <t>experiments and lab</t>
+  </si>
+  <si>
+    <t>Restoring native plant communities invaded by exotic plants</t>
+  </si>
+  <si>
+    <t>invaded areas</t>
+  </si>
+  <si>
+    <t>Vertical irrigation tubes, and hydrogels</t>
+  </si>
+  <si>
+    <t>different techniques to restorer overgrazed soils</t>
+  </si>
+  <si>
+    <t>seeding</t>
+  </si>
+  <si>
+    <t>research note</t>
+  </si>
+  <si>
+    <t>seeding using a rangeland drill, seeded by hand</t>
+  </si>
+  <si>
+    <t>testing species for for salinity tolerance and mycorrhizal responsiveness</t>
+  </si>
+  <si>
+    <t>exclosures from livestock</t>
+  </si>
+  <si>
+    <t>arbuscular mycorrhizal fungi in a cultivated land, an old field and a never-cultivated field</t>
+  </si>
+  <si>
+    <t>restoration in the Namaqualand coastline</t>
+  </si>
+  <si>
+    <t>exclude grazing to analyze primary production</t>
+  </si>
+  <si>
+    <t>method of land reclamation</t>
+  </si>
+  <si>
+    <t>arid areas</t>
+  </si>
+  <si>
+    <t>introduced herbivore removal</t>
+  </si>
+  <si>
+    <t>islands</t>
+  </si>
+  <si>
+    <t>different over-sown species and hollows-dyker plough, furrows-ripper/sub-soiler and walking-stick planter</t>
+  </si>
+  <si>
+    <t>eperiments</t>
+  </si>
+  <si>
+    <t>phytogenic mounds (nebkhas) promoting restoration of grazed sites</t>
+  </si>
+  <si>
+    <t>gypsum (CaSO4) and organic mulch, and seeding</t>
+  </si>
+  <si>
+    <t>restoration after mining</t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>irrigation systems</t>
+  </si>
+  <si>
+    <t>irrigation schedules—no irrigation, spring, irrigation only, summer irrigation only, and irrigation year round as needed</t>
+  </si>
+  <si>
+    <t>success of restored mined peatlands</t>
+  </si>
+  <si>
+    <t>review of applied restoration techniques</t>
+  </si>
+  <si>
+    <t>revegetation facilitated by rodents burrows</t>
+  </si>
+  <si>
+    <t>general modes for restoration, rehabilitation and reallocation</t>
+  </si>
+  <si>
+    <t>South countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restoring the symbiosis of Vesicular-arbuscular mycorrhizae </t>
+  </si>
+  <si>
+    <t>yes/no Exclude</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1465,22 +1600,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1488,19 +1623,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1508,19 +1643,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1528,19 +1663,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1548,19 +1683,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1568,19 +1703,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1588,19 +1723,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1608,19 +1743,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1628,19 +1763,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1648,19 +1783,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1668,19 +1803,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1688,19 +1823,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1708,19 +1843,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1728,19 +1863,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1748,19 +1883,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1768,19 +1903,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1788,19 +1923,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1808,19 +1943,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1828,22 +1963,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
         <v>44</v>
       </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1851,19 +1986,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1871,19 +2006,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1891,19 +2026,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1911,19 +2046,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1931,19 +2066,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1951,22 +2086,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>54</v>
-      </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1974,22 +2109,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
         <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1997,19 +2132,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
         <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -2017,19 +2152,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
         <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -2037,19 +2172,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -2057,19 +2192,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -2077,19 +2212,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -2097,19 +2232,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2117,19 +2252,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2137,19 +2272,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
         <v>71</v>
-      </c>
-      <c r="E34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2157,19 +2292,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2177,22 +2312,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2200,19 +2335,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2220,19 +2355,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2240,19 +2375,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2260,19 +2395,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2280,19 +2415,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2300,19 +2435,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2320,19 +2455,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2340,19 +2475,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
         <v>83</v>
       </c>
-      <c r="C44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" t="s">
-        <v>84</v>
-      </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2360,19 +2495,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2380,19 +2515,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2400,22 +2535,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
         <v>87</v>
       </c>
-      <c r="C47" t="s">
-        <v>88</v>
-      </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2423,19 +2558,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2443,19 +2578,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2463,22 +2598,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
         <v>92</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
       </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
-      </c>
       <c r="G50" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2486,19 +2621,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2506,19 +2641,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -2526,19 +2661,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2546,19 +2681,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -2566,19 +2701,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
         <v>99</v>
       </c>
-      <c r="C55" t="s">
-        <v>100</v>
-      </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -2586,19 +2721,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2606,22 +2741,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2629,19 +2764,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
         <v>71</v>
-      </c>
-      <c r="E58" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2649,19 +2784,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" t="s">
         <v>104</v>
       </c>
-      <c r="C59" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" t="s">
-        <v>105</v>
-      </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2669,19 +2804,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2689,22 +2824,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2712,19 +2847,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2732,19 +2867,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2752,22 +2887,22 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
         <v>111</v>
       </c>
-      <c r="C64" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" t="s">
-        <v>112</v>
-      </c>
       <c r="G64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -2775,19 +2910,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
         <v>113</v>
       </c>
-      <c r="C65" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" t="s">
-        <v>114</v>
-      </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -2795,19 +2930,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -2815,19 +2950,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -2835,19 +2970,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
         <v>71</v>
-      </c>
-      <c r="E68" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -2855,19 +2990,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -2875,19 +3010,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -2895,19 +3030,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
         <v>50</v>
       </c>
-      <c r="C71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" t="s">
-        <v>51</v>
-      </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -2915,19 +3050,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -2935,19 +3070,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -2955,19 +3090,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -2975,19 +3110,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -2995,19 +3130,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -3015,19 +3150,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -3035,19 +3170,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -3055,19 +3190,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -3075,19 +3210,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -3095,22 +3230,22 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" t="s">
         <v>136</v>
       </c>
-      <c r="C81" t="s">
-        <v>137</v>
-      </c>
       <c r="D81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -3118,19 +3253,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -3138,22 +3273,22 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
         <v>140</v>
       </c>
-      <c r="C83" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" t="s">
-        <v>141</v>
-      </c>
       <c r="G83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -3161,22 +3296,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>141</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
         <v>143</v>
       </c>
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" t="s">
-        <v>142</v>
-      </c>
-      <c r="E84" t="s">
-        <v>20</v>
-      </c>
-      <c r="F84" t="s">
-        <v>144</v>
-      </c>
       <c r="G84" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -3184,19 +3319,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -3204,22 +3339,22 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" t="s">
         <v>147</v>
       </c>
-      <c r="C86" t="s">
-        <v>148</v>
-      </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -3227,19 +3362,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -3247,19 +3382,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -3267,19 +3402,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -3287,19 +3422,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -3307,19 +3442,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -3327,19 +3462,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -3347,22 +3482,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="D93" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="G93" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -3370,19 +3505,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
         <v>155</v>
       </c>
-      <c r="C94" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" t="s">
-        <v>156</v>
-      </c>
       <c r="E94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -3390,19 +3525,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95" t="s">
         <v>157</v>
       </c>
-      <c r="C95" t="s">
-        <v>158</v>
-      </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -3410,19 +3545,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -3430,19 +3565,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -3450,22 +3585,22 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G98" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -3473,19 +3608,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" t="s">
         <v>162</v>
       </c>
-      <c r="C99" t="s">
-        <v>29</v>
-      </c>
-      <c r="D99" t="s">
-        <v>163</v>
-      </c>
       <c r="E99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -3493,19 +3628,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -3513,19 +3648,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -3533,19 +3668,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -3553,19 +3688,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C103" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D103" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -3573,19 +3708,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -3593,19 +3728,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>173</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
         <v>174</v>
       </c>
-      <c r="C105" t="s">
-        <v>26</v>
-      </c>
-      <c r="D105" t="s">
-        <v>175</v>
-      </c>
       <c r="E105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F105" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -3613,19 +3748,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" t="s">
+        <v>177</v>
+      </c>
+      <c r="D106" t="s">
         <v>176</v>
       </c>
-      <c r="C106" t="s">
-        <v>178</v>
-      </c>
-      <c r="D106" t="s">
-        <v>177</v>
-      </c>
       <c r="E106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F106" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -3633,19 +3768,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D107" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -3653,22 +3788,22 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -3676,19 +3811,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -3696,19 +3831,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -3716,19 +3851,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -3736,19 +3871,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F112" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -3756,19 +3891,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F113" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -3776,22 +3911,22 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F114" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G114" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -3799,19 +3934,19 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -3819,19 +3954,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -3839,22 +3974,22 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>190</v>
+      </c>
+      <c r="C117" t="s">
+        <v>192</v>
+      </c>
+      <c r="D117" t="s">
         <v>191</v>
       </c>
-      <c r="C117" t="s">
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" t="s">
         <v>193</v>
       </c>
-      <c r="D117" t="s">
-        <v>192</v>
-      </c>
-      <c r="E117" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117" t="s">
-        <v>194</v>
-      </c>
       <c r="G117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -3862,19 +3997,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D118" t="s">
+        <v>194</v>
+      </c>
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" t="s">
         <v>195</v>
-      </c>
-      <c r="E118" t="s">
-        <v>20</v>
-      </c>
-      <c r="F118" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -3882,19 +4017,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -3902,19 +4037,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -3922,19 +4057,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F121" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -3942,19 +4077,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C122" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -3962,19 +4097,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C123" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D123" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -3982,19 +4117,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>203</v>
+      </c>
+      <c r="C124" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" t="s">
         <v>204</v>
       </c>
-      <c r="C124" t="s">
-        <v>40</v>
-      </c>
-      <c r="D124" t="s">
-        <v>205</v>
-      </c>
       <c r="E124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -4002,19 +4137,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>205</v>
+      </c>
+      <c r="C125" t="s">
         <v>206</v>
       </c>
-      <c r="C125" t="s">
-        <v>207</v>
-      </c>
       <c r="D125" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -4022,19 +4157,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D126" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -4042,19 +4177,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C127" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F127" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
@@ -4062,19 +4197,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D128" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
@@ -4082,19 +4217,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>212</v>
+      </c>
+      <c r="C129" t="s">
         <v>213</v>
       </c>
-      <c r="C129" t="s">
-        <v>214</v>
-      </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -4102,19 +4237,19 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F130" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -4122,22 +4257,22 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F131" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G131" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
@@ -4145,19 +4280,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C132" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D132" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -4165,19 +4300,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C133" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D133" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F133" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -4185,19 +4320,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>217</v>
+      </c>
+      <c r="C134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" t="s">
         <v>218</v>
-      </c>
-      <c r="C134" t="s">
-        <v>93</v>
-      </c>
-      <c r="D134" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" t="s">
-        <v>20</v>
-      </c>
-      <c r="F134" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -4205,19 +4340,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D135" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F135" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -4225,19 +4360,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D136" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F136" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -4245,19 +4380,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C137" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F137" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
@@ -4265,19 +4400,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -4285,19 +4420,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F139" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -4305,19 +4440,19 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F140" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
@@ -4325,19 +4460,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D141" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -4345,19 +4480,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F142" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
@@ -4365,19 +4500,19 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C143" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D143" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F143" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
@@ -4385,19 +4520,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D144" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F144" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
@@ -4405,19 +4540,19 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C145" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F145" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -4425,19 +4560,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D146" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E146" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
@@ -4445,19 +4580,19 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D147" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F147" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -4465,19 +4600,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C148" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D148" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F148" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -4485,19 +4620,19 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
@@ -4505,19 +4640,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D150" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F150" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
@@ -4525,19 +4660,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C151" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F151" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -4545,19 +4680,19 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C152" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F152" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -4565,19 +4700,19 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C153" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F153" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -4585,19 +4720,19 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D154" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F154" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -4605,19 +4740,19 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C155" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F155" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
@@ -4625,19 +4760,19 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D156" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F156" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -4645,22 +4780,22 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>243</v>
+      </c>
+      <c r="C157" t="s">
+        <v>206</v>
+      </c>
+      <c r="D157" t="s">
         <v>244</v>
       </c>
-      <c r="C157" t="s">
-        <v>207</v>
-      </c>
-      <c r="D157" t="s">
-        <v>245</v>
-      </c>
       <c r="E157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
@@ -4668,19 +4803,19 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D158" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F158" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -4688,19 +4823,19 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F159" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
@@ -4708,19 +4843,19 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C160" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D160" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
@@ -4728,19 +4863,19 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D161" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F161" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="162" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -4748,22 +4883,22 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F162" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
@@ -4771,19 +4906,19 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D163" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F163" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
@@ -4791,19 +4926,19 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>254</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D164" t="s">
+        <v>253</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D164" t="s">
-        <v>254</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
@@ -4811,19 +4946,19 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D165" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F165" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
@@ -4831,19 +4966,19 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
@@ -4851,19 +4986,19 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F167" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
@@ -4871,19 +5006,19 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D168" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F168" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
@@ -4891,19 +5026,19 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D169" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F169" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
@@ -4911,19 +5046,19 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D170" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F170" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
@@ -4931,19 +5066,19 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F171" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
@@ -4951,19 +5086,19 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D172" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F172" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
@@ -4971,19 +5106,19 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>264</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C173" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="D173" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F173" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
@@ -4991,19 +5126,19 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
@@ -5011,19 +5146,19 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D175" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
@@ -5031,19 +5166,19 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
@@ -5051,22 +5186,22 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
+        <v>269</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D177" t="s">
+        <v>83</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G177" t="s">
         <v>270</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D177" t="s">
-        <v>84</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G177" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
@@ -5074,19 +5209,19 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
+        <v>271</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D178" t="s">
+        <v>70</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D178" t="s">
-        <v>71</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -5094,19 +5229,19 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D179" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -5114,22 +5249,22 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
+        <v>274</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G180" t="s">
         <v>275</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D180" t="s">
-        <v>12</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G180" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
@@ -5137,19 +5272,19 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D181" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
@@ -5157,19 +5292,19 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D182" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
@@ -5177,19 +5312,19 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D183" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
@@ -5197,19 +5332,19 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D184" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F184" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
@@ -5217,19 +5352,19 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>280</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C185" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="D185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
@@ -5237,19 +5372,19 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>282</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C186" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="D186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
@@ -5257,19 +5392,19 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D187" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F187" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
@@ -5277,19 +5412,19 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D188" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
@@ -5297,19 +5432,19 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D189" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
@@ -5317,19 +5452,19 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D190" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F190" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
@@ -5337,19 +5472,19 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D191" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
@@ -5357,22 +5492,22 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D192" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
@@ -5380,19 +5515,19 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D193" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
@@ -5400,19 +5535,19 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D194" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
@@ -5420,19 +5555,19 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D195" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
@@ -5440,19 +5575,19 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
@@ -5460,22 +5595,22 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>296</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D197" t="s">
+        <v>36</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G197" t="s">
         <v>297</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D197" t="s">
-        <v>37</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F197" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G197" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
@@ -5483,22 +5618,22 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>298</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D198" t="s">
+        <v>191</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G198" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D198" t="s">
-        <v>192</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F198" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G198" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
@@ -5506,19 +5641,19 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D199" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
@@ -5526,19 +5661,19 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D200" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
@@ -5546,19 +5681,19 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
@@ -5566,19 +5701,19 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>302</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C202" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="D202" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
@@ -5586,22 +5721,22 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D203" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G203" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
@@ -5609,19 +5744,19 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D204" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
@@ -5629,19 +5764,19 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
@@ -5649,19 +5784,19 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
+        <v>307</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D206" t="s">
         <v>308</v>
       </c>
-      <c r="C206" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D206" t="s">
-        <v>309</v>
-      </c>
       <c r="E206" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
@@ -5669,19 +5804,19 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
@@ -5689,19 +5824,19 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
@@ -5709,19 +5844,19 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>312</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C209" s="4" t="s">
-        <v>314</v>
-      </c>
       <c r="D209" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F209" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
@@ -5729,19 +5864,19 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D210" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
@@ -5749,19 +5884,19 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D211" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
@@ -5769,19 +5904,19 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D212" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
@@ -5789,19 +5924,19 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D213" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
@@ -5809,19 +5944,19 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D214" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
@@ -5829,19 +5964,19 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
@@ -5849,19 +5984,19 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D216" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
@@ -5869,22 +6004,22 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>324</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>323</v>
+      </c>
+      <c r="E217" t="s">
+        <v>19</v>
+      </c>
+      <c r="F217" t="s">
         <v>325</v>
       </c>
-      <c r="C217" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D217" t="s">
-        <v>324</v>
-      </c>
-      <c r="E217" t="s">
-        <v>20</v>
-      </c>
-      <c r="F217" t="s">
-        <v>326</v>
-      </c>
       <c r="G217" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
@@ -5892,19 +6027,19 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D218" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E218" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F218" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
@@ -5912,19 +6047,19 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E219" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
@@ -5932,19 +6067,19 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D220" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E220" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
@@ -5952,19 +6087,19 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D221" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E221" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
@@ -5972,19 +6107,19 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E222" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
@@ -5992,19 +6127,19 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E223" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
@@ -6012,19 +6147,19 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D224" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E224" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
@@ -6032,19 +6167,19 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E225" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
@@ -6052,22 +6187,22 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D226" t="s">
+        <v>334</v>
+      </c>
+      <c r="E226" t="s">
+        <v>19</v>
+      </c>
+      <c r="F226" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E226" t="s">
-        <v>20</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="G226" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -6075,19 +6210,19 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D227" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
@@ -6095,19 +6230,19 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D228" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E228" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
@@ -6115,19 +6250,19 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F229" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
@@ -6135,19 +6270,19 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D230" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E230" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
@@ -6155,22 +6290,22 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
+        <v>342</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D231" t="s">
+        <v>163</v>
+      </c>
+      <c r="E231" t="s">
+        <v>4</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G231" t="s">
         <v>343</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D231" t="s">
-        <v>164</v>
-      </c>
-      <c r="E231" t="s">
-        <v>5</v>
-      </c>
-      <c r="F231" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G231" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
@@ -6178,19 +6313,19 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D232" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E232" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
@@ -6198,22 +6333,22 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
+        <v>344</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D233" t="s">
+        <v>83</v>
+      </c>
+      <c r="E233" t="s">
+        <v>4</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G233" t="s">
         <v>345</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D233" t="s">
-        <v>84</v>
-      </c>
-      <c r="E233" t="s">
-        <v>5</v>
-      </c>
-      <c r="F233" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G233" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
@@ -6221,19 +6356,19 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D234" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E234" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
@@ -6241,19 +6376,19 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D235" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E235" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
@@ -6261,209 +6396,794 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D236" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E236" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
+      <c r="B237" t="s">
+        <v>350</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D237" t="s">
+        <v>174</v>
+      </c>
+      <c r="E237" t="s">
+        <v>19</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
+      <c r="B238" t="s">
+        <v>351</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D238" t="s">
+        <v>174</v>
+      </c>
+      <c r="E238" t="s">
+        <v>19</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
+      <c r="B239" t="s">
+        <v>352</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>253</v>
+      </c>
+      <c r="E239" t="s">
+        <v>4</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B240" t="s">
+        <v>353</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>141</v>
+      </c>
+      <c r="E240" t="s">
+        <v>4</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B241" t="s">
+        <v>354</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D241" t="s">
+        <v>83</v>
+      </c>
+      <c r="E241" t="s">
+        <v>4</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B242" t="s">
+        <v>296</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>329</v>
+      </c>
+      <c r="E242" t="s">
+        <v>4</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B243" t="s">
+        <v>355</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D243" t="s">
+        <v>13</v>
+      </c>
+      <c r="E243" t="s">
+        <v>4</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B244" t="s">
+        <v>356</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D244" t="s">
+        <v>17</v>
+      </c>
+      <c r="E244" t="s">
+        <v>4</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B245" t="s">
+        <v>358</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D245" t="s">
+        <v>174</v>
+      </c>
+      <c r="E245" t="s">
+        <v>4</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B246" t="s">
+        <v>359</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D246" t="s">
+        <v>70</v>
+      </c>
+      <c r="E246" t="s">
+        <v>4</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B247" t="s">
+        <v>360</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D247" t="s">
+        <v>174</v>
+      </c>
+      <c r="E247" t="s">
+        <v>4</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B248" t="s">
+        <v>361</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D248" t="s">
+        <v>13</v>
+      </c>
+      <c r="E248" t="s">
+        <v>4</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G248" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B249" t="s">
+        <v>363</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D249" t="s">
+        <v>362</v>
+      </c>
+      <c r="E249" t="s">
+        <v>4</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B250" t="s">
+        <v>365</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D250" t="s">
+        <v>366</v>
+      </c>
+      <c r="E250" t="s">
+        <v>19</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B251" t="s">
+        <v>367</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D251" t="s">
+        <v>70</v>
+      </c>
+      <c r="E251" t="s">
+        <v>4</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B252" t="s">
+        <v>368</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D252" t="s">
+        <v>13</v>
+      </c>
+      <c r="E252" t="s">
+        <v>4</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G252" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B253" t="s">
+        <v>369</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D253" t="s">
+        <v>323</v>
+      </c>
+      <c r="E253" t="s">
+        <v>4</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G253" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B254" t="s">
+        <v>371</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D254" t="s">
+        <v>70</v>
+      </c>
+      <c r="E254" t="s">
+        <v>4</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B255" t="s">
+        <v>372</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D255" t="s">
+        <v>70</v>
+      </c>
+      <c r="E255" t="s">
+        <v>4</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B256" t="s">
+        <v>373</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>163</v>
+      </c>
+      <c r="E256" t="s">
+        <v>4</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B257" t="s">
+        <v>374</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D257" t="s">
+        <v>13</v>
+      </c>
+      <c r="E257" t="s">
+        <v>4</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G257" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B258" t="s">
+        <v>375</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D258" t="s">
+        <v>163</v>
+      </c>
+      <c r="E258" t="s">
+        <v>19</v>
+      </c>
+      <c r="F258" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B259" t="s">
+        <v>74</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D259" t="s">
+        <v>13</v>
+      </c>
+      <c r="E259" t="s">
+        <v>19</v>
+      </c>
+      <c r="F259" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B260" t="s">
+        <v>74</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+      <c r="E260" t="s">
+        <v>4</v>
+      </c>
+      <c r="F260" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B261" t="s">
+        <v>377</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D261" t="s">
+        <v>378</v>
+      </c>
+      <c r="E261" t="s">
+        <v>19</v>
+      </c>
+      <c r="F261" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B262" t="s">
+        <v>379</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D262" t="s">
+        <v>83</v>
+      </c>
+      <c r="E262" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262" t="s">
+        <v>380</v>
+      </c>
+      <c r="G262" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B263" t="s">
+        <v>381</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D263" t="s">
+        <v>163</v>
+      </c>
+      <c r="E263" t="s">
+        <v>4</v>
+      </c>
+      <c r="F263" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B264" t="s">
+        <v>383</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D264" t="s">
+        <v>163</v>
+      </c>
+      <c r="E264" t="s">
+        <v>4</v>
+      </c>
+      <c r="F264" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B265" t="s">
+        <v>384</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D265" t="s">
+        <v>163</v>
+      </c>
+      <c r="E265" t="s">
+        <v>4</v>
+      </c>
+      <c r="F265" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B266" t="s">
+        <v>385</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D266" t="s">
+        <v>163</v>
+      </c>
+      <c r="E266" t="s">
+        <v>19</v>
+      </c>
+      <c r="F266" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B267" t="s">
+        <v>387</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D267" t="s">
+        <v>83</v>
+      </c>
+      <c r="E267" t="s">
+        <v>19</v>
+      </c>
+      <c r="F267" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B268" t="s">
+        <v>103</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" t="s">
+        <v>174</v>
+      </c>
+      <c r="E268" t="s">
+        <v>4</v>
+      </c>
+      <c r="F268" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B269" t="s">
+        <v>388</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D269" t="s">
+        <v>83</v>
+      </c>
+      <c r="E269" t="s">
+        <v>4</v>
+      </c>
+      <c r="F269" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B270" t="s">
+        <v>389</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D270" t="s">
+        <v>70</v>
+      </c>
+      <c r="E270" t="s">
+        <v>4</v>
+      </c>
+      <c r="F270" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B271" t="s">
+        <v>390</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D271" t="s">
+        <v>163</v>
+      </c>
+      <c r="E271" t="s">
+        <v>19</v>
+      </c>
+      <c r="F271" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B272" t="s">
+        <v>391</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D272" t="s">
+        <v>163</v>
+      </c>
+      <c r="E272" t="s">
+        <v>4</v>
+      </c>
+      <c r="F272" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B273" t="s">
+        <v>392</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D273" t="s">
+        <v>393</v>
+      </c>
+      <c r="E273" t="s">
+        <v>19</v>
+      </c>
+      <c r="F273" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>394</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D274" t="s">
+        <v>378</v>
+      </c>
+      <c r="E274" t="s">
+        <v>19</v>
+      </c>
+      <c r="F274" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/exclude_list.xlsx
+++ b/data/exclude_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mflor\Documents\GitHub\dryland_restoration_synthesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8831CC71-A211-43F0-8F0C-BE67201EE1BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ADD950-331C-4A16-B21A-BC0FB784A658}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{C6F08BAA-C670-4BEE-8D8B-BC2F9FF4AD91}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="812">
   <si>
     <t>ID</t>
   </si>
@@ -299,9 +299,6 @@
     <t xml:space="preserve">planting to restore a mining area </t>
   </si>
   <si>
-    <t>effects of restoration management of arthropods</t>
-  </si>
-  <si>
     <t>adding native species to compete with exotics</t>
   </si>
   <si>
@@ -332,27 +329,15 @@
     <t>field and images</t>
   </si>
   <si>
-    <t>treatments for reduncing exotics after fire</t>
-  </si>
-  <si>
     <t>transplant experiments for restoration of biological soil crusts</t>
   </si>
   <si>
-    <t>treatments for controling an exotic species</t>
-  </si>
-  <si>
     <t>restoration programs in China</t>
   </si>
   <si>
-    <t>restoration of biological soil crusts</t>
-  </si>
-  <si>
     <t>not focus on vegetation restoration, but soil restoration</t>
   </si>
   <si>
-    <t>soil fertility reduction and sowing on exarable soil</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
@@ -362,15 +347,9 @@
     <t>fertilization and irrigation conditions for seed production and seedling establishment</t>
   </si>
   <si>
-    <t>seeding addition into shrub communities</t>
-  </si>
-  <si>
     <t>Great Basin Restoration</t>
   </si>
   <si>
-    <t>planting natives at different distances from other natives in the site</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -383,12 +362,6 @@
     <t>degradation of californian deserts</t>
   </si>
   <si>
-    <t>abundance of ants on rehabilitated and unrehabilitated deserts</t>
-  </si>
-  <si>
-    <t>rodent abundance in restoration and native areas</t>
-  </si>
-  <si>
     <t>no data, review</t>
   </si>
   <si>
@@ -398,9 +371,6 @@
     <t>Falkland Islands</t>
   </si>
   <si>
-    <t>sowing of native species to restore degraded sites</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
@@ -2343,6 +2313,162 @@
   </si>
   <si>
     <t>ecological restor-non native planting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fenced </t>
+  </si>
+  <si>
+    <t>naturally restored and afforested, effects on arthropods</t>
+  </si>
+  <si>
+    <t>diverse arthropod community</t>
+  </si>
+  <si>
+    <t>ecosystem functioning</t>
+  </si>
+  <si>
+    <t>rebuild native community</t>
+  </si>
+  <si>
+    <t>livestock and horses</t>
+  </si>
+  <si>
+    <t>exotics control</t>
+  </si>
+  <si>
+    <t>ecosystems dominated by native species</t>
+  </si>
+  <si>
+    <t>C, N</t>
+  </si>
+  <si>
+    <t>excluded</t>
+  </si>
+  <si>
+    <t>species diversity</t>
+  </si>
+  <si>
+    <t>diverse plant community</t>
+  </si>
+  <si>
+    <t>invasive annuals and fire</t>
+  </si>
+  <si>
+    <t>herbicide-herbicide and weeding-raking for reduncing exotics after fire</t>
+  </si>
+  <si>
+    <t>native plant restoration</t>
+  </si>
+  <si>
+    <t>herbicide and burning to control an exotic annual</t>
+  </si>
+  <si>
+    <t>biological soil crusts restoration</t>
+  </si>
+  <si>
+    <t>biological soil crusts</t>
+  </si>
+  <si>
+    <t>moss dominated soil crusts</t>
+  </si>
+  <si>
+    <t>anthropogenic disturbance</t>
+  </si>
+  <si>
+    <t>carbon addition-top soil removal-sowing on exarable soil</t>
+  </si>
+  <si>
+    <t>ex-arable</t>
+  </si>
+  <si>
+    <t>plant and soil community</t>
+  </si>
+  <si>
+    <t>chemical and microbia properties</t>
+  </si>
+  <si>
+    <t>rich grasslands</t>
+  </si>
+  <si>
+    <t>active restoration</t>
+  </si>
+  <si>
+    <t>intense cattle grazing and fire suppression</t>
+  </si>
+  <si>
+    <t>productive grasslands</t>
+  </si>
+  <si>
+    <t>vegetation before grazing</t>
+  </si>
+  <si>
+    <t>grasses seed addition, shrub facilitation</t>
+  </si>
+  <si>
+    <t>planting natives at different distances from other natives</t>
+  </si>
+  <si>
+    <t>cattle</t>
+  </si>
+  <si>
+    <t>fenced</t>
+  </si>
+  <si>
+    <t>active restoration, competence</t>
+  </si>
+  <si>
+    <t>revegetation</t>
+  </si>
+  <si>
+    <t>clearing</t>
+  </si>
+  <si>
+    <t>vegetation, fungi and soil</t>
+  </si>
+  <si>
+    <t>vegetation before disturbance</t>
+  </si>
+  <si>
+    <t>livestock grazing</t>
+  </si>
+  <si>
+    <t>ants as indicators of ecosystem condition</t>
+  </si>
+  <si>
+    <t>rodent abundance in restored and undegraded areas</t>
+  </si>
+  <si>
+    <t>construction of flood structures</t>
+  </si>
+  <si>
+    <t>undegraded natural area</t>
+  </si>
+  <si>
+    <t>recovery of rodent community</t>
+  </si>
+  <si>
+    <t>sowing native species</t>
+  </si>
+  <si>
+    <t>moisture and temperature</t>
+  </si>
+  <si>
+    <t>semi-natural grasslands</t>
+  </si>
+  <si>
+    <t>past fertilization</t>
+  </si>
+  <si>
+    <t>P, N evaluation</t>
+  </si>
+  <si>
+    <t>grazing as a treatment</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>biogeochemistry</t>
   </si>
 </sst>
 </file>
@@ -2716,8 +2842,8 @@
   <dimension ref="A1:O274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2733,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2745,31 +2871,31 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -2777,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -2792,25 +2918,25 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="L2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="M2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -2818,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2833,25 +2959,25 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I3" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="J3" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K3" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="L3" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="M3" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="N3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -2859,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2874,22 +3000,22 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I4" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J4" t="s">
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="L4" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="M4" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -2897,7 +3023,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -2912,25 +3038,25 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I5" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J5" t="s">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N5" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -2938,7 +3064,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2953,25 +3079,25 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="J6" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K6" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="L6" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="M6" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="N6" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -2979,7 +3105,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -2994,22 +3120,22 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="J7" t="s">
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="L7" t="s">
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -3017,7 +3143,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -3035,22 +3161,22 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J8" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K8" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L8" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M8" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N8" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -3058,7 +3184,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -3076,22 +3202,22 @@
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -3099,7 +3225,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -3114,25 +3240,25 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I10" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="J10" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K10" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="L10" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="M10" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N10" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -3140,7 +3266,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -3158,22 +3284,22 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J11" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K11" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L11" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M11" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N11" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -3181,10 +3307,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C12" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -3196,25 +3322,25 @@
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I12" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="J12" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K12" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="L12" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="M12" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="N12" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -3222,7 +3348,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -3237,28 +3363,28 @@
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I13" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="J13" t="s">
         <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="L13" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="M13" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N13" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="O13" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -3266,10 +3392,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C14" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -3281,25 +3407,25 @@
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I14" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J14" t="s">
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="L14" t="s">
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="N14" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -3307,7 +3433,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -3325,22 +3451,22 @@
         <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J15" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K15" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L15" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M15" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N15" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -3348,7 +3474,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -3363,25 +3489,25 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I16" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="J16" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K16" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="L16" t="s">
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="N16" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -3389,10 +3515,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C17" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -3404,25 +3530,25 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I17" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="J17" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="K17" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="L17" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="M17" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N17" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -3430,7 +3556,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -3448,22 +3574,22 @@
         <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J18" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K18" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L18" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M18" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N18" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -3471,7 +3597,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -3492,22 +3618,22 @@
         <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J19" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K19" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L19" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M19" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N19" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -3515,7 +3641,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -3530,25 +3656,25 @@
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I20" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="J20" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="K20" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="L20" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M20" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="N20" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -3556,7 +3682,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -3571,25 +3697,25 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I21" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="J21" t="s">
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="L21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M21" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="N21" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -3597,7 +3723,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -3612,22 +3738,22 @@
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I22" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="K22" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L22" t="s">
         <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N22" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -3635,7 +3761,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
@@ -3653,22 +3779,22 @@
         <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J23" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K23" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L23" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M23" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N23" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -3676,7 +3802,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
@@ -3691,22 +3817,22 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I24" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="J24" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K24" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="L24" t="s">
         <v>4</v>
       </c>
       <c r="M24" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N24" t="s">
         <v>69</v>
@@ -3717,7 +3843,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
@@ -3738,22 +3864,22 @@
         <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J25" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K25" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L25" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M25" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N25" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -3761,7 +3887,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
@@ -3782,22 +3908,22 @@
         <v>52</v>
       </c>
       <c r="I26" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J26" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K26" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L26" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M26" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N26" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -3805,7 +3931,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
@@ -3823,22 +3949,22 @@
         <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J27" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K27" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L27" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M27" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N27" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -3846,7 +3972,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
@@ -3864,22 +3990,22 @@
         <v>59</v>
       </c>
       <c r="I28" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J28" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K28" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L28" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M28" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N28" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -3887,7 +4013,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
@@ -3902,25 +4028,25 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I29" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="J29" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K29" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L29" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M29" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="N29" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -3928,7 +4054,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
@@ -3943,25 +4069,25 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I30" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="J30" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K30" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="L30" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="M30" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="N30" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -3969,10 +4095,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C31" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D31" t="s">
         <v>27</v>
@@ -3984,25 +4110,25 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I31" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="J31" t="s">
         <v>4</v>
       </c>
       <c r="K31" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="L31" t="s">
         <v>4</v>
       </c>
       <c r="M31" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N31" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -4010,7 +4136,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -4025,25 +4151,25 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I32" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="J32" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K32" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="L32" t="s">
         <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N32" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -4051,7 +4177,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
@@ -4066,25 +4192,25 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I33" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="J33" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K33" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="L33" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="M33" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N33" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -4092,7 +4218,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C34" t="s">
         <v>67</v>
@@ -4110,22 +4236,22 @@
         <v>66</v>
       </c>
       <c r="I34" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J34" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K34" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L34" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N34" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -4133,7 +4259,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -4148,25 +4274,25 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I35" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="J35" t="s">
         <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="L35" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M35" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N35" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -4174,7 +4300,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C36" t="s">
         <v>69</v>
@@ -4189,28 +4315,28 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H36" t="s">
         <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="J36" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K36" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="L36" t="s">
         <v>4</v>
       </c>
       <c r="M36" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="N36" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -4218,10 +4344,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C37" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -4236,22 +4362,22 @@
         <v>66</v>
       </c>
       <c r="I37" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J37" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K37" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N37" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -4259,7 +4385,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C38" t="s">
         <v>70</v>
@@ -4274,25 +4400,25 @@
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I38" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="J38" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K38" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="L38" t="s">
         <v>4</v>
       </c>
       <c r="M38" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="N38" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -4300,7 +4426,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C39" t="s">
         <v>35</v>
@@ -4318,22 +4444,22 @@
         <v>35</v>
       </c>
       <c r="I39" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J39" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K39" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L39" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N39" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -4341,7 +4467,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
@@ -4356,28 +4482,28 @@
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I40" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J40" t="s">
         <v>4</v>
       </c>
       <c r="K40" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="L40" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M40" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N40" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="O40" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -4385,7 +4511,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C41" t="s">
         <v>73</v>
@@ -4400,25 +4526,25 @@
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I41" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="J41" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="K41" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="L41" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="M41" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="N41" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -4426,7 +4552,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C42" t="s">
         <v>74</v>
@@ -4441,25 +4567,25 @@
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I42" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="J42" t="s">
         <v>4</v>
       </c>
       <c r="K42" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="L42" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="M42" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N42" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -4467,7 +4593,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
@@ -4482,25 +4608,25 @@
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I43" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="J43" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K43" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="L43" t="s">
         <v>4</v>
       </c>
       <c r="M43" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N43" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -4508,10 +4634,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C44" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
@@ -4523,25 +4649,25 @@
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I44" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="J44" t="s">
         <v>4</v>
       </c>
       <c r="K44" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="L44" t="s">
         <v>4</v>
       </c>
       <c r="M44" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="N44" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -4549,7 +4675,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C45" t="s">
         <v>77</v>
@@ -4564,22 +4690,22 @@
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I45" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="K45" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="L45" t="s">
         <v>4</v>
       </c>
       <c r="M45" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="N45" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -4587,7 +4713,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C46" t="s">
         <v>78</v>
@@ -4602,25 +4728,25 @@
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I46" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="J46" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="K46" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M46" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="N46" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -4628,7 +4754,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C47" t="s">
         <v>79</v>
@@ -4643,31 +4769,31 @@
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H47" t="s">
         <v>52</v>
       </c>
       <c r="I47" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J47" t="s">
         <v>4</v>
       </c>
       <c r="K47" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="L47" t="s">
         <v>4</v>
       </c>
       <c r="M47" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N47" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="O47" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -4675,7 +4801,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C48" t="s">
         <v>82</v>
@@ -4693,30 +4819,30 @@
         <v>35</v>
       </c>
       <c r="I48" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J48" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K48" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M48" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N48" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C49" t="s">
         <v>83</v>
@@ -4731,33 +4857,33 @@
         <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I49" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="J49" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="K49" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="L49" t="s">
         <v>4</v>
       </c>
       <c r="M49" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="N49" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C50" t="s">
         <v>84</v>
@@ -4778,30 +4904,30 @@
         <v>52</v>
       </c>
       <c r="I50" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J50" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K50" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L50" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M50" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N50" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
@@ -4816,39 +4942,39 @@
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H51" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I51" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J51" t="s">
         <v>4</v>
       </c>
       <c r="K51" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="L51" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="M51" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N51" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>761</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
@@ -4860,18 +4986,36 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I52" t="s">
+        <v>389</v>
+      </c>
+      <c r="J52" t="s">
+        <v>760</v>
+      </c>
+      <c r="K52" t="s">
+        <v>447</v>
+      </c>
+      <c r="L52" t="s">
+        <v>436</v>
+      </c>
+      <c r="M52" t="s">
+        <v>762</v>
+      </c>
+      <c r="N52" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
@@ -4883,18 +5027,36 @@
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I53" t="s">
+        <v>748</v>
+      </c>
+      <c r="J53" t="s">
+        <v>765</v>
+      </c>
+      <c r="K53" t="s">
+        <v>407</v>
+      </c>
+      <c r="L53" t="s">
+        <v>4</v>
+      </c>
+      <c r="M53" t="s">
+        <v>407</v>
+      </c>
+      <c r="N53" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D54" t="s">
         <v>27</v>
@@ -4906,21 +5068,39 @@
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I54" t="s">
+        <v>748</v>
+      </c>
+      <c r="J54" t="s">
+        <v>740</v>
+      </c>
+      <c r="K54" t="s">
+        <v>400</v>
+      </c>
+      <c r="L54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" t="s">
+        <v>392</v>
+      </c>
+      <c r="N54" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
         <v>91</v>
-      </c>
-      <c r="D55" t="s">
-        <v>92</v>
       </c>
       <c r="E55" t="s">
         <v>65</v>
@@ -4929,21 +5109,39 @@
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I55" t="s">
+        <v>748</v>
+      </c>
+      <c r="J55" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" t="s">
+        <v>400</v>
+      </c>
+      <c r="L55" t="s">
+        <v>411</v>
+      </c>
+      <c r="M55" t="s">
+        <v>392</v>
+      </c>
+      <c r="N55" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" t="s">
         <v>76</v>
@@ -4952,18 +5150,36 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I56" t="s">
+        <v>748</v>
+      </c>
+      <c r="J56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" t="s">
+        <v>400</v>
+      </c>
+      <c r="L56" t="s">
+        <v>768</v>
+      </c>
+      <c r="M56" t="s">
+        <v>392</v>
+      </c>
+      <c r="N56" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
         <v>24</v>
@@ -4972,24 +5188,45 @@
         <v>76</v>
       </c>
       <c r="F57" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>342</v>
+        <v>176</v>
       </c>
       <c r="H57" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I57" t="s">
+        <v>332</v>
+      </c>
+      <c r="J57" t="s">
+        <v>332</v>
+      </c>
+      <c r="K57" t="s">
+        <v>332</v>
+      </c>
+      <c r="L57" t="s">
+        <v>332</v>
+      </c>
+      <c r="M57" t="s">
+        <v>332</v>
+      </c>
+      <c r="N57" t="s">
+        <v>332</v>
+      </c>
+      <c r="O57" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -5004,56 +5241,74 @@
         <v>66</v>
       </c>
       <c r="I58" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J58" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K58" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L58" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M58" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N58" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" t="s">
         <v>96</v>
       </c>
-      <c r="D59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" t="s">
-        <v>97</v>
-      </c>
       <c r="F59" t="s">
         <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I59" t="s">
+        <v>389</v>
+      </c>
+      <c r="J59" t="s">
+        <v>388</v>
+      </c>
+      <c r="K59" t="s">
+        <v>770</v>
+      </c>
+      <c r="L59" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" t="s">
+        <v>771</v>
+      </c>
+      <c r="N59" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>773</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
@@ -5065,18 +5320,36 @@
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I60" t="s">
+        <v>772</v>
+      </c>
+      <c r="J60" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" t="s">
+        <v>400</v>
+      </c>
+      <c r="L60" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" t="s">
+        <v>392</v>
+      </c>
+      <c r="N60" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
         <v>24</v>
@@ -5088,39 +5361,39 @@
         <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H61" t="s">
         <v>52</v>
       </c>
       <c r="I61" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J61" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K61" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L61" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M61" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N61" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>775</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
@@ -5132,18 +5405,36 @@
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I62" t="s">
+        <v>748</v>
+      </c>
+      <c r="J62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" t="s">
+        <v>400</v>
+      </c>
+      <c r="L62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" t="s">
+        <v>407</v>
+      </c>
+      <c r="N62" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -5158,33 +5449,33 @@
         <v>59</v>
       </c>
       <c r="I63" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J63" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K63" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L63" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M63" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N63" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>776</v>
       </c>
       <c r="D64" t="s">
         <v>24</v>
@@ -5193,68 +5484,83 @@
         <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>104</v>
-      </c>
-      <c r="H64" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
       <c r="I64" t="s">
-        <v>342</v>
+        <v>779</v>
       </c>
       <c r="J64" t="s">
-        <v>342</v>
+        <v>4</v>
       </c>
       <c r="K64" t="s">
-        <v>342</v>
+        <v>777</v>
       </c>
       <c r="L64" t="s">
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="M64" t="s">
-        <v>342</v>
+        <v>778</v>
       </c>
       <c r="N64" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>780</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F65" t="s">
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I65" t="s">
+        <v>781</v>
+      </c>
+      <c r="J65" t="s">
+        <v>4</v>
+      </c>
+      <c r="K65" t="s">
+        <v>782</v>
+      </c>
+      <c r="L65" t="s">
+        <v>783</v>
+      </c>
+      <c r="M65" t="s">
+        <v>784</v>
+      </c>
+      <c r="N65" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s">
         <v>76</v>
@@ -5263,18 +5569,39 @@
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I66" t="s">
+        <v>385</v>
+      </c>
+      <c r="J66" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" t="s">
+        <v>400</v>
+      </c>
+      <c r="L66" t="s">
+        <v>411</v>
+      </c>
+      <c r="M66" t="s">
+        <v>392</v>
+      </c>
+      <c r="N66" t="s">
+        <v>385</v>
+      </c>
+      <c r="O66" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>789</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
@@ -5286,18 +5613,33 @@
         <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I67" t="s">
+        <v>786</v>
+      </c>
+      <c r="K67" t="s">
+        <v>787</v>
+      </c>
+      <c r="L67" t="s">
+        <v>4</v>
+      </c>
+      <c r="M67" t="s">
+        <v>788</v>
+      </c>
+      <c r="N67" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -5312,33 +5654,33 @@
         <v>66</v>
       </c>
       <c r="I68" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J68" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K68" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L68" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M68" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N68" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>790</v>
       </c>
       <c r="D69" t="s">
         <v>27</v>
@@ -5350,38 +5692,74 @@
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I69" t="s">
+        <v>389</v>
+      </c>
+      <c r="J69" t="s">
+        <v>791</v>
+      </c>
+      <c r="K69" t="s">
+        <v>400</v>
+      </c>
+      <c r="L69" t="s">
+        <v>4</v>
+      </c>
+      <c r="M69" t="s">
+        <v>392</v>
+      </c>
+      <c r="N69" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F70" t="s">
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I70" t="s">
+        <v>410</v>
+      </c>
+      <c r="J70" t="s">
+        <v>792</v>
+      </c>
+      <c r="K70" t="s">
+        <v>394</v>
+      </c>
+      <c r="L70" t="s">
+        <v>4</v>
+      </c>
+      <c r="M70" t="s">
+        <v>788</v>
+      </c>
+      <c r="N70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C71" t="s">
         <v>45</v>
@@ -5399,33 +5777,33 @@
         <v>35</v>
       </c>
       <c r="I71" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J71" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K71" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L71" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M71" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="N71" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
         <v>27</v>
@@ -5437,18 +5815,36 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I72" t="s">
+        <v>795</v>
+      </c>
+      <c r="J72" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" t="s">
+        <v>796</v>
+      </c>
+      <c r="L72" t="s">
+        <v>436</v>
+      </c>
+      <c r="M72" t="s">
+        <v>797</v>
+      </c>
+      <c r="N72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
@@ -5462,16 +5858,34 @@
       <c r="G73" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I73" t="s">
+        <v>332</v>
+      </c>
+      <c r="J73" t="s">
+        <v>332</v>
+      </c>
+      <c r="K73" t="s">
+        <v>332</v>
+      </c>
+      <c r="L73" t="s">
+        <v>332</v>
+      </c>
+      <c r="M73" t="s">
+        <v>332</v>
+      </c>
+      <c r="N73" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>799</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
@@ -5483,18 +5897,36 @@
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I74" t="s">
+        <v>798</v>
+      </c>
+      <c r="J74" t="s">
+        <v>388</v>
+      </c>
+      <c r="K74" t="s">
+        <v>400</v>
+      </c>
+      <c r="L74" t="s">
+        <v>4</v>
+      </c>
+      <c r="M74" t="s">
+        <v>385</v>
+      </c>
+      <c r="N74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C75" t="s">
-        <v>117</v>
+        <v>800</v>
       </c>
       <c r="D75" t="s">
         <v>27</v>
@@ -5506,18 +5938,36 @@
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I75" t="s">
+        <v>801</v>
+      </c>
+      <c r="J75" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75" t="s">
+        <v>400</v>
+      </c>
+      <c r="L75" t="s">
+        <v>4</v>
+      </c>
+      <c r="M75" t="s">
+        <v>802</v>
+      </c>
+      <c r="N75" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C76" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -5529,87 +5979,159 @@
         <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="I76" t="s">
+        <v>332</v>
+      </c>
+      <c r="J76" t="s">
+        <v>332</v>
+      </c>
+      <c r="K76" t="s">
+        <v>332</v>
+      </c>
+      <c r="L76" t="s">
+        <v>332</v>
+      </c>
+      <c r="M76" t="s">
+        <v>332</v>
+      </c>
+      <c r="N76" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>804</v>
       </c>
       <c r="D77" t="s">
         <v>27</v>
       </c>
       <c r="E77" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F77" t="s">
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I77" t="s">
+        <v>389</v>
+      </c>
+      <c r="J77" t="s">
+        <v>431</v>
+      </c>
+      <c r="K77" t="s">
+        <v>400</v>
+      </c>
+      <c r="L77" t="s">
+        <v>805</v>
+      </c>
+      <c r="M77" t="s">
+        <v>794</v>
+      </c>
+      <c r="N77" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F78" t="s">
         <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I78" t="s">
+        <v>807</v>
+      </c>
+      <c r="J78" t="s">
+        <v>809</v>
+      </c>
+      <c r="K78" t="s">
+        <v>806</v>
+      </c>
+      <c r="L78" t="s">
+        <v>808</v>
+      </c>
+      <c r="M78" t="s">
+        <v>806</v>
+      </c>
+      <c r="N78" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F79" t="s">
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="I79" t="s">
+        <v>810</v>
+      </c>
+      <c r="J79" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79" t="s">
+        <v>806</v>
+      </c>
+      <c r="L79" t="s">
+        <v>811</v>
+      </c>
+      <c r="M79" t="s">
+        <v>806</v>
+      </c>
+      <c r="N79" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -5621,67 +6143,85 @@
         <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="I80" t="s">
+        <v>332</v>
+      </c>
+      <c r="J80" t="s">
+        <v>332</v>
+      </c>
+      <c r="K80" t="s">
+        <v>332</v>
+      </c>
+      <c r="L80" t="s">
+        <v>332</v>
+      </c>
+      <c r="M80" t="s">
+        <v>332</v>
+      </c>
+      <c r="N80" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C81" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D81" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E81" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F81" t="s">
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H81" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F82" t="s">
         <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D83" t="s">
         <v>27</v>
@@ -5693,73 +6233,109 @@
         <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H83" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I83" t="s">
+        <v>332</v>
+      </c>
+      <c r="J83" t="s">
+        <v>332</v>
+      </c>
+      <c r="K83" t="s">
+        <v>332</v>
+      </c>
+      <c r="L83" t="s">
+        <v>332</v>
+      </c>
+      <c r="M83" t="s">
+        <v>332</v>
+      </c>
+      <c r="N83" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F84" t="s">
         <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H84" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I84" t="s">
+        <v>332</v>
+      </c>
+      <c r="J84" t="s">
+        <v>332</v>
+      </c>
+      <c r="K84" t="s">
+        <v>332</v>
+      </c>
+      <c r="L84" t="s">
+        <v>332</v>
+      </c>
+      <c r="M84" t="s">
+        <v>332</v>
+      </c>
+      <c r="N84" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C85" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D85" t="s">
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F85" t="s">
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C86" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D86" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -5768,21 +6344,21 @@
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H86" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C87" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D87" t="s">
         <v>27</v>
@@ -5794,41 +6370,41 @@
         <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C88" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F88" t="s">
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
         <v>27</v>
@@ -5840,21 +6416,21 @@
         <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C90" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" t="s">
         <v>76</v>
@@ -5863,21 +6439,21 @@
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C91" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D91" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E91" t="s">
         <v>81</v>
@@ -5888,16 +6464,34 @@
       <c r="G91" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I91" t="s">
+        <v>332</v>
+      </c>
+      <c r="J91" t="s">
+        <v>332</v>
+      </c>
+      <c r="K91" t="s">
+        <v>332</v>
+      </c>
+      <c r="L91" t="s">
+        <v>332</v>
+      </c>
+      <c r="M91" t="s">
+        <v>332</v>
+      </c>
+      <c r="N91" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C92" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -5909,70 +6503,70 @@
         <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C94" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F94" t="s">
         <v>4</v>
       </c>
       <c r="G94" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C95" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
@@ -5981,18 +6575,36 @@
         <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="I95" t="s">
+        <v>332</v>
+      </c>
+      <c r="J95" t="s">
+        <v>332</v>
+      </c>
+      <c r="K95" t="s">
+        <v>332</v>
+      </c>
+      <c r="L95" t="s">
+        <v>332</v>
+      </c>
+      <c r="M95" t="s">
+        <v>332</v>
+      </c>
+      <c r="N95" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C96" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D96" t="s">
         <v>27</v>
@@ -6004,41 +6616,41 @@
         <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C97" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D97" t="s">
         <v>27</v>
       </c>
       <c r="E97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F97" t="s">
         <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C98" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D98" t="s">
         <v>66</v>
@@ -6055,45 +6667,63 @@
       <c r="H98" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I98" t="s">
+        <v>332</v>
+      </c>
+      <c r="J98" t="s">
+        <v>332</v>
+      </c>
+      <c r="K98" t="s">
+        <v>332</v>
+      </c>
+      <c r="L98" t="s">
+        <v>332</v>
+      </c>
+      <c r="M98" t="s">
+        <v>332</v>
+      </c>
+      <c r="N98" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C99" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D99" t="s">
         <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F99" t="s">
         <v>4</v>
       </c>
       <c r="G99" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C100" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D100" t="s">
         <v>66</v>
       </c>
       <c r="E100" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
@@ -6101,16 +6731,34 @@
       <c r="G100" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I100" t="s">
+        <v>332</v>
+      </c>
+      <c r="J100" t="s">
+        <v>332</v>
+      </c>
+      <c r="K100" t="s">
+        <v>332</v>
+      </c>
+      <c r="L100" t="s">
+        <v>332</v>
+      </c>
+      <c r="M100" t="s">
+        <v>332</v>
+      </c>
+      <c r="N100" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C101" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D101" t="s">
         <v>27</v>
@@ -6122,18 +6770,18 @@
         <v>4</v>
       </c>
       <c r="G101" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C102" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D102" t="s">
         <v>27</v>
@@ -6145,21 +6793,21 @@
         <v>4</v>
       </c>
       <c r="G102" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C103" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D103" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E103" t="s">
         <v>65</v>
@@ -6168,18 +6816,36 @@
         <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+      <c r="I103" t="s">
+        <v>332</v>
+      </c>
+      <c r="J103" t="s">
+        <v>332</v>
+      </c>
+      <c r="K103" t="s">
+        <v>332</v>
+      </c>
+      <c r="L103" t="s">
+        <v>332</v>
+      </c>
+      <c r="M103" t="s">
+        <v>332</v>
+      </c>
+      <c r="N103" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C104" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D104" t="s">
         <v>66</v>
@@ -6193,85 +6859,103 @@
       <c r="G104" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I104" t="s">
+        <v>332</v>
+      </c>
+      <c r="J104" t="s">
+        <v>332</v>
+      </c>
+      <c r="K104" t="s">
+        <v>332</v>
+      </c>
+      <c r="L104" t="s">
+        <v>332</v>
+      </c>
+      <c r="M104" t="s">
+        <v>332</v>
+      </c>
+      <c r="N104" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C105" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
       </c>
       <c r="E105" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F105" t="s">
         <v>4</v>
       </c>
       <c r="G105" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C106" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D106" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E106" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F106" t="s">
         <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="C107" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D107" t="s">
         <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F107" t="s">
         <v>4</v>
       </c>
       <c r="G107" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C108" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -6283,21 +6967,21 @@
         <v>4</v>
       </c>
       <c r="G108" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H108" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C109" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D109" t="s">
         <v>27</v>
@@ -6309,18 +6993,18 @@
         <v>4</v>
       </c>
       <c r="G109" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C110" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D110" t="s">
         <v>27</v>
@@ -6332,21 +7016,21 @@
         <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C111" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D111" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E111" t="s">
         <v>12</v>
@@ -6355,18 +7039,18 @@
         <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D112" t="s">
         <v>27</v>
@@ -6378,67 +7062,85 @@
         <v>4</v>
       </c>
       <c r="G112" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C113" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D113" t="s">
         <v>27</v>
       </c>
       <c r="E113" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F113" t="s">
         <v>4</v>
       </c>
       <c r="G113" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="C114" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D114" t="s">
         <v>27</v>
       </c>
       <c r="E114" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F114" t="s">
         <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H114" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I114" t="s">
+        <v>332</v>
+      </c>
+      <c r="J114" t="s">
+        <v>332</v>
+      </c>
+      <c r="K114" t="s">
+        <v>332</v>
+      </c>
+      <c r="L114" t="s">
+        <v>332</v>
+      </c>
+      <c r="M114" t="s">
+        <v>332</v>
+      </c>
+      <c r="N114" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C115" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D115" t="s">
         <v>27</v>
@@ -6450,139 +7152,157 @@
         <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C116" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D116" t="s">
         <v>27</v>
       </c>
       <c r="E116" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F116" t="s">
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C117" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D117" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E117" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F117" t="s">
         <v>18</v>
       </c>
       <c r="G117" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H117" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C118" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D118" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E118" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F118" t="s">
         <v>18</v>
       </c>
       <c r="G118" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+      <c r="I118" t="s">
+        <v>332</v>
+      </c>
+      <c r="J118" t="s">
+        <v>332</v>
+      </c>
+      <c r="K118" t="s">
+        <v>332</v>
+      </c>
+      <c r="L118" t="s">
+        <v>332</v>
+      </c>
+      <c r="M118" t="s">
+        <v>332</v>
+      </c>
+      <c r="N118" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C119" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D119" t="s">
         <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F119" t="s">
         <v>4</v>
       </c>
       <c r="G119" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C120" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D120" t="s">
         <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F120" t="s">
         <v>4</v>
       </c>
       <c r="G120" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C121" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E121" t="s">
         <v>10</v>
@@ -6591,21 +7311,21 @@
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C122" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E122" t="s">
         <v>12</v>
@@ -6614,21 +7334,21 @@
         <v>4</v>
       </c>
       <c r="G122" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C123" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D123" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E123" t="s">
         <v>81</v>
@@ -6637,24 +7357,42 @@
         <v>18</v>
       </c>
       <c r="G123" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+      <c r="I123" t="s">
+        <v>332</v>
+      </c>
+      <c r="J123" t="s">
+        <v>332</v>
+      </c>
+      <c r="K123" t="s">
+        <v>332</v>
+      </c>
+      <c r="L123" t="s">
+        <v>332</v>
+      </c>
+      <c r="M123" t="s">
+        <v>332</v>
+      </c>
+      <c r="N123" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C124" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D124" t="s">
         <v>35</v>
       </c>
       <c r="E124" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F124" t="s">
         <v>18</v>
@@ -6663,18 +7401,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C125" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D125" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E125" t="s">
         <v>81</v>
@@ -6683,44 +7421,44 @@
         <v>4</v>
       </c>
       <c r="G125" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C126" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D126" t="s">
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F126" t="s">
         <v>4</v>
       </c>
       <c r="G126" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C127" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D127" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E127" t="s">
         <v>10</v>
@@ -6729,44 +7467,44 @@
         <v>4</v>
       </c>
       <c r="G127" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C128" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D128" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E128" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F128" t="s">
         <v>4</v>
       </c>
       <c r="G128" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C129" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D129" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E129" t="s">
         <v>10</v>
@@ -6775,18 +7513,18 @@
         <v>4</v>
       </c>
       <c r="G129" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C130" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D130" t="s">
         <v>27</v>
@@ -6798,18 +7536,18 @@
         <v>4</v>
       </c>
       <c r="G130" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C131" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D131" t="s">
         <v>85</v>
@@ -6821,21 +7559,21 @@
         <v>4</v>
       </c>
       <c r="G131" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H131" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C132" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D132" t="s">
         <v>66</v>
@@ -6847,21 +7585,39 @@
         <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+      <c r="I132" t="s">
+        <v>332</v>
+      </c>
+      <c r="J132" t="s">
+        <v>332</v>
+      </c>
+      <c r="K132" t="s">
+        <v>332</v>
+      </c>
+      <c r="L132" t="s">
+        <v>332</v>
+      </c>
+      <c r="M132" t="s">
+        <v>332</v>
+      </c>
+      <c r="N132" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C133" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D133" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E133" t="s">
         <v>65</v>
@@ -6870,18 +7626,18 @@
         <v>4</v>
       </c>
       <c r="G133" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C134" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D134" t="s">
         <v>85</v>
@@ -6893,67 +7649,85 @@
         <v>18</v>
       </c>
       <c r="G134" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+      <c r="I134" t="s">
+        <v>332</v>
+      </c>
+      <c r="J134" t="s">
+        <v>332</v>
+      </c>
+      <c r="K134" t="s">
+        <v>332</v>
+      </c>
+      <c r="L134" t="s">
+        <v>332</v>
+      </c>
+      <c r="M134" t="s">
+        <v>332</v>
+      </c>
+      <c r="N134" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C135" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D135" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E135" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F135" t="s">
         <v>4</v>
       </c>
       <c r="G135" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="C136" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D136" t="s">
         <v>27</v>
       </c>
       <c r="E136" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F136" t="s">
         <v>4</v>
       </c>
       <c r="G136" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="C137" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D137" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E137" t="s">
         <v>12</v>
@@ -6962,21 +7736,39 @@
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+      <c r="I137" t="s">
+        <v>332</v>
+      </c>
+      <c r="J137" t="s">
+        <v>332</v>
+      </c>
+      <c r="K137" t="s">
+        <v>332</v>
+      </c>
+      <c r="L137" t="s">
+        <v>332</v>
+      </c>
+      <c r="M137" t="s">
+        <v>332</v>
+      </c>
+      <c r="N137" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="C138" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D138" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E138" t="s">
         <v>12</v>
@@ -6985,18 +7777,36 @@
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+      <c r="I138" t="s">
+        <v>332</v>
+      </c>
+      <c r="J138" t="s">
+        <v>332</v>
+      </c>
+      <c r="K138" t="s">
+        <v>332</v>
+      </c>
+      <c r="L138" t="s">
+        <v>332</v>
+      </c>
+      <c r="M138" t="s">
+        <v>332</v>
+      </c>
+      <c r="N138" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C139" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D139" t="s">
         <v>27</v>
@@ -7008,18 +7818,36 @@
         <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+      <c r="I139" t="s">
+        <v>332</v>
+      </c>
+      <c r="J139" t="s">
+        <v>332</v>
+      </c>
+      <c r="K139" t="s">
+        <v>332</v>
+      </c>
+      <c r="L139" t="s">
+        <v>332</v>
+      </c>
+      <c r="M139" t="s">
+        <v>332</v>
+      </c>
+      <c r="N139" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="C140" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D140" t="s">
         <v>27</v>
@@ -7031,18 +7859,18 @@
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C141" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D141" t="s">
         <v>35</v>
@@ -7056,19 +7884,37 @@
       <c r="G141" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I141" t="s">
+        <v>332</v>
+      </c>
+      <c r="J141" t="s">
+        <v>332</v>
+      </c>
+      <c r="K141" t="s">
+        <v>332</v>
+      </c>
+      <c r="L141" t="s">
+        <v>332</v>
+      </c>
+      <c r="M141" t="s">
+        <v>332</v>
+      </c>
+      <c r="N141" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="C142" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D142" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -7077,21 +7923,21 @@
         <v>4</v>
       </c>
       <c r="G142" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="C143" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D143" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E143" t="s">
         <v>65</v>
@@ -7100,21 +7946,21 @@
         <v>4</v>
       </c>
       <c r="G143" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="C144" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D144" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E144" t="s">
         <v>65</v>
@@ -7123,18 +7969,18 @@
         <v>4</v>
       </c>
       <c r="G144" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C145" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D145" t="s">
         <v>66</v>
@@ -7146,18 +7992,36 @@
         <v>18</v>
       </c>
       <c r="G145" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+      <c r="I145" t="s">
+        <v>332</v>
+      </c>
+      <c r="J145" t="s">
+        <v>332</v>
+      </c>
+      <c r="K145" t="s">
+        <v>332</v>
+      </c>
+      <c r="L145" t="s">
+        <v>332</v>
+      </c>
+      <c r="M145" t="s">
+        <v>332</v>
+      </c>
+      <c r="N145" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="C146" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D146" t="s">
         <v>27</v>
@@ -7169,44 +8033,44 @@
         <v>4</v>
       </c>
       <c r="G146" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C147" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D147" t="s">
         <v>27</v>
       </c>
       <c r="E147" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F147" t="s">
         <v>4</v>
       </c>
       <c r="G147" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="C148" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D148" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E148" t="s">
         <v>65</v>
@@ -7215,18 +8079,18 @@
         <v>4</v>
       </c>
       <c r="G148" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C149" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D149" t="s">
         <v>27</v>
@@ -7238,18 +8102,18 @@
         <v>18</v>
       </c>
       <c r="G149" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C150" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D150" t="s">
         <v>27</v>
@@ -7261,87 +8125,105 @@
         <v>4</v>
       </c>
       <c r="G150" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C151" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D151" t="s">
         <v>85</v>
       </c>
       <c r="E151" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F151" t="s">
         <v>18</v>
       </c>
       <c r="G151" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="I151" t="s">
+        <v>332</v>
+      </c>
+      <c r="J151" t="s">
+        <v>332</v>
+      </c>
+      <c r="K151" t="s">
+        <v>332</v>
+      </c>
+      <c r="L151" t="s">
+        <v>332</v>
+      </c>
+      <c r="M151" t="s">
+        <v>332</v>
+      </c>
+      <c r="N151" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="C152" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D152" t="s">
         <v>24</v>
       </c>
       <c r="E152" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F152" t="s">
         <v>18</v>
       </c>
       <c r="G152" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C153" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D153" t="s">
         <v>24</v>
       </c>
       <c r="E153" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F153" t="s">
         <v>4</v>
       </c>
       <c r="G153" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="C154" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D154" t="s">
         <v>27</v>
@@ -7353,21 +8235,21 @@
         <v>4</v>
       </c>
       <c r="G154" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C155" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D155" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E155" t="s">
         <v>12</v>
@@ -7376,18 +8258,18 @@
         <v>4</v>
       </c>
       <c r="G155" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C156" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D156" t="s">
         <v>27</v>
@@ -7399,24 +8281,24 @@
         <v>4</v>
       </c>
       <c r="G156" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C157" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D157" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E157" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F157" t="s">
         <v>18</v>
@@ -7427,39 +8309,57 @@
       <c r="H157" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I157" t="s">
+        <v>332</v>
+      </c>
+      <c r="J157" t="s">
+        <v>332</v>
+      </c>
+      <c r="K157" t="s">
+        <v>332</v>
+      </c>
+      <c r="L157" t="s">
+        <v>332</v>
+      </c>
+      <c r="M157" t="s">
+        <v>332</v>
+      </c>
+      <c r="N157" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="C158" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D158" t="s">
         <v>27</v>
       </c>
       <c r="E158" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F158" t="s">
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C159" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D159" t="s">
         <v>27</v>
@@ -7471,18 +8371,18 @@
         <v>4</v>
       </c>
       <c r="G159" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="C160" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D160" t="s">
         <v>35</v>
@@ -7497,15 +8397,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="C161" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D161" t="s">
         <v>27</v>
@@ -7517,113 +8417,131 @@
         <v>4</v>
       </c>
       <c r="G161" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G162" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C163" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E163" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G163" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="C164" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E164" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="I164" t="s">
+        <v>332</v>
+      </c>
+      <c r="J164" t="s">
+        <v>332</v>
+      </c>
+      <c r="K164" t="s">
+        <v>332</v>
+      </c>
+      <c r="L164" t="s">
+        <v>332</v>
+      </c>
+      <c r="M164" t="s">
+        <v>332</v>
+      </c>
+      <c r="N164" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C165" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E165" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G165" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C166" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>85</v>
@@ -7635,18 +8553,36 @@
         <v>18</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="I166" t="s">
+        <v>332</v>
+      </c>
+      <c r="J166" t="s">
+        <v>332</v>
+      </c>
+      <c r="K166" t="s">
+        <v>332</v>
+      </c>
+      <c r="L166" t="s">
+        <v>332</v>
+      </c>
+      <c r="M166" t="s">
+        <v>332</v>
+      </c>
+      <c r="N166" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C167" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>24</v>
@@ -7658,64 +8594,64 @@
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="C168" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E168" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G168" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C169" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E169" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G169" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C170" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>24</v>
@@ -7727,21 +8663,21 @@
         <v>4</v>
       </c>
       <c r="G170" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C171" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E171" t="s">
         <v>12</v>
@@ -7750,21 +8686,21 @@
         <v>4</v>
       </c>
       <c r="G171" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C172" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E172" t="s">
         <v>65</v>
@@ -7773,21 +8709,21 @@
         <v>4</v>
       </c>
       <c r="G172" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C173" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E173" t="s">
         <v>65</v>
@@ -7796,18 +8732,18 @@
         <v>4</v>
       </c>
       <c r="G173" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C174" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>24</v>
@@ -7819,18 +8755,36 @@
         <v>18</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="I174" t="s">
+        <v>332</v>
+      </c>
+      <c r="J174" t="s">
+        <v>332</v>
+      </c>
+      <c r="K174" t="s">
+        <v>332</v>
+      </c>
+      <c r="L174" t="s">
+        <v>332</v>
+      </c>
+      <c r="M174" t="s">
+        <v>332</v>
+      </c>
+      <c r="N174" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C175" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>66</v>
@@ -7845,15 +8799,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C176" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>80</v>
@@ -7865,21 +8819,39 @@
         <v>18</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="I176" t="s">
+        <v>332</v>
+      </c>
+      <c r="J176" t="s">
+        <v>332</v>
+      </c>
+      <c r="K176" t="s">
+        <v>332</v>
+      </c>
+      <c r="L176" t="s">
+        <v>332</v>
+      </c>
+      <c r="M176" t="s">
+        <v>332</v>
+      </c>
+      <c r="N176" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C177" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E177" t="s">
         <v>76</v>
@@ -7888,21 +8860,21 @@
         <v>4</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H177" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="C178" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>66</v>
@@ -7914,18 +8886,18 @@
         <v>18</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C179" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>66</v>
@@ -7937,18 +8909,18 @@
         <v>18</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="C180" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>27</v>
@@ -7960,90 +8932,108 @@
         <v>4</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H180" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C181" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C182" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E182" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="I182" t="s">
+        <v>332</v>
+      </c>
+      <c r="J182" t="s">
+        <v>332</v>
+      </c>
+      <c r="K182" t="s">
+        <v>332</v>
+      </c>
+      <c r="L182" t="s">
+        <v>332</v>
+      </c>
+      <c r="M182" t="s">
+        <v>332</v>
+      </c>
+      <c r="N182" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C183" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E183" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="C184" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>66</v>
@@ -8055,21 +9045,39 @@
         <v>18</v>
       </c>
       <c r="G184" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+      <c r="I184" t="s">
+        <v>332</v>
+      </c>
+      <c r="J184" t="s">
+        <v>332</v>
+      </c>
+      <c r="K184" t="s">
+        <v>332</v>
+      </c>
+      <c r="L184" t="s">
+        <v>332</v>
+      </c>
+      <c r="M184" t="s">
+        <v>332</v>
+      </c>
+      <c r="N184" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="C185" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
@@ -8078,21 +9086,21 @@
         <v>4</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C186" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
@@ -8104,15 +9112,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C187" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>66</v>
@@ -8124,18 +9132,36 @@
         <v>18</v>
       </c>
       <c r="G187" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+      <c r="I187" t="s">
+        <v>332</v>
+      </c>
+      <c r="J187" t="s">
+        <v>332</v>
+      </c>
+      <c r="K187" t="s">
+        <v>332</v>
+      </c>
+      <c r="L187" t="s">
+        <v>332</v>
+      </c>
+      <c r="M187" t="s">
+        <v>332</v>
+      </c>
+      <c r="N187" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C188" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>66</v>
@@ -8150,38 +9176,38 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C189" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E189" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C190" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>66</v>
@@ -8193,67 +9219,103 @@
         <v>18</v>
       </c>
       <c r="G190" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C191" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E191" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="I191" t="s">
+        <v>332</v>
+      </c>
+      <c r="J191" t="s">
+        <v>332</v>
+      </c>
+      <c r="K191" t="s">
+        <v>332</v>
+      </c>
+      <c r="L191" t="s">
+        <v>332</v>
+      </c>
+      <c r="M191" t="s">
+        <v>332</v>
+      </c>
+      <c r="N191" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C192" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E192" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+      <c r="I192" t="s">
+        <v>332</v>
+      </c>
+      <c r="J192" t="s">
+        <v>332</v>
+      </c>
+      <c r="K192" t="s">
+        <v>332</v>
+      </c>
+      <c r="L192" t="s">
+        <v>332</v>
+      </c>
+      <c r="M192" t="s">
+        <v>332</v>
+      </c>
+      <c r="N192" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C193" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>24</v>
@@ -8265,18 +9327,18 @@
         <v>4</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C194" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>24</v>
@@ -8288,18 +9350,18 @@
         <v>4</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C195" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>3</v>
@@ -8311,18 +9373,18 @@
         <v>4</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="C196" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>3</v>
@@ -8334,21 +9396,21 @@
         <v>4</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C197" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E197" t="s">
         <v>33</v>
@@ -8357,50 +9419,50 @@
         <v>4</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H197" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C198" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E198" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="C199" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E199" t="s">
         <v>65</v>
@@ -8409,18 +9471,18 @@
         <v>4</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C200" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>24</v>
@@ -8432,18 +9494,18 @@
         <v>4</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C201" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>27</v>
@@ -8455,67 +9517,85 @@
         <v>4</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C202" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E202" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="I202" t="s">
+        <v>332</v>
+      </c>
+      <c r="J202" t="s">
+        <v>332</v>
+      </c>
+      <c r="K202" t="s">
+        <v>332</v>
+      </c>
+      <c r="L202" t="s">
+        <v>332</v>
+      </c>
+      <c r="M202" t="s">
+        <v>332</v>
+      </c>
+      <c r="N202" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="C203" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E203" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H203" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="C204" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>66</v>
@@ -8530,15 +9610,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C205" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>27</v>
@@ -8550,41 +9630,41 @@
         <v>4</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="C206" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E206" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="C207" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>3</v>
@@ -8596,18 +9676,18 @@
         <v>4</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="C208" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>27</v>
@@ -8619,87 +9699,105 @@
         <v>4</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="C209" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E209" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G209" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+      <c r="I209" t="s">
+        <v>332</v>
+      </c>
+      <c r="J209" t="s">
+        <v>332</v>
+      </c>
+      <c r="K209" t="s">
+        <v>332</v>
+      </c>
+      <c r="L209" t="s">
+        <v>332</v>
+      </c>
+      <c r="M209" t="s">
+        <v>332</v>
+      </c>
+      <c r="N209" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="C210" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E210" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="C211" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E211" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="C212" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>27</v>
@@ -8711,64 +9809,64 @@
         <v>4</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C213" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E213" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C214" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E214" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C215" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>27</v>
@@ -8780,18 +9878,18 @@
         <v>4</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="C216" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>66</v>
@@ -8805,42 +9903,78 @@
       <c r="G216" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I216" t="s">
+        <v>332</v>
+      </c>
+      <c r="J216" t="s">
+        <v>332</v>
+      </c>
+      <c r="K216" t="s">
+        <v>332</v>
+      </c>
+      <c r="L216" t="s">
+        <v>332</v>
+      </c>
+      <c r="M216" t="s">
+        <v>332</v>
+      </c>
+      <c r="N216" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C217" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E217" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F217" t="s">
         <v>18</v>
       </c>
       <c r="G217" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H217" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I217" t="s">
+        <v>332</v>
+      </c>
+      <c r="J217" t="s">
+        <v>332</v>
+      </c>
+      <c r="K217" t="s">
+        <v>332</v>
+      </c>
+      <c r="L217" t="s">
+        <v>332</v>
+      </c>
+      <c r="M217" t="s">
+        <v>332</v>
+      </c>
+      <c r="N217" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="C218" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>27</v>
@@ -8852,18 +9986,36 @@
         <v>18</v>
       </c>
       <c r="G218" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+      <c r="I218" t="s">
+        <v>332</v>
+      </c>
+      <c r="J218" t="s">
+        <v>332</v>
+      </c>
+      <c r="K218" t="s">
+        <v>332</v>
+      </c>
+      <c r="L218" t="s">
+        <v>332</v>
+      </c>
+      <c r="M218" t="s">
+        <v>332</v>
+      </c>
+      <c r="N218" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="C219" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>27</v>
@@ -8875,64 +10027,64 @@
         <v>4</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="C220" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E220" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F220" t="s">
         <v>4</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C221" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E221" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F221" t="s">
         <v>4</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="C222" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>27</v>
@@ -8944,18 +10096,18 @@
         <v>4</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="C223" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>27</v>
@@ -8967,41 +10119,41 @@
         <v>4</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="C224" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F224" t="s">
         <v>4</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C225" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>3</v>
@@ -9013,50 +10165,68 @@
         <v>4</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="C226" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E226" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F226" t="s">
         <v>18</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="H226" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I226" t="s">
+        <v>332</v>
+      </c>
+      <c r="J226" t="s">
+        <v>332</v>
+      </c>
+      <c r="K226" t="s">
+        <v>332</v>
+      </c>
+      <c r="L226" t="s">
+        <v>332</v>
+      </c>
+      <c r="M226" t="s">
+        <v>332</v>
+      </c>
+      <c r="N226" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C227" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E227" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F227" t="s">
         <v>18</v>
@@ -9065,38 +10235,38 @@
         <v>66</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C228" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E228" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F228" t="s">
         <v>18</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C229" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>24</v>
@@ -9108,64 +10278,82 @@
         <v>18</v>
       </c>
       <c r="G229" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="I229" t="s">
+        <v>332</v>
+      </c>
+      <c r="J229" t="s">
+        <v>332</v>
+      </c>
+      <c r="K229" t="s">
+        <v>332</v>
+      </c>
+      <c r="L229" t="s">
+        <v>332</v>
+      </c>
+      <c r="M229" t="s">
+        <v>332</v>
+      </c>
+      <c r="N229" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="C230" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E230" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F230" t="s">
         <v>4</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C231" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E231" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F231" t="s">
         <v>4</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H231" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C232" t="s">
         <v>69</v>
@@ -9174,27 +10362,27 @@
         <v>3</v>
       </c>
       <c r="E232" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F232" t="s">
         <v>4</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="C233" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E233" t="s">
         <v>76</v>
@@ -9203,21 +10391,21 @@
         <v>4</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H233" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C234" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>27</v>
@@ -9229,18 +10417,18 @@
         <v>4</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C235" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>27</v>
@@ -9252,18 +10440,18 @@
         <v>4</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C236" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>27</v>
@@ -9275,24 +10463,24 @@
         <v>4</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C237" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E237" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F237" t="s">
         <v>18</v>
@@ -9300,22 +10488,40 @@
       <c r="G237" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I237" t="s">
+        <v>332</v>
+      </c>
+      <c r="J237" t="s">
+        <v>332</v>
+      </c>
+      <c r="K237" t="s">
+        <v>332</v>
+      </c>
+      <c r="L237" t="s">
+        <v>332</v>
+      </c>
+      <c r="M237" t="s">
+        <v>332</v>
+      </c>
+      <c r="N237" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C238" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E238" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F238" t="s">
         <v>18</v>
@@ -9323,62 +10529,80 @@
       <c r="G238" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I238" t="s">
+        <v>332</v>
+      </c>
+      <c r="J238" t="s">
+        <v>332</v>
+      </c>
+      <c r="K238" t="s">
+        <v>332</v>
+      </c>
+      <c r="L238" t="s">
+        <v>332</v>
+      </c>
+      <c r="M238" t="s">
+        <v>332</v>
+      </c>
+      <c r="N238" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C239" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E239" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F239" t="s">
         <v>4</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C240" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E240" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F240" t="s">
         <v>4</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="C241" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>24</v>
@@ -9390,41 +10614,41 @@
         <v>4</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C242" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E242" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F242" t="s">
         <v>4</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C243" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>24</v>
@@ -9436,21 +10660,21 @@
         <v>4</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C244" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E244" t="s">
         <v>16</v>
@@ -9459,41 +10683,41 @@
         <v>4</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C245" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E245" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F245" t="s">
         <v>4</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="C246" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>24</v>
@@ -9505,41 +10729,41 @@
         <v>4</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C247" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E247" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F247" t="s">
         <v>4</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="C248" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>85</v>
@@ -9551,50 +10775,50 @@
         <v>4</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H248" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="C249" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E249" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F249" t="s">
         <v>4</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="C250" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E250" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F250" t="s">
         <v>18</v>
@@ -9602,16 +10826,34 @@
       <c r="G250" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I250" t="s">
+        <v>332</v>
+      </c>
+      <c r="J250" t="s">
+        <v>332</v>
+      </c>
+      <c r="K250" t="s">
+        <v>332</v>
+      </c>
+      <c r="L250" t="s">
+        <v>332</v>
+      </c>
+      <c r="M250" t="s">
+        <v>332</v>
+      </c>
+      <c r="N250" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C251" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>24</v>
@@ -9623,18 +10865,18 @@
         <v>4</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C252" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>24</v>
@@ -9646,47 +10888,47 @@
         <v>4</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H252" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C253" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E253" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F253" t="s">
         <v>4</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H253" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C254" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>24</v>
@@ -9698,18 +10940,18 @@
         <v>4</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C255" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>24</v>
@@ -9721,41 +10963,41 @@
         <v>4</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="C256" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E256" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F256" t="s">
         <v>4</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="C257" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>85</v>
@@ -9767,27 +11009,27 @@
         <v>4</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H257" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="C258" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E258" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F258" t="s">
         <v>18</v>
@@ -9795,13 +11037,31 @@
       <c r="G258" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I258" t="s">
+        <v>332</v>
+      </c>
+      <c r="J258" t="s">
+        <v>332</v>
+      </c>
+      <c r="K258" t="s">
+        <v>332</v>
+      </c>
+      <c r="L258" t="s">
+        <v>332</v>
+      </c>
+      <c r="M258" t="s">
+        <v>332</v>
+      </c>
+      <c r="N258" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="C259" t="s">
         <v>69</v>
@@ -9816,15 +11076,33 @@
         <v>18</v>
       </c>
       <c r="G259" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+      <c r="I259" t="s">
+        <v>332</v>
+      </c>
+      <c r="J259" t="s">
+        <v>332</v>
+      </c>
+      <c r="K259" t="s">
+        <v>332</v>
+      </c>
+      <c r="L259" t="s">
+        <v>332</v>
+      </c>
+      <c r="M259" t="s">
+        <v>332</v>
+      </c>
+      <c r="N259" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="C260" t="s">
         <v>69</v>
@@ -9839,24 +11117,24 @@
         <v>4</v>
       </c>
       <c r="G260" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="C261" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E261" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F261" t="s">
         <v>18</v>
@@ -9865,15 +11143,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="C262" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>24</v>
@@ -9885,96 +11163,114 @@
         <v>18</v>
       </c>
       <c r="G262" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H262" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I262" t="s">
+        <v>332</v>
+      </c>
+      <c r="J262" t="s">
+        <v>332</v>
+      </c>
+      <c r="K262" t="s">
+        <v>332</v>
+      </c>
+      <c r="L262" t="s">
+        <v>332</v>
+      </c>
+      <c r="M262" t="s">
+        <v>332</v>
+      </c>
+      <c r="N262" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="C263" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E263" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F263" t="s">
         <v>4</v>
       </c>
       <c r="G263" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="C264" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E264" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F264" t="s">
         <v>4</v>
       </c>
       <c r="G264" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C265" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E265" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F265" t="s">
         <v>4</v>
       </c>
       <c r="G265" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="C266" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E266" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F266" t="s">
         <v>18</v>
@@ -9982,16 +11278,34 @@
       <c r="G266" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I266" t="s">
+        <v>332</v>
+      </c>
+      <c r="J266" t="s">
+        <v>332</v>
+      </c>
+      <c r="K266" t="s">
+        <v>332</v>
+      </c>
+      <c r="L266" t="s">
+        <v>332</v>
+      </c>
+      <c r="M266" t="s">
+        <v>332</v>
+      </c>
+      <c r="N266" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="C267" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>66</v>
@@ -10003,41 +11317,59 @@
         <v>18</v>
       </c>
       <c r="G267" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+      <c r="I267" t="s">
+        <v>332</v>
+      </c>
+      <c r="J267" t="s">
+        <v>332</v>
+      </c>
+      <c r="K267" t="s">
+        <v>332</v>
+      </c>
+      <c r="L267" t="s">
+        <v>332</v>
+      </c>
+      <c r="M267" t="s">
+        <v>332</v>
+      </c>
+      <c r="N267" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="C268" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E268" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F268" t="s">
         <v>4</v>
       </c>
       <c r="G268" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="C269" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>27</v>
@@ -10049,18 +11381,18 @@
         <v>4</v>
       </c>
       <c r="G269" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="C270" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>27</v>
@@ -10072,24 +11404,24 @@
         <v>4</v>
       </c>
       <c r="G270" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="C271" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E271" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F271" t="s">
         <v>18</v>
@@ -10097,45 +11429,63 @@
       <c r="G271" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I271" t="s">
+        <v>332</v>
+      </c>
+      <c r="J271" t="s">
+        <v>332</v>
+      </c>
+      <c r="K271" t="s">
+        <v>332</v>
+      </c>
+      <c r="L271" t="s">
+        <v>332</v>
+      </c>
+      <c r="M271" t="s">
+        <v>332</v>
+      </c>
+      <c r="N271" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="C272" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E272" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F272" t="s">
         <v>4</v>
       </c>
       <c r="G272" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="C273" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E273" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F273" t="s">
         <v>18</v>
@@ -10143,28 +11493,64 @@
       <c r="G273" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I273" t="s">
+        <v>332</v>
+      </c>
+      <c r="J273" t="s">
+        <v>332</v>
+      </c>
+      <c r="K273" t="s">
+        <v>332</v>
+      </c>
+      <c r="L273" t="s">
+        <v>332</v>
+      </c>
+      <c r="M273" t="s">
+        <v>332</v>
+      </c>
+      <c r="N273" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="C274" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E274" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F274" t="s">
         <v>18</v>
       </c>
       <c r="G274" t="s">
         <v>66</v>
+      </c>
+      <c r="I274" t="s">
+        <v>332</v>
+      </c>
+      <c r="J274" t="s">
+        <v>332</v>
+      </c>
+      <c r="K274" t="s">
+        <v>332</v>
+      </c>
+      <c r="L274" t="s">
+        <v>332</v>
+      </c>
+      <c r="M274" t="s">
+        <v>332</v>
+      </c>
+      <c r="N274" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/data/exclude_list.xlsx
+++ b/data/exclude_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mflor\Documents\GitHub\dryland_restoration_synthesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ADD950-331C-4A16-B21A-BC0FB784A658}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57F181B-D274-40F5-BCB4-E23F5B144E61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{C6F08BAA-C670-4BEE-8D8B-BC2F9FF4AD91}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="830">
   <si>
     <t>ID</t>
   </si>
@@ -389,9 +389,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>costs of conservation plans</t>
-  </si>
-  <si>
     <t>images data</t>
   </si>
   <si>
@@ -401,9 +398,6 @@
     <t>effects of land use an N to seed bank</t>
   </si>
   <si>
-    <t>soil carbon and enzyme activities at different land uses</t>
-  </si>
-  <si>
     <t>soil restoration</t>
   </si>
   <si>
@@ -434,18 +428,12 @@
     <t>fertilization evaluation for grasses recovering</t>
   </si>
   <si>
-    <t>effects on the soil carbon and nitrogen of alpine steppe soils from two restoration methods, reseeding grasses and abandonment</t>
-  </si>
-  <si>
     <t>sowing of forbs as restoration and pollinators attraction</t>
   </si>
   <si>
     <t>soil disturbance as a restoration measure</t>
   </si>
   <si>
-    <t>restoring vegetation with remnant vegetation</t>
-  </si>
-  <si>
     <t>natural recovery of old-field</t>
   </si>
   <si>
@@ -2469,6 +2457,72 @@
   </si>
   <si>
     <t>biogeochemistry</t>
+  </si>
+  <si>
+    <t>costs of conservation and restoration plans</t>
+  </si>
+  <si>
+    <t>soil carbon and enzyme activities at grassland and croplands</t>
+  </si>
+  <si>
+    <t>soil C and enzyme</t>
+  </si>
+  <si>
+    <t>C, enzyme activities</t>
+  </si>
+  <si>
+    <t>restored grassland</t>
+  </si>
+  <si>
+    <t>native vegetation and earthworm</t>
+  </si>
+  <si>
+    <t>native communities</t>
+  </si>
+  <si>
+    <t>production and biodiversity</t>
+  </si>
+  <si>
+    <t>agroecosystems</t>
+  </si>
+  <si>
+    <t>abandoned old-fields</t>
+  </si>
+  <si>
+    <t>abandonment and reseeding, soil carbon and nitrogen</t>
+  </si>
+  <si>
+    <t>passive and active restoration</t>
+  </si>
+  <si>
+    <t>mixed prairies</t>
+  </si>
+  <si>
+    <t>vegetation and pollinators</t>
+  </si>
+  <si>
+    <t>plant biodiversity</t>
+  </si>
+  <si>
+    <t>biodiversity in agroecosystems</t>
+  </si>
+  <si>
+    <t>restoring vegetation in agroecoystems</t>
+  </si>
+  <si>
+    <t>novel vegetation states</t>
+  </si>
+  <si>
+    <t>semi-natural vegetation</t>
+  </si>
+  <si>
+    <t>native vegetation remnants</t>
+  </si>
+  <si>
+    <t>rehabilitation by rodents</t>
+  </si>
+  <si>
+    <t>chemical</t>
   </si>
 </sst>
 </file>
@@ -2842,8 +2896,8 @@
   <dimension ref="A1:O274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2859,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2871,31 +2925,31 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -2903,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -2918,25 +2972,25 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -2944,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2959,25 +3013,25 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J3" t="s">
+        <v>384</v>
+      </c>
+      <c r="K3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L3" t="s">
         <v>387</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>388</v>
       </c>
-      <c r="K3" t="s">
-        <v>390</v>
-      </c>
-      <c r="L3" t="s">
-        <v>391</v>
-      </c>
-      <c r="M3" t="s">
-        <v>392</v>
-      </c>
       <c r="N3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -2985,10 +3039,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3000,22 +3054,22 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
         <v>393</v>
       </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
-        <v>397</v>
-      </c>
       <c r="L4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -3023,7 +3077,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -3038,25 +3092,25 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J5" t="s">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -3064,7 +3118,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -3079,25 +3133,25 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I6" t="s">
+        <v>397</v>
+      </c>
+      <c r="J6" t="s">
+        <v>384</v>
+      </c>
+      <c r="K6" t="s">
         <v>401</v>
       </c>
-      <c r="J6" t="s">
-        <v>388</v>
-      </c>
-      <c r="K6" t="s">
-        <v>405</v>
-      </c>
       <c r="L6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -3105,7 +3159,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -3120,22 +3174,22 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J7" t="s">
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L7" t="s">
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -3143,7 +3197,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -3161,22 +3215,22 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -3184,7 +3238,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -3202,22 +3256,22 @@
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -3225,7 +3279,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -3240,25 +3294,25 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I10" t="s">
+        <v>405</v>
+      </c>
+      <c r="J10" t="s">
+        <v>406</v>
+      </c>
+      <c r="K10" t="s">
+        <v>408</v>
+      </c>
+      <c r="L10" t="s">
+        <v>407</v>
+      </c>
+      <c r="M10" t="s">
+        <v>381</v>
+      </c>
+      <c r="N10" t="s">
         <v>409</v>
-      </c>
-      <c r="J10" t="s">
-        <v>410</v>
-      </c>
-      <c r="K10" t="s">
-        <v>412</v>
-      </c>
-      <c r="L10" t="s">
-        <v>411</v>
-      </c>
-      <c r="M10" t="s">
-        <v>385</v>
-      </c>
-      <c r="N10" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -3266,7 +3320,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -3284,22 +3338,22 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -3307,10 +3361,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C12" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -3322,25 +3376,25 @@
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K12" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L12" t="s">
+        <v>411</v>
+      </c>
+      <c r="M12" t="s">
+        <v>410</v>
+      </c>
+      <c r="N12" t="s">
         <v>415</v>
-      </c>
-      <c r="M12" t="s">
-        <v>414</v>
-      </c>
-      <c r="N12" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -3348,7 +3402,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -3363,28 +3417,28 @@
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I13" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J13" t="s">
         <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L13" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M13" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N13" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O13" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -3392,10 +3446,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C14" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -3407,25 +3461,25 @@
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I14" t="s">
+        <v>418</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
         <v>422</v>
       </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
-        <v>426</v>
-      </c>
       <c r="L14" t="s">
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N14" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -3433,7 +3487,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -3451,22 +3505,22 @@
         <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -3474,7 +3528,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -3489,25 +3543,25 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J16" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K16" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L16" t="s">
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -3515,10 +3569,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -3530,25 +3584,25 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I17" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J17" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="K17" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L17" t="s">
+        <v>426</v>
+      </c>
+      <c r="M17" t="s">
+        <v>381</v>
+      </c>
+      <c r="N17" t="s">
         <v>430</v>
-      </c>
-      <c r="M17" t="s">
-        <v>385</v>
-      </c>
-      <c r="N17" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -3556,7 +3610,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -3574,22 +3628,22 @@
         <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -3597,7 +3651,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -3618,22 +3672,22 @@
         <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -3641,7 +3695,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -3656,25 +3710,25 @@
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I20" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K20" t="s">
+        <v>428</v>
+      </c>
+      <c r="L20" t="s">
         <v>432</v>
       </c>
-      <c r="L20" t="s">
-        <v>436</v>
-      </c>
       <c r="M20" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N20" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -3682,7 +3736,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -3697,25 +3751,25 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I21" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J21" t="s">
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L21" t="s">
+        <v>432</v>
+      </c>
+      <c r="M21" t="s">
         <v>436</v>
       </c>
-      <c r="M21" t="s">
-        <v>440</v>
-      </c>
       <c r="N21" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -3723,7 +3777,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -3738,22 +3792,22 @@
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I22" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K22" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L22" t="s">
         <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N22" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -3761,7 +3815,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
@@ -3779,22 +3833,22 @@
         <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J23" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K23" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L23" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M23" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N23" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -3802,7 +3856,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
@@ -3817,22 +3871,22 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I24" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J24" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K24" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L24" t="s">
         <v>4</v>
       </c>
       <c r="M24" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N24" t="s">
         <v>69</v>
@@ -3843,7 +3897,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
@@ -3864,22 +3918,22 @@
         <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -3887,7 +3941,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
@@ -3908,22 +3962,22 @@
         <v>52</v>
       </c>
       <c r="I26" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J26" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K26" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L26" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M26" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N26" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -3931,7 +3985,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
@@ -3949,22 +4003,22 @@
         <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -3972,7 +4026,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
@@ -3990,22 +4044,22 @@
         <v>59</v>
       </c>
       <c r="I28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -4013,7 +4067,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
@@ -4028,25 +4082,25 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I29" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J29" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K29" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L29" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M29" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="N29" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -4054,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
@@ -4069,25 +4123,25 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I30" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J30" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K30" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L30" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M30" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="N30" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -4095,10 +4149,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C31" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D31" t="s">
         <v>27</v>
@@ -4110,25 +4164,25 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I31" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J31" t="s">
         <v>4</v>
       </c>
       <c r="K31" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L31" t="s">
         <v>4</v>
       </c>
       <c r="M31" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N31" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -4136,7 +4190,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -4151,25 +4205,25 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I32" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J32" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K32" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L32" t="s">
         <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N32" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -4177,7 +4231,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
@@ -4192,25 +4246,25 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I33" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J33" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K33" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L33" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="M33" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N33" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -4218,7 +4272,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C34" t="s">
         <v>67</v>
@@ -4236,22 +4290,22 @@
         <v>66</v>
       </c>
       <c r="I34" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J34" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K34" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L34" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M34" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N34" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -4259,7 +4313,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -4274,25 +4328,25 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I35" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="J35" t="s">
         <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L35" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M35" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N35" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -4300,7 +4354,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C36" t="s">
         <v>69</v>
@@ -4315,28 +4369,28 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H36" t="s">
         <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J36" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K36" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L36" t="s">
         <v>4</v>
       </c>
       <c r="M36" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="N36" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -4344,10 +4398,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C37" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -4362,22 +4416,22 @@
         <v>66</v>
       </c>
       <c r="I37" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K37" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N37" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -4385,7 +4439,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C38" t="s">
         <v>70</v>
@@ -4400,25 +4454,25 @@
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I38" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="J38" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L38" t="s">
         <v>4</v>
       </c>
       <c r="M38" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="N38" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -4426,7 +4480,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C39" t="s">
         <v>35</v>
@@ -4444,22 +4498,22 @@
         <v>35</v>
       </c>
       <c r="I39" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J39" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K39" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M39" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N39" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -4467,7 +4521,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
@@ -4482,28 +4536,28 @@
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I40" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J40" t="s">
         <v>4</v>
       </c>
       <c r="K40" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="L40" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M40" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N40" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O40" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -4511,7 +4565,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C41" t="s">
         <v>73</v>
@@ -4526,25 +4580,25 @@
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I41" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="J41" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="K41" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="L41" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M41" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="N41" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -4552,7 +4606,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C42" t="s">
         <v>74</v>
@@ -4567,25 +4621,25 @@
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I42" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J42" t="s">
         <v>4</v>
       </c>
       <c r="K42" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L42" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="M42" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N42" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -4593,7 +4647,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
@@ -4608,25 +4662,25 @@
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I43" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J43" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K43" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s">
         <v>4</v>
       </c>
       <c r="M43" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N43" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -4634,10 +4688,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C44" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
@@ -4649,25 +4703,25 @@
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I44" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="J44" t="s">
         <v>4</v>
       </c>
       <c r="K44" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L44" t="s">
         <v>4</v>
       </c>
       <c r="M44" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N44" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -4675,7 +4729,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C45" t="s">
         <v>77</v>
@@ -4690,22 +4744,22 @@
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I45" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="K45" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L45" t="s">
         <v>4</v>
       </c>
       <c r="M45" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N45" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -4713,7 +4767,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C46" t="s">
         <v>78</v>
@@ -4728,25 +4782,25 @@
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I46" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="J46" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K46" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M46" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="N46" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -4754,7 +4808,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C47" t="s">
         <v>79</v>
@@ -4769,31 +4823,31 @@
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H47" t="s">
         <v>52</v>
       </c>
       <c r="I47" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J47" t="s">
         <v>4</v>
       </c>
       <c r="K47" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="L47" t="s">
         <v>4</v>
       </c>
       <c r="M47" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N47" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O47" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -4801,7 +4855,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C48" t="s">
         <v>82</v>
@@ -4819,22 +4873,22 @@
         <v>35</v>
       </c>
       <c r="I48" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J48" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K48" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L48" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M48" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N48" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -4842,7 +4896,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C49" t="s">
         <v>83</v>
@@ -4857,25 +4911,25 @@
         <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I49" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="J49" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="K49" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L49" t="s">
         <v>4</v>
       </c>
       <c r="M49" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N49" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -4883,7 +4937,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C50" t="s">
         <v>84</v>
@@ -4904,22 +4958,22 @@
         <v>52</v>
       </c>
       <c r="I50" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J50" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K50" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L50" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M50" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N50" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -4927,7 +4981,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
@@ -4942,28 +4996,28 @@
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H51" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I51" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J51" t="s">
         <v>4</v>
       </c>
       <c r="K51" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="L51" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M51" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N51" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -4971,10 +5025,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C52" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
@@ -4986,25 +5040,25 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I52" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J52" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="K52" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L52" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M52" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="N52" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -5012,7 +5066,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C53" t="s">
         <v>88</v>
@@ -5027,25 +5081,25 @@
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I53" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J53" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="K53" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s">
         <v>4</v>
       </c>
       <c r="M53" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N53" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -5053,7 +5107,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C54" t="s">
         <v>89</v>
@@ -5068,25 +5122,25 @@
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I54" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J54" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="K54" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s">
         <v>4</v>
       </c>
       <c r="M54" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N54" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -5094,7 +5148,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C55" t="s">
         <v>90</v>
@@ -5109,25 +5163,25 @@
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I55" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J55" t="s">
         <v>4</v>
       </c>
       <c r="K55" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L55" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M55" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N55" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -5135,7 +5189,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C56" t="s">
         <v>92</v>
@@ -5150,25 +5204,25 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I56" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J56" t="s">
         <v>4</v>
       </c>
       <c r="K56" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L56" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="M56" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N56" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -5176,7 +5230,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C57" t="s">
         <v>93</v>
@@ -5191,31 +5245,31 @@
         <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H57" t="s">
         <v>52</v>
       </c>
       <c r="I57" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J57" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K57" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L57" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M57" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N57" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="O57" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -5223,7 +5277,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C58" t="s">
         <v>94</v>
@@ -5241,22 +5295,22 @@
         <v>66</v>
       </c>
       <c r="I58" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J58" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K58" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L58" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M58" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N58" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -5264,7 +5318,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C59" t="s">
         <v>95</v>
@@ -5279,25 +5333,25 @@
         <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I59" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J59" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K59" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="L59" t="s">
         <v>4</v>
       </c>
       <c r="M59" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="N59" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -5305,10 +5359,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C60" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
@@ -5320,25 +5374,25 @@
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I60" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="J60" t="s">
         <v>4</v>
       </c>
       <c r="K60" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L60" t="s">
         <v>4</v>
       </c>
       <c r="M60" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N60" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -5346,7 +5400,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C61" t="s">
         <v>98</v>
@@ -5367,22 +5421,22 @@
         <v>52</v>
       </c>
       <c r="I61" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J61" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K61" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L61" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M61" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N61" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -5390,10 +5444,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C62" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
@@ -5405,25 +5459,25 @@
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I62" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J62" t="s">
         <v>4</v>
       </c>
       <c r="K62" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L62" t="s">
         <v>4</v>
       </c>
       <c r="M62" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N62" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -5431,7 +5485,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C63" t="s">
         <v>99</v>
@@ -5449,22 +5503,22 @@
         <v>59</v>
       </c>
       <c r="I63" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J63" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K63" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L63" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M63" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N63" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -5472,10 +5526,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C64" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D64" t="s">
         <v>24</v>
@@ -5487,25 +5541,25 @@
         <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I64" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="J64" t="s">
         <v>4</v>
       </c>
       <c r="K64" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="L64" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M64" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -5513,10 +5567,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C65" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -5528,25 +5582,25 @@
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I65" t="s">
+        <v>777</v>
+      </c>
+      <c r="J65" t="s">
+        <v>4</v>
+      </c>
+      <c r="K65" t="s">
+        <v>778</v>
+      </c>
+      <c r="L65" t="s">
+        <v>779</v>
+      </c>
+      <c r="M65" t="s">
+        <v>780</v>
+      </c>
+      <c r="N65" t="s">
         <v>781</v>
-      </c>
-      <c r="J65" t="s">
-        <v>4</v>
-      </c>
-      <c r="K65" t="s">
-        <v>782</v>
-      </c>
-      <c r="L65" t="s">
-        <v>783</v>
-      </c>
-      <c r="M65" t="s">
-        <v>784</v>
-      </c>
-      <c r="N65" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -5554,7 +5608,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C66" t="s">
         <v>103</v>
@@ -5569,28 +5623,28 @@
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I66" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J66" t="s">
         <v>4</v>
       </c>
       <c r="K66" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L66" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M66" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N66" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O66" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -5598,10 +5652,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C67" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
@@ -5613,22 +5667,22 @@
         <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I67" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K67" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="L67" t="s">
         <v>4</v>
       </c>
       <c r="M67" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="N67" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -5636,7 +5690,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C68" t="s">
         <v>104</v>
@@ -5654,22 +5708,22 @@
         <v>66</v>
       </c>
       <c r="I68" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J68" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K68" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L68" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M68" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N68" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -5677,10 +5731,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C69" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D69" t="s">
         <v>27</v>
@@ -5692,25 +5746,25 @@
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I69" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J69" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="K69" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L69" t="s">
         <v>4</v>
       </c>
       <c r="M69" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N69" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -5718,7 +5772,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C70" t="s">
         <v>106</v>
@@ -5733,25 +5787,25 @@
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I70" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J70" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="K70" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L70" t="s">
         <v>4</v>
       </c>
       <c r="M70" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="N70" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
@@ -5759,7 +5813,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C71" t="s">
         <v>45</v>
@@ -5777,22 +5831,22 @@
         <v>35</v>
       </c>
       <c r="I71" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J71" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K71" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L71" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M71" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N71" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
@@ -5800,7 +5854,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C72" t="s">
         <v>107</v>
@@ -5815,25 +5869,25 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I72" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="J72" t="s">
         <v>4</v>
       </c>
       <c r="K72" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="L72" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M72" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="N72" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
@@ -5841,7 +5895,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C73" t="s">
         <v>108</v>
@@ -5859,22 +5913,22 @@
         <v>66</v>
       </c>
       <c r="I73" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J73" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K73" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L73" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M73" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N73" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
@@ -5882,10 +5936,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C74" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
@@ -5897,25 +5951,25 @@
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I74" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="J74" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K74" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L74" t="s">
         <v>4</v>
       </c>
       <c r="M74" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N74" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
@@ -5923,10 +5977,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C75" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D75" t="s">
         <v>27</v>
@@ -5938,25 +5992,25 @@
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I75" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="J75" t="s">
         <v>4</v>
       </c>
       <c r="K75" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L75" t="s">
         <v>4</v>
       </c>
       <c r="M75" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="N75" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
@@ -5964,7 +6018,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C76" t="s">
         <v>110</v>
@@ -5982,22 +6036,22 @@
         <v>109</v>
       </c>
       <c r="I76" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J76" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K76" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L76" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M76" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N76" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
@@ -6005,10 +6059,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C77" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D77" t="s">
         <v>27</v>
@@ -6020,25 +6074,25 @@
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I77" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J77" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="K77" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L77" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="M77" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="N77" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
@@ -6046,7 +6100,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C78" t="s">
         <v>113</v>
@@ -6061,25 +6115,25 @@
         <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I78" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="J78" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="K78" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="L78" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="M78" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="N78" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
@@ -6087,7 +6141,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C79" t="s">
         <v>114</v>
@@ -6102,25 +6156,25 @@
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I79" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="J79" t="s">
         <v>4</v>
       </c>
       <c r="K79" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="L79" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="M79" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="N79" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
@@ -6128,7 +6182,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C80" t="s">
         <v>116</v>
@@ -6146,22 +6200,22 @@
         <v>115</v>
       </c>
       <c r="I80" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J80" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K80" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L80" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M80" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N80" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
@@ -6169,13 +6223,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C81" t="s">
+        <v>808</v>
+      </c>
+      <c r="D81" t="s">
         <v>118</v>
-      </c>
-      <c r="D81" t="s">
-        <v>119</v>
       </c>
       <c r="E81" t="s">
         <v>117</v>
@@ -6184,10 +6238,28 @@
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H81" t="s">
         <v>52</v>
+      </c>
+      <c r="I81" t="s">
+        <v>328</v>
+      </c>
+      <c r="J81" t="s">
+        <v>328</v>
+      </c>
+      <c r="K81" t="s">
+        <v>328</v>
+      </c>
+      <c r="L81" t="s">
+        <v>328</v>
+      </c>
+      <c r="M81" t="s">
+        <v>328</v>
+      </c>
+      <c r="N81" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
@@ -6195,10 +6267,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D82" t="s">
         <v>91</v>
@@ -6210,7 +6282,25 @@
         <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="I82" t="s">
+        <v>328</v>
+      </c>
+      <c r="J82" t="s">
+        <v>328</v>
+      </c>
+      <c r="K82" t="s">
+        <v>328</v>
+      </c>
+      <c r="L82" t="s">
+        <v>328</v>
+      </c>
+      <c r="M82" t="s">
+        <v>328</v>
+      </c>
+      <c r="N82" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
@@ -6218,10 +6308,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C83" t="s">
-        <v>122</v>
+        <v>809</v>
       </c>
       <c r="D83" t="s">
         <v>27</v>
@@ -6230,31 +6320,28 @@
         <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>123</v>
-      </c>
-      <c r="H83" t="s">
-        <v>52</v>
+        <v>328</v>
       </c>
       <c r="I83" t="s">
-        <v>332</v>
+        <v>726</v>
       </c>
       <c r="J83" t="s">
-        <v>332</v>
+        <v>4</v>
       </c>
       <c r="K83" t="s">
-        <v>332</v>
+        <v>810</v>
       </c>
       <c r="L83" t="s">
-        <v>332</v>
+        <v>811</v>
       </c>
       <c r="M83" t="s">
-        <v>332</v>
+        <v>812</v>
       </c>
       <c r="N83" t="s">
-        <v>332</v>
+        <v>783</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
@@ -6262,43 +6349,43 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C84" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F84" t="s">
         <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H84" t="s">
         <v>52</v>
       </c>
       <c r="I84" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J84" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K84" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L84" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M84" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N84" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
@@ -6306,22 +6393,40 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C85" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D85" t="s">
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F85" t="s">
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="I85" t="s">
+        <v>806</v>
+      </c>
+      <c r="J85" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85" t="s">
+        <v>813</v>
+      </c>
+      <c r="L85" t="s">
+        <v>4</v>
+      </c>
+      <c r="M85" t="s">
+        <v>381</v>
+      </c>
+      <c r="N85" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
@@ -6329,13 +6434,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C86" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D86" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
@@ -6344,10 +6449,28 @@
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H86" t="s">
         <v>52</v>
+      </c>
+      <c r="I86" t="s">
+        <v>806</v>
+      </c>
+      <c r="J86" t="s">
+        <v>385</v>
+      </c>
+      <c r="K86" t="s">
+        <v>396</v>
+      </c>
+      <c r="L86" t="s">
+        <v>4</v>
+      </c>
+      <c r="M86" t="s">
+        <v>816</v>
+      </c>
+      <c r="N86" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
@@ -6355,10 +6478,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C87" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D87" t="s">
         <v>27</v>
@@ -6370,7 +6493,25 @@
         <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="I87" t="s">
+        <v>817</v>
+      </c>
+      <c r="J87" t="s">
+        <v>4</v>
+      </c>
+      <c r="K87" t="s">
+        <v>396</v>
+      </c>
+      <c r="L87" t="s">
+        <v>399</v>
+      </c>
+      <c r="M87" t="s">
+        <v>388</v>
+      </c>
+      <c r="N87" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
@@ -6378,10 +6519,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C88" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D88" t="s">
         <v>91</v>
@@ -6393,7 +6534,25 @@
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="I88" t="s">
+        <v>803</v>
+      </c>
+      <c r="J88" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88" t="s">
+        <v>443</v>
+      </c>
+      <c r="L88" t="s">
+        <v>399</v>
+      </c>
+      <c r="M88" t="s">
+        <v>802</v>
+      </c>
+      <c r="N88" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
@@ -6401,10 +6560,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>818</v>
       </c>
       <c r="D89" t="s">
         <v>27</v>
@@ -6416,7 +6575,25 @@
         <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="I89" t="s">
+        <v>806</v>
+      </c>
+      <c r="J89" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" t="s">
+        <v>443</v>
+      </c>
+      <c r="L89" t="s">
+        <v>432</v>
+      </c>
+      <c r="M89" t="s">
+        <v>732</v>
+      </c>
+      <c r="N89" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
@@ -6424,10 +6601,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C90" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
         <v>91</v>
@@ -6439,7 +6616,25 @@
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="I90" t="s">
+        <v>806</v>
+      </c>
+      <c r="J90" t="s">
+        <v>4</v>
+      </c>
+      <c r="K90" t="s">
+        <v>821</v>
+      </c>
+      <c r="L90" t="s">
+        <v>4</v>
+      </c>
+      <c r="M90" t="s">
+        <v>381</v>
+      </c>
+      <c r="N90" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
@@ -6447,13 +6642,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D91" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E91" t="s">
         <v>81</v>
@@ -6465,22 +6660,22 @@
         <v>35</v>
       </c>
       <c r="I91" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J91" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K91" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L91" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M91" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N91" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
@@ -6488,10 +6683,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>824</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -6503,7 +6698,25 @@
         <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="I92" t="s">
+        <v>806</v>
+      </c>
+      <c r="J92" t="s">
+        <v>787</v>
+      </c>
+      <c r="K92" t="s">
+        <v>822</v>
+      </c>
+      <c r="L92" t="s">
+        <v>4</v>
+      </c>
+      <c r="M92" t="s">
+        <v>816</v>
+      </c>
+      <c r="N92" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -6511,13 +6724,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>117</v>
@@ -6526,10 +6739,28 @@
         <v>18</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>52</v>
+      </c>
+      <c r="I93" t="s">
+        <v>328</v>
+      </c>
+      <c r="J93" t="s">
+        <v>328</v>
+      </c>
+      <c r="K93" t="s">
+        <v>328</v>
+      </c>
+      <c r="L93" t="s">
+        <v>328</v>
+      </c>
+      <c r="M93" t="s">
+        <v>328</v>
+      </c>
+      <c r="N93" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
@@ -6537,22 +6768,40 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F94" t="s">
         <v>4</v>
       </c>
       <c r="G94" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="I94" t="s">
+        <v>806</v>
+      </c>
+      <c r="J94" t="s">
+        <v>384</v>
+      </c>
+      <c r="K94" t="s">
+        <v>390</v>
+      </c>
+      <c r="L94" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" t="s">
+        <v>826</v>
+      </c>
+      <c r="N94" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
@@ -6560,13 +6809,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E95" t="s">
         <v>10</v>
@@ -6575,25 +6824,25 @@
         <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I95" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J95" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K95" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L95" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M95" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N95" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
@@ -6601,10 +6850,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C96" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D96" t="s">
         <v>27</v>
@@ -6616,7 +6865,25 @@
         <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="I96" t="s">
+        <v>806</v>
+      </c>
+      <c r="J96" t="s">
+        <v>4</v>
+      </c>
+      <c r="K96" t="s">
+        <v>396</v>
+      </c>
+      <c r="L96" t="s">
+        <v>4</v>
+      </c>
+      <c r="M96" t="s">
+        <v>827</v>
+      </c>
+      <c r="N96" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
@@ -6624,10 +6891,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C97" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D97" t="s">
         <v>27</v>
@@ -6639,7 +6906,25 @@
         <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="I97" t="s">
+        <v>726</v>
+      </c>
+      <c r="J97" t="s">
+        <v>736</v>
+      </c>
+      <c r="K97" t="s">
+        <v>396</v>
+      </c>
+      <c r="L97" t="s">
+        <v>4</v>
+      </c>
+      <c r="M97" t="s">
+        <v>396</v>
+      </c>
+      <c r="N97" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
@@ -6647,10 +6932,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C98" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D98" t="s">
         <v>66</v>
@@ -6668,22 +6953,22 @@
         <v>52</v>
       </c>
       <c r="I98" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J98" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K98" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L98" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M98" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N98" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
@@ -6691,22 +6976,40 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C99" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D99" t="s">
         <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F99" t="s">
         <v>4</v>
       </c>
       <c r="G99" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="I99" t="s">
+        <v>806</v>
+      </c>
+      <c r="J99" t="s">
+        <v>427</v>
+      </c>
+      <c r="K99" t="s">
+        <v>802</v>
+      </c>
+      <c r="L99" t="s">
+        <v>4</v>
+      </c>
+      <c r="M99" t="s">
+        <v>802</v>
+      </c>
+      <c r="N99" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
@@ -6714,16 +7017,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C100" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D100" t="s">
         <v>66</v>
       </c>
       <c r="E100" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
@@ -6732,22 +7035,22 @@
         <v>66</v>
       </c>
       <c r="I100" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J100" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K100" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L100" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M100" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N100" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
@@ -6755,10 +7058,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C101" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D101" t="s">
         <v>27</v>
@@ -6770,7 +7073,25 @@
         <v>4</v>
       </c>
       <c r="G101" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="I101" t="s">
+        <v>744</v>
+      </c>
+      <c r="J101" t="s">
+        <v>736</v>
+      </c>
+      <c r="K101" t="s">
+        <v>403</v>
+      </c>
+      <c r="L101" t="s">
+        <v>829</v>
+      </c>
+      <c r="M101" t="s">
+        <v>732</v>
+      </c>
+      <c r="N101" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
@@ -6778,10 +7099,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D102" t="s">
         <v>27</v>
@@ -6793,7 +7114,7 @@
         <v>4</v>
       </c>
       <c r="G102" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
@@ -6801,13 +7122,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C103" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D103" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E103" t="s">
         <v>65</v>
@@ -6816,25 +7137,25 @@
         <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I103" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J103" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K103" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L103" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M103" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N103" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
@@ -6842,10 +7163,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C104" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D104" t="s">
         <v>66</v>
@@ -6860,22 +7181,22 @@
         <v>35</v>
       </c>
       <c r="I104" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J104" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K104" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L104" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M104" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N104" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
@@ -6883,22 +7204,22 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C105" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
       </c>
       <c r="E105" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F105" t="s">
         <v>4</v>
       </c>
       <c r="G105" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
@@ -6906,22 +7227,22 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C106" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D106" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E106" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F106" t="s">
         <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
@@ -6929,22 +7250,22 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C107" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D107" t="s">
         <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F107" t="s">
         <v>4</v>
       </c>
       <c r="G107" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
@@ -6952,10 +7273,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C108" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -6967,7 +7288,7 @@
         <v>4</v>
       </c>
       <c r="G108" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H108" t="s">
         <v>52</v>
@@ -6978,10 +7299,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C109" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D109" t="s">
         <v>27</v>
@@ -6993,7 +7314,7 @@
         <v>4</v>
       </c>
       <c r="G109" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
@@ -7001,10 +7322,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C110" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D110" t="s">
         <v>27</v>
@@ -7016,7 +7337,7 @@
         <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
@@ -7024,10 +7345,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C111" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D111" t="s">
         <v>91</v>
@@ -7039,7 +7360,7 @@
         <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
@@ -7047,10 +7368,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C112" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D112" t="s">
         <v>27</v>
@@ -7062,7 +7383,7 @@
         <v>4</v>
       </c>
       <c r="G112" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
@@ -7070,22 +7391,22 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C113" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D113" t="s">
         <v>27</v>
       </c>
       <c r="E113" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F113" t="s">
         <v>4</v>
       </c>
       <c r="G113" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
@@ -7093,10 +7414,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C114" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D114" t="s">
         <v>27</v>
@@ -7108,28 +7429,28 @@
         <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H114" t="s">
         <v>52</v>
       </c>
       <c r="I114" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J114" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K114" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L114" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M114" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N114" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
@@ -7137,10 +7458,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C115" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D115" t="s">
         <v>27</v>
@@ -7152,7 +7473,7 @@
         <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
@@ -7160,22 +7481,22 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C116" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D116" t="s">
         <v>27</v>
       </c>
       <c r="E116" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F116" t="s">
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
@@ -7183,22 +7504,22 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C117" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D117" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E117" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F117" t="s">
         <v>18</v>
       </c>
       <c r="G117" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H117" t="s">
         <v>52</v>
@@ -7209,40 +7530,40 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C118" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D118" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E118" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F118" t="s">
         <v>18</v>
       </c>
       <c r="G118" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I118" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J118" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K118" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L118" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M118" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N118" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
@@ -7250,22 +7571,22 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C119" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D119" t="s">
         <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F119" t="s">
         <v>4</v>
       </c>
       <c r="G119" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
@@ -7273,10 +7594,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C120" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D120" t="s">
         <v>27</v>
@@ -7288,7 +7609,7 @@
         <v>4</v>
       </c>
       <c r="G120" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
@@ -7296,10 +7617,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C121" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D121" t="s">
         <v>91</v>
@@ -7311,7 +7632,7 @@
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
@@ -7319,10 +7640,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C122" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D122" t="s">
         <v>91</v>
@@ -7334,7 +7655,7 @@
         <v>4</v>
       </c>
       <c r="G122" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.35">
@@ -7342,13 +7663,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C123" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D123" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E123" t="s">
         <v>81</v>
@@ -7357,25 +7678,25 @@
         <v>18</v>
       </c>
       <c r="G123" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I123" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J123" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K123" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L123" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M123" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N123" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
@@ -7383,16 +7704,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C124" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D124" t="s">
         <v>35</v>
       </c>
       <c r="E124" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F124" t="s">
         <v>18</v>
@@ -7406,13 +7727,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C125" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D125" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E125" t="s">
         <v>81</v>
@@ -7421,7 +7742,7 @@
         <v>4</v>
       </c>
       <c r="G125" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
@@ -7429,22 +7750,22 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C126" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D126" t="s">
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F126" t="s">
         <v>4</v>
       </c>
       <c r="G126" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.35">
@@ -7452,10 +7773,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C127" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D127" t="s">
         <v>91</v>
@@ -7467,7 +7788,7 @@
         <v>4</v>
       </c>
       <c r="G127" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.35">
@@ -7475,22 +7796,22 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C128" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D128" t="s">
         <v>91</v>
       </c>
       <c r="E128" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F128" t="s">
         <v>4</v>
       </c>
       <c r="G128" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
@@ -7498,13 +7819,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C129" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D129" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E129" t="s">
         <v>10</v>
@@ -7513,7 +7834,7 @@
         <v>4</v>
       </c>
       <c r="G129" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
@@ -7521,10 +7842,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C130" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D130" t="s">
         <v>27</v>
@@ -7536,7 +7857,7 @@
         <v>4</v>
       </c>
       <c r="G130" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
@@ -7544,10 +7865,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C131" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D131" t="s">
         <v>85</v>
@@ -7559,7 +7880,7 @@
         <v>4</v>
       </c>
       <c r="G131" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H131" t="s">
         <v>52</v>
@@ -7570,10 +7891,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C132" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D132" t="s">
         <v>66</v>
@@ -7585,25 +7906,25 @@
         <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I132" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J132" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K132" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L132" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M132" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N132" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.35">
@@ -7611,10 +7932,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C133" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D133" t="s">
         <v>91</v>
@@ -7626,7 +7947,7 @@
         <v>4</v>
       </c>
       <c r="G133" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
@@ -7634,10 +7955,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C134" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D134" t="s">
         <v>85</v>
@@ -7649,25 +7970,25 @@
         <v>18</v>
       </c>
       <c r="G134" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I134" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J134" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K134" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L134" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M134" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N134" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
@@ -7675,22 +7996,22 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C135" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D135" t="s">
         <v>91</v>
       </c>
       <c r="E135" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F135" t="s">
         <v>4</v>
       </c>
       <c r="G135" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
@@ -7698,10 +8019,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C136" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D136" t="s">
         <v>27</v>
@@ -7713,7 +8034,7 @@
         <v>4</v>
       </c>
       <c r="G136" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
@@ -7721,10 +8042,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C137" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D137" t="s">
         <v>91</v>
@@ -7736,25 +8057,25 @@
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I137" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J137" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K137" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L137" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M137" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N137" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
@@ -7762,10 +8083,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C138" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D138" t="s">
         <v>91</v>
@@ -7777,25 +8098,25 @@
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I138" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J138" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K138" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L138" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M138" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N138" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.35">
@@ -7803,10 +8124,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C139" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D139" t="s">
         <v>27</v>
@@ -7818,25 +8139,25 @@
         <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I139" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J139" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K139" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L139" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M139" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N139" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
@@ -7844,10 +8165,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C140" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D140" t="s">
         <v>27</v>
@@ -7859,7 +8180,7 @@
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
@@ -7867,10 +8188,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C141" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D141" t="s">
         <v>35</v>
@@ -7885,22 +8206,22 @@
         <v>35</v>
       </c>
       <c r="I141" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J141" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K141" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L141" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M141" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N141" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
@@ -7908,13 +8229,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C142" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D142" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -7923,7 +8244,7 @@
         <v>4</v>
       </c>
       <c r="G142" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
@@ -7931,10 +8252,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C143" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D143" t="s">
         <v>91</v>
@@ -7946,7 +8267,7 @@
         <v>4</v>
       </c>
       <c r="G143" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
@@ -7954,10 +8275,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C144" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D144" t="s">
         <v>91</v>
@@ -7969,7 +8290,7 @@
         <v>4</v>
       </c>
       <c r="G144" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.35">
@@ -7977,10 +8298,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C145" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D145" t="s">
         <v>66</v>
@@ -7992,25 +8313,25 @@
         <v>18</v>
       </c>
       <c r="G145" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I145" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J145" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K145" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L145" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M145" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N145" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.35">
@@ -8018,10 +8339,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C146" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D146" t="s">
         <v>27</v>
@@ -8033,7 +8354,7 @@
         <v>4</v>
       </c>
       <c r="G146" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.35">
@@ -8041,7 +8362,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C147" t="s">
         <v>95</v>
@@ -8050,13 +8371,13 @@
         <v>27</v>
       </c>
       <c r="E147" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F147" t="s">
         <v>4</v>
       </c>
       <c r="G147" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.35">
@@ -8064,10 +8385,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C148" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D148" t="s">
         <v>91</v>
@@ -8079,7 +8400,7 @@
         <v>4</v>
       </c>
       <c r="G148" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.35">
@@ -8087,10 +8408,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C149" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D149" t="s">
         <v>27</v>
@@ -8110,10 +8431,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C150" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D150" t="s">
         <v>27</v>
@@ -8125,7 +8446,7 @@
         <v>4</v>
       </c>
       <c r="G150" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.35">
@@ -8133,40 +8454,40 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C151" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D151" t="s">
         <v>85</v>
       </c>
       <c r="E151" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F151" t="s">
         <v>18</v>
       </c>
       <c r="G151" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I151" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J151" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K151" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L151" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M151" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N151" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.35">
@@ -8174,16 +8495,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C152" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D152" t="s">
         <v>24</v>
       </c>
       <c r="E152" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F152" t="s">
         <v>18</v>
@@ -8197,22 +8518,22 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C153" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D153" t="s">
         <v>24</v>
       </c>
       <c r="E153" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F153" t="s">
         <v>4</v>
       </c>
       <c r="G153" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.35">
@@ -8220,10 +8541,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C154" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D154" t="s">
         <v>27</v>
@@ -8235,7 +8556,7 @@
         <v>4</v>
       </c>
       <c r="G154" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.35">
@@ -8243,10 +8564,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C155" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D155" t="s">
         <v>91</v>
@@ -8258,7 +8579,7 @@
         <v>4</v>
       </c>
       <c r="G155" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.35">
@@ -8266,10 +8587,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C156" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D156" t="s">
         <v>27</v>
@@ -8281,7 +8602,7 @@
         <v>4</v>
       </c>
       <c r="G156" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.35">
@@ -8289,16 +8610,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C157" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D157" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E157" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F157" t="s">
         <v>18</v>
@@ -8310,22 +8631,22 @@
         <v>52</v>
       </c>
       <c r="I157" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J157" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K157" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L157" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M157" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N157" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.35">
@@ -8333,22 +8654,22 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C158" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D158" t="s">
         <v>27</v>
       </c>
       <c r="E158" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F158" t="s">
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.35">
@@ -8356,10 +8677,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C159" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D159" t="s">
         <v>27</v>
@@ -8371,7 +8692,7 @@
         <v>4</v>
       </c>
       <c r="G159" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.35">
@@ -8379,10 +8700,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C160" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D160" t="s">
         <v>35</v>
@@ -8402,10 +8723,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C161" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D161" t="s">
         <v>27</v>
@@ -8417,7 +8738,7 @@
         <v>4</v>
       </c>
       <c r="G161" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -8425,25 +8746,25 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G162" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.35">
@@ -8451,22 +8772,22 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C163" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E163" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G163" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.35">
@@ -8474,40 +8795,40 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C164" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E164" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I164" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J164" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K164" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L164" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M164" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N164" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.35">
@@ -8515,22 +8836,22 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C165" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E165" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G165" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.35">
@@ -8538,10 +8859,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C166" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>85</v>
@@ -8553,25 +8874,25 @@
         <v>18</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I166" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J166" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K166" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L166" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M166" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N166" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.35">
@@ -8579,10 +8900,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C167" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>24</v>
@@ -8594,7 +8915,7 @@
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.35">
@@ -8602,10 +8923,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C168" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>24</v>
@@ -8617,7 +8938,7 @@
         <v>4</v>
       </c>
       <c r="G168" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.35">
@@ -8625,22 +8946,22 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C169" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E169" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.35">
@@ -8648,10 +8969,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C170" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>24</v>
@@ -8663,7 +8984,7 @@
         <v>4</v>
       </c>
       <c r="G170" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.35">
@@ -8671,10 +8992,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C171" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>91</v>
@@ -8686,7 +9007,7 @@
         <v>4</v>
       </c>
       <c r="G171" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.35">
@@ -8694,10 +9015,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C172" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>91</v>
@@ -8709,7 +9030,7 @@
         <v>4</v>
       </c>
       <c r="G172" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.35">
@@ -8717,13 +9038,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C173" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E173" t="s">
         <v>65</v>
@@ -8732,7 +9053,7 @@
         <v>4</v>
       </c>
       <c r="G173" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.35">
@@ -8740,10 +9061,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C174" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>24</v>
@@ -8755,25 +9076,25 @@
         <v>18</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I174" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J174" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K174" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L174" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M174" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N174" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.35">
@@ -8781,10 +9102,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C175" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>66</v>
@@ -8804,10 +9125,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C176" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>80</v>
@@ -8819,25 +9140,25 @@
         <v>18</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I176" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J176" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K176" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L176" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M176" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N176" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.35">
@@ -8845,10 +9166,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C177" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>91</v>
@@ -8860,10 +9181,10 @@
         <v>4</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H177" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.35">
@@ -8871,10 +9192,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C178" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>66</v>
@@ -8886,7 +9207,7 @@
         <v>18</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.35">
@@ -8894,10 +9215,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C179" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>66</v>
@@ -8909,7 +9230,7 @@
         <v>18</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.35">
@@ -8917,10 +9238,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C180" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>27</v>
@@ -8932,10 +9253,10 @@
         <v>4</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H180" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.35">
@@ -8943,22 +9264,22 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C181" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.35">
@@ -8966,40 +9287,40 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C182" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E182" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I182" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J182" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K182" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L182" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M182" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N182" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.35">
@@ -9007,22 +9328,22 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C183" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E183" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.35">
@@ -9030,10 +9351,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C184" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>66</v>
@@ -9045,25 +9366,25 @@
         <v>18</v>
       </c>
       <c r="G184" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I184" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J184" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K184" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L184" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M184" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N184" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.35">
@@ -9071,13 +9392,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C185" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
@@ -9086,7 +9407,7 @@
         <v>4</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.35">
@@ -9094,13 +9415,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C186" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
@@ -9117,10 +9438,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C187" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>66</v>
@@ -9132,25 +9453,25 @@
         <v>18</v>
       </c>
       <c r="G187" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I187" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J187" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K187" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L187" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M187" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N187" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.35">
@@ -9158,10 +9479,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C188" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>66</v>
@@ -9181,22 +9502,22 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C189" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E189" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.35">
@@ -9204,10 +9525,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C190" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>66</v>
@@ -9219,7 +9540,7 @@
         <v>18</v>
       </c>
       <c r="G190" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.35">
@@ -9227,40 +9548,40 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C191" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E191" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I191" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J191" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K191" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L191" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M191" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N191" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.35">
@@ -9268,43 +9589,43 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C192" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E192" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I192" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J192" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K192" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L192" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M192" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N192" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.35">
@@ -9312,10 +9633,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C193" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>24</v>
@@ -9327,7 +9648,7 @@
         <v>4</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.35">
@@ -9335,10 +9656,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C194" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>24</v>
@@ -9350,7 +9671,7 @@
         <v>4</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.35">
@@ -9358,10 +9679,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C195" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>3</v>
@@ -9373,7 +9694,7 @@
         <v>4</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.35">
@@ -9381,10 +9702,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C196" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>3</v>
@@ -9396,7 +9717,7 @@
         <v>4</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.35">
@@ -9404,10 +9725,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C197" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>91</v>
@@ -9419,10 +9740,10 @@
         <v>4</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H197" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.35">
@@ -9430,25 +9751,25 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C198" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E198" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.35">
@@ -9456,10 +9777,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C199" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>91</v>
@@ -9471,7 +9792,7 @@
         <v>4</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.35">
@@ -9479,10 +9800,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C200" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>24</v>
@@ -9494,7 +9815,7 @@
         <v>4</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.35">
@@ -9502,10 +9823,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C201" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>27</v>
@@ -9517,7 +9838,7 @@
         <v>4</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.35">
@@ -9525,13 +9846,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C202" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E202" t="s">
         <v>105</v>
@@ -9540,25 +9861,25 @@
         <v>18</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I202" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J202" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K202" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L202" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M202" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N202" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.35">
@@ -9566,25 +9887,25 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C203" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E203" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H203" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.35">
@@ -9592,10 +9913,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C204" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>66</v>
@@ -9615,10 +9936,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C205" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>27</v>
@@ -9630,7 +9951,7 @@
         <v>4</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.35">
@@ -9638,22 +9959,22 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C206" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E206" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.35">
@@ -9661,10 +9982,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C207" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>3</v>
@@ -9676,7 +9997,7 @@
         <v>4</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.35">
@@ -9684,10 +10005,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C208" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>27</v>
@@ -9699,7 +10020,7 @@
         <v>4</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.35">
@@ -9707,40 +10028,40 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C209" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E209" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G209" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I209" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J209" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K209" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L209" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M209" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N209" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.35">
@@ -9748,22 +10069,22 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C210" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E210" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.35">
@@ -9771,22 +10092,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C211" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E211" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.35">
@@ -9794,10 +10115,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C212" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>27</v>
@@ -9809,7 +10130,7 @@
         <v>4</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.35">
@@ -9817,22 +10138,22 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C213" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E213" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.35">
@@ -9840,22 +10161,22 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C214" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E214" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.35">
@@ -9863,10 +10184,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C215" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>27</v>
@@ -9878,7 +10199,7 @@
         <v>4</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.35">
@@ -9886,10 +10207,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C216" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>66</v>
@@ -9904,22 +10225,22 @@
         <v>35</v>
       </c>
       <c r="I216" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J216" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K216" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L216" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M216" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N216" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.35">
@@ -9927,43 +10248,43 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C217" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E217" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F217" t="s">
         <v>18</v>
       </c>
       <c r="G217" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H217" t="s">
         <v>52</v>
       </c>
       <c r="I217" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J217" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K217" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L217" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M217" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N217" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.35">
@@ -9971,10 +10292,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C218" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>27</v>
@@ -9986,25 +10307,25 @@
         <v>18</v>
       </c>
       <c r="G218" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I218" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J218" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K218" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L218" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M218" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N218" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.35">
@@ -10012,10 +10333,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C219" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>27</v>
@@ -10027,7 +10348,7 @@
         <v>4</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.35">
@@ -10035,22 +10356,22 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C220" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E220" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F220" t="s">
         <v>4</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.35">
@@ -10058,22 +10379,22 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C221" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E221" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F221" t="s">
         <v>4</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.35">
@@ -10081,10 +10402,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C222" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>27</v>
@@ -10096,7 +10417,7 @@
         <v>4</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.35">
@@ -10104,10 +10425,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C223" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>27</v>
@@ -10119,7 +10440,7 @@
         <v>4</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.35">
@@ -10127,22 +10448,22 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C224" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F224" t="s">
         <v>4</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.35">
@@ -10150,10 +10471,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C225" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>3</v>
@@ -10165,7 +10486,7 @@
         <v>4</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.35">
@@ -10173,43 +10494,43 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C226" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E226" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F226" t="s">
         <v>18</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H226" t="s">
         <v>52</v>
       </c>
       <c r="I226" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J226" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K226" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L226" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M226" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N226" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.35">
@@ -10217,16 +10538,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C227" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E227" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F227" t="s">
         <v>18</v>
@@ -10240,22 +10561,22 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C228" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E228" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F228" t="s">
         <v>18</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.35">
@@ -10263,10 +10584,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C229" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>24</v>
@@ -10278,25 +10599,25 @@
         <v>18</v>
       </c>
       <c r="G229" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I229" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J229" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K229" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L229" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M229" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N229" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.35">
@@ -10304,22 +10625,22 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C230" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E230" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F230" t="s">
         <v>4</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.35">
@@ -10327,25 +10648,25 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C231" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E231" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F231" t="s">
         <v>4</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H231" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.35">
@@ -10353,7 +10674,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C232" t="s">
         <v>69</v>
@@ -10368,7 +10689,7 @@
         <v>4</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.35">
@@ -10376,13 +10697,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C233" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E233" t="s">
         <v>76</v>
@@ -10391,10 +10712,10 @@
         <v>4</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H233" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.35">
@@ -10402,10 +10723,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C234" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>27</v>
@@ -10417,7 +10738,7 @@
         <v>4</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.35">
@@ -10425,10 +10746,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C235" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>27</v>
@@ -10440,7 +10761,7 @@
         <v>4</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.35">
@@ -10448,10 +10769,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C236" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>27</v>
@@ -10463,7 +10784,7 @@
         <v>4</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.35">
@@ -10471,16 +10792,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C237" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E237" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F237" t="s">
         <v>18</v>
@@ -10489,22 +10810,22 @@
         <v>35</v>
       </c>
       <c r="I237" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J237" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K237" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L237" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M237" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N237" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.35">
@@ -10512,16 +10833,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C238" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E238" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F238" t="s">
         <v>18</v>
@@ -10530,22 +10851,22 @@
         <v>35</v>
       </c>
       <c r="I238" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J238" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K238" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L238" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M238" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N238" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.35">
@@ -10553,22 +10874,22 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C239" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E239" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F239" t="s">
         <v>4</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.35">
@@ -10576,22 +10897,22 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C240" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E240" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F240" t="s">
         <v>4</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.35">
@@ -10599,10 +10920,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C241" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>24</v>
@@ -10614,7 +10935,7 @@
         <v>4</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.35">
@@ -10622,22 +10943,22 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C242" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E242" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F242" t="s">
         <v>4</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.35">
@@ -10645,10 +10966,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C243" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>24</v>
@@ -10660,7 +10981,7 @@
         <v>4</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.35">
@@ -10668,13 +10989,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C244" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E244" t="s">
         <v>16</v>
@@ -10683,7 +11004,7 @@
         <v>4</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.35">
@@ -10691,22 +11012,22 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C245" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E245" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F245" t="s">
         <v>4</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.35">
@@ -10714,10 +11035,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C246" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>24</v>
@@ -10729,7 +11050,7 @@
         <v>4</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.35">
@@ -10737,22 +11058,22 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C247" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E247" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F247" t="s">
         <v>4</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.35">
@@ -10760,10 +11081,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C248" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>85</v>
@@ -10775,7 +11096,7 @@
         <v>4</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H248" t="s">
         <v>52</v>
@@ -10786,22 +11107,22 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C249" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E249" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F249" t="s">
         <v>4</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.35">
@@ -10809,16 +11130,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C250" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E250" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F250" t="s">
         <v>18</v>
@@ -10827,22 +11148,22 @@
         <v>66</v>
       </c>
       <c r="I250" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J250" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K250" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L250" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M250" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N250" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.35">
@@ -10850,10 +11171,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C251" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>24</v>
@@ -10865,7 +11186,7 @@
         <v>4</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.35">
@@ -10873,10 +11194,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C252" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>24</v>
@@ -10888,10 +11209,10 @@
         <v>4</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H252" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.35">
@@ -10899,25 +11220,25 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C253" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E253" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F253" t="s">
         <v>4</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H253" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.35">
@@ -10925,10 +11246,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C254" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>24</v>
@@ -10940,7 +11261,7 @@
         <v>4</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.35">
@@ -10948,10 +11269,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C255" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>24</v>
@@ -10963,7 +11284,7 @@
         <v>4</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.35">
@@ -10971,22 +11292,22 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C256" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E256" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F256" t="s">
         <v>4</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.35">
@@ -10994,10 +11315,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C257" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>85</v>
@@ -11009,7 +11330,7 @@
         <v>4</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H257" t="s">
         <v>52</v>
@@ -11020,16 +11341,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C258" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E258" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F258" t="s">
         <v>18</v>
@@ -11038,22 +11359,22 @@
         <v>66</v>
       </c>
       <c r="I258" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J258" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K258" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L258" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M258" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N258" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.35">
@@ -11061,7 +11382,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C259" t="s">
         <v>69</v>
@@ -11076,25 +11397,25 @@
         <v>18</v>
       </c>
       <c r="G259" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I259" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J259" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K259" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L259" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M259" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N259" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.35">
@@ -11102,7 +11423,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C260" t="s">
         <v>69</v>
@@ -11117,7 +11438,7 @@
         <v>4</v>
       </c>
       <c r="G260" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.35">
@@ -11125,16 +11446,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C261" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E261" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F261" t="s">
         <v>18</v>
@@ -11148,10 +11469,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C262" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>24</v>
@@ -11163,28 +11484,28 @@
         <v>18</v>
       </c>
       <c r="G262" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H262" t="s">
         <v>52</v>
       </c>
       <c r="I262" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J262" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K262" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L262" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M262" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N262" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.35">
@@ -11192,22 +11513,22 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C263" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E263" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F263" t="s">
         <v>4</v>
       </c>
       <c r="G263" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.35">
@@ -11215,22 +11536,22 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C264" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E264" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F264" t="s">
         <v>4</v>
       </c>
       <c r="G264" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.35">
@@ -11238,22 +11559,22 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C265" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E265" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F265" t="s">
         <v>4</v>
       </c>
       <c r="G265" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.35">
@@ -11261,16 +11582,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C266" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E266" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F266" t="s">
         <v>18</v>
@@ -11279,22 +11600,22 @@
         <v>35</v>
       </c>
       <c r="I266" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J266" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K266" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L266" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M266" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N266" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.35">
@@ -11302,10 +11623,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C267" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>66</v>
@@ -11317,25 +11638,25 @@
         <v>18</v>
       </c>
       <c r="G267" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I267" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J267" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K267" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L267" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M267" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N267" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.35">
@@ -11343,7 +11664,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C268" t="s">
         <v>95</v>
@@ -11352,13 +11673,13 @@
         <v>27</v>
       </c>
       <c r="E268" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F268" t="s">
         <v>4</v>
       </c>
       <c r="G268" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.35">
@@ -11366,10 +11687,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C269" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>27</v>
@@ -11381,7 +11702,7 @@
         <v>4</v>
       </c>
       <c r="G269" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.35">
@@ -11389,10 +11710,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C270" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>27</v>
@@ -11404,7 +11725,7 @@
         <v>4</v>
       </c>
       <c r="G270" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.35">
@@ -11412,16 +11733,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C271" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E271" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F271" t="s">
         <v>18</v>
@@ -11430,22 +11751,22 @@
         <v>35</v>
       </c>
       <c r="I271" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J271" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K271" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L271" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M271" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N271" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.35">
@@ -11453,22 +11774,22 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C272" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E272" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F272" t="s">
         <v>4</v>
       </c>
       <c r="G272" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.35">
@@ -11476,16 +11797,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C273" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E273" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F273" t="s">
         <v>18</v>
@@ -11494,22 +11815,22 @@
         <v>66</v>
       </c>
       <c r="I273" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J273" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K273" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L273" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M273" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N273" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.35">
@@ -11517,16 +11838,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C274" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E274" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F274" t="s">
         <v>18</v>
@@ -11535,22 +11856,22 @@
         <v>66</v>
       </c>
       <c r="I274" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J274" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K274" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L274" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M274" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N274" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/data/exclude_list.xlsx
+++ b/data/exclude_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mflor\Documents\GitHub\dryland_restoration_synthesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57F181B-D274-40F5-BCB4-E23F5B144E61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A96A17-8A85-4076-AE28-912A9A769B84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{C6F08BAA-C670-4BEE-8D8B-BC2F9FF4AD91}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="850">
   <si>
     <t>ID</t>
   </si>
@@ -527,9 +527,6 @@
     <t>direct seeding for revegetate an abandoned farmland</t>
   </si>
   <si>
-    <t>forests</t>
-  </si>
-  <si>
     <t>compare diversity of tree plantations with native stands</t>
   </si>
   <si>
@@ -572,24 +569,15 @@
     <t>prescribed burning and mowing</t>
   </si>
   <si>
-    <t>habitat quality and landscape context for reptiles in regenerating woodland</t>
-  </si>
-  <si>
     <t>introduction of legumes to abandoned field, succesion of natives</t>
   </si>
   <si>
     <t>connectivity in drylands</t>
   </si>
   <si>
-    <t>changes in soil nutrient status ofMediterranean drylands affected by wildfires</t>
-  </si>
-  <si>
     <t>Mediterranean</t>
   </si>
   <si>
-    <t>Meta-analysis on the effects of ecotechnological tools on the establishment of seedlings employed in restoration</t>
-  </si>
-  <si>
     <t>meta-analysis</t>
   </si>
   <si>
@@ -608,15 +596,9 @@
     <t>activities/main aims/restoration techique used</t>
   </si>
   <si>
-    <t>factors limiting establishment of shrubs in formerly cropped land</t>
-  </si>
-  <si>
     <t>field and lab data</t>
   </si>
   <si>
-    <t>direct-seeding inoculated wirh bacteria</t>
-  </si>
-  <si>
     <t>effects of plants during restoration on soil bacterial community</t>
   </si>
   <si>
@@ -2523,6 +2505,84 @@
   </si>
   <si>
     <t>chemical</t>
+  </si>
+  <si>
+    <t>stabilized sand land</t>
+  </si>
+  <si>
+    <t>native vegetation and fungi</t>
+  </si>
+  <si>
+    <t>past grazing</t>
+  </si>
+  <si>
+    <t>abandoned roads</t>
+  </si>
+  <si>
+    <t>undisturbed desert</t>
+  </si>
+  <si>
+    <t>abandoned farmland</t>
+  </si>
+  <si>
+    <t>water addition</t>
+  </si>
+  <si>
+    <t>water and chemical composition</t>
+  </si>
+  <si>
+    <t>natural community</t>
+  </si>
+  <si>
+    <t>grasslands and soil microbes</t>
+  </si>
+  <si>
+    <t>mulch and phosphate addition</t>
+  </si>
+  <si>
+    <t>forests, not aridlands</t>
+  </si>
+  <si>
+    <t>herbivory</t>
+  </si>
+  <si>
+    <t>fenced to cattle</t>
+  </si>
+  <si>
+    <t>physical attributes</t>
+  </si>
+  <si>
+    <t>habitat quality for reptiles in regenerating woodland</t>
+  </si>
+  <si>
+    <t>vegetation and reptiles</t>
+  </si>
+  <si>
+    <t>animal species recovery</t>
+  </si>
+  <si>
+    <t>changes in soil nutrient status of Mediterranean drylands affected by wildfires</t>
+  </si>
+  <si>
+    <t>ecotechnological tools on the establishment of seedlings employed in restoration</t>
+  </si>
+  <si>
+    <t>crusts of little disturbed sites</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>factors limiting establishment of shrubs in cropped land</t>
+  </si>
+  <si>
+    <t>clearing and grazing</t>
+  </si>
+  <si>
+    <t>direct-seeding inoculated with bacteria</t>
+  </si>
+  <si>
+    <t>native vegetation and bacteria</t>
   </si>
 </sst>
 </file>
@@ -2896,8 +2956,8 @@
   <dimension ref="A1:O274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2913,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2925,31 +2985,31 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -2957,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -2972,25 +3032,25 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -2998,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -3013,22 +3073,22 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N3" t="s">
         <v>148</v>
@@ -3039,10 +3099,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3054,22 +3114,22 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J4" t="s">
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -3077,7 +3137,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -3092,25 +3152,25 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I5" t="s">
+        <v>383</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>390</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>375</v>
+      </c>
+      <c r="N5" t="s">
         <v>389</v>
-      </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>396</v>
-      </c>
-      <c r="L5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>381</v>
-      </c>
-      <c r="N5" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -3118,7 +3178,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -3133,25 +3193,25 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I6" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="J6" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L6" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M6" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="N6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -3159,7 +3219,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -3174,22 +3234,22 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="J7" t="s">
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L7" t="s">
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -3197,7 +3257,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -3215,22 +3275,22 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J8" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K8" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L8" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M8" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N8" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -3238,7 +3298,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -3256,22 +3316,22 @@
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -3279,7 +3339,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -3294,25 +3354,25 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I10" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J10" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K10" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L10" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -3320,7 +3380,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -3338,22 +3398,22 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -3361,10 +3421,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C12" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -3376,25 +3436,25 @@
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I12" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="J12" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="N12" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -3402,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -3417,28 +3477,28 @@
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I13" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J13" t="s">
         <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L13" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M13" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N13" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="O13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -3446,10 +3506,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C14" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -3461,25 +3521,25 @@
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I14" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J14" t="s">
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L14" t="s">
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="N14" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -3487,7 +3547,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -3505,22 +3565,22 @@
         <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J15" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K15" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L15" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M15" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N15" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -3528,7 +3588,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -3543,25 +3603,25 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I16" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J16" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K16" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L16" t="s">
         <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="N16" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -3569,10 +3629,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C17" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -3584,25 +3644,25 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I17" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J17" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K17" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="L17" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N17" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -3610,7 +3670,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -3628,22 +3688,22 @@
         <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J18" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K18" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L18" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M18" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N18" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -3651,7 +3711,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -3672,22 +3732,22 @@
         <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J19" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K19" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L19" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M19" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N19" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -3695,7 +3755,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -3710,25 +3770,25 @@
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I20" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J20" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K20" t="s">
+        <v>422</v>
+      </c>
+      <c r="L20" t="s">
+        <v>426</v>
+      </c>
+      <c r="M20" t="s">
         <v>428</v>
       </c>
-      <c r="L20" t="s">
-        <v>432</v>
-      </c>
-      <c r="M20" t="s">
-        <v>434</v>
-      </c>
       <c r="N20" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -3736,7 +3796,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -3751,25 +3811,25 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I21" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="J21" t="s">
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L21" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M21" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="N21" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -3777,7 +3837,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -3792,22 +3852,22 @@
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I22" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K22" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L22" t="s">
         <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N22" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -3815,7 +3875,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
@@ -3833,22 +3893,22 @@
         <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J23" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K23" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L23" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M23" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N23" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -3856,7 +3916,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
@@ -3871,22 +3931,22 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I24" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="J24" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K24" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L24" t="s">
         <v>4</v>
       </c>
       <c r="M24" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N24" t="s">
         <v>69</v>
@@ -3897,7 +3957,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
@@ -3918,22 +3978,22 @@
         <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J25" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K25" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L25" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M25" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N25" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -3941,7 +4001,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
@@ -3962,22 +4022,22 @@
         <v>52</v>
       </c>
       <c r="I26" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J26" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K26" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L26" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M26" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N26" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -3985,7 +4045,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
@@ -4003,22 +4063,22 @@
         <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J27" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K27" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L27" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M27" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N27" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -4026,7 +4086,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
@@ -4044,22 +4104,22 @@
         <v>59</v>
       </c>
       <c r="I28" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J28" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K28" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L28" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M28" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N28" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -4067,7 +4127,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
@@ -4082,25 +4142,25 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I29" t="s">
+        <v>432</v>
+      </c>
+      <c r="J29" t="s">
+        <v>408</v>
+      </c>
+      <c r="K29" t="s">
+        <v>433</v>
+      </c>
+      <c r="L29" t="s">
+        <v>426</v>
+      </c>
+      <c r="M29" t="s">
         <v>438</v>
       </c>
-      <c r="J29" t="s">
-        <v>414</v>
-      </c>
-      <c r="K29" t="s">
-        <v>439</v>
-      </c>
-      <c r="L29" t="s">
-        <v>432</v>
-      </c>
-      <c r="M29" t="s">
-        <v>444</v>
-      </c>
       <c r="N29" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -4108,7 +4168,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
@@ -4123,25 +4183,25 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I30" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J30" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K30" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L30" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M30" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="N30" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -4149,10 +4209,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C31" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D31" t="s">
         <v>27</v>
@@ -4164,25 +4224,25 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I31" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J31" t="s">
         <v>4</v>
       </c>
       <c r="K31" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L31" t="s">
         <v>4</v>
       </c>
       <c r="M31" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N31" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -4190,7 +4250,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
@@ -4205,25 +4265,25 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I32" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J32" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K32" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L32" t="s">
         <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N32" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -4231,7 +4291,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
@@ -4246,25 +4306,25 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I33" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J33" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K33" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L33" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="M33" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N33" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -4272,7 +4332,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C34" t="s">
         <v>67</v>
@@ -4290,22 +4350,22 @@
         <v>66</v>
       </c>
       <c r="I34" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J34" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K34" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N34" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -4313,7 +4373,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -4328,25 +4388,25 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I35" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="J35" t="s">
         <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L35" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M35" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N35" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -4354,7 +4414,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C36" t="s">
         <v>69</v>
@@ -4369,28 +4429,28 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H36" t="s">
         <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J36" t="s">
+        <v>378</v>
+      </c>
+      <c r="K36" t="s">
         <v>384</v>
       </c>
-      <c r="K36" t="s">
-        <v>390</v>
-      </c>
       <c r="L36" t="s">
         <v>4</v>
       </c>
       <c r="M36" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="N36" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -4398,10 +4458,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C37" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -4416,22 +4476,22 @@
         <v>66</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -4439,7 +4499,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C38" t="s">
         <v>70</v>
@@ -4454,25 +4514,25 @@
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I38" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="J38" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K38" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L38" t="s">
         <v>4</v>
       </c>
       <c r="M38" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="N38" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -4480,7 +4540,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C39" t="s">
         <v>35</v>
@@ -4498,22 +4558,22 @@
         <v>35</v>
       </c>
       <c r="I39" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J39" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K39" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M39" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N39" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -4521,7 +4581,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
@@ -4536,28 +4596,28 @@
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I40" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J40" t="s">
         <v>4</v>
       </c>
       <c r="K40" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="L40" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M40" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N40" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="O40" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -4565,7 +4625,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C41" t="s">
         <v>73</v>
@@ -4580,25 +4640,25 @@
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I41" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="J41" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="K41" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="L41" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M41" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="N41" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -4606,7 +4666,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C42" t="s">
         <v>74</v>
@@ -4621,25 +4681,25 @@
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I42" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="J42" t="s">
         <v>4</v>
       </c>
       <c r="K42" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L42" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="M42" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N42" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -4647,7 +4707,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C43" t="s">
         <v>75</v>
@@ -4662,25 +4722,25 @@
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I43" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J43" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K43" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s">
         <v>4</v>
       </c>
       <c r="M43" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N43" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -4688,10 +4748,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C44" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
@@ -4703,25 +4763,25 @@
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I44" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="J44" t="s">
         <v>4</v>
       </c>
       <c r="K44" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L44" t="s">
         <v>4</v>
       </c>
       <c r="M44" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N44" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -4729,7 +4789,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C45" t="s">
         <v>77</v>
@@ -4744,22 +4804,22 @@
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I45" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="K45" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L45" t="s">
         <v>4</v>
       </c>
       <c r="M45" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="N45" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -4767,7 +4827,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C46" t="s">
         <v>78</v>
@@ -4782,25 +4842,25 @@
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I46" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="J46" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="K46" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M46" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="N46" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -4808,7 +4868,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C47" t="s">
         <v>79</v>
@@ -4823,31 +4883,31 @@
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H47" t="s">
         <v>52</v>
       </c>
       <c r="I47" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J47" t="s">
         <v>4</v>
       </c>
       <c r="K47" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="L47" t="s">
         <v>4</v>
       </c>
       <c r="M47" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N47" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="O47" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -4855,7 +4915,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C48" t="s">
         <v>82</v>
@@ -4873,22 +4933,22 @@
         <v>35</v>
       </c>
       <c r="I48" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J48" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K48" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L48" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M48" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N48" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -4896,7 +4956,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C49" t="s">
         <v>83</v>
@@ -4911,25 +4971,25 @@
         <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I49" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="J49" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="K49" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L49" t="s">
         <v>4</v>
       </c>
       <c r="M49" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N49" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -4937,7 +4997,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C50" t="s">
         <v>84</v>
@@ -4958,22 +5018,22 @@
         <v>52</v>
       </c>
       <c r="I50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N50" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -4981,7 +5041,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
@@ -4996,28 +5056,28 @@
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H51" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I51" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J51" t="s">
         <v>4</v>
       </c>
       <c r="K51" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="L51" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="M51" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N51" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -5025,10 +5085,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C52" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
@@ -5040,25 +5100,25 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I52" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J52" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="K52" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L52" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M52" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="N52" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -5066,7 +5126,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C53" t="s">
         <v>88</v>
@@ -5081,25 +5141,25 @@
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I53" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="J53" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="K53" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L53" t="s">
         <v>4</v>
       </c>
       <c r="M53" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="N53" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -5107,7 +5167,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C54" t="s">
         <v>89</v>
@@ -5122,25 +5182,25 @@
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I54" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="J54" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="K54" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L54" t="s">
         <v>4</v>
       </c>
       <c r="M54" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N54" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -5148,7 +5208,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C55" t="s">
         <v>90</v>
@@ -5163,25 +5223,25 @@
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I55" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="J55" t="s">
         <v>4</v>
       </c>
       <c r="K55" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L55" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M55" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N55" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -5189,7 +5249,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C56" t="s">
         <v>92</v>
@@ -5204,25 +5264,25 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I56" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="J56" t="s">
         <v>4</v>
       </c>
       <c r="K56" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L56" t="s">
+        <v>758</v>
+      </c>
+      <c r="M56" t="s">
+        <v>382</v>
+      </c>
+      <c r="N56" t="s">
         <v>764</v>
-      </c>
-      <c r="M56" t="s">
-        <v>388</v>
-      </c>
-      <c r="N56" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -5230,7 +5290,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C57" t="s">
         <v>93</v>
@@ -5245,31 +5305,31 @@
         <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H57" t="s">
         <v>52</v>
       </c>
       <c r="I57" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J57" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K57" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L57" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M57" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N57" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="O57" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -5277,7 +5337,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C58" t="s">
         <v>94</v>
@@ -5295,22 +5355,22 @@
         <v>66</v>
       </c>
       <c r="I58" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J58" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K58" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L58" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M58" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N58" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -5318,7 +5378,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C59" t="s">
         <v>95</v>
@@ -5333,25 +5393,25 @@
         <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I59" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J59" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K59" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="L59" t="s">
         <v>4</v>
       </c>
       <c r="M59" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="N59" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -5359,10 +5419,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C60" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
@@ -5374,25 +5434,25 @@
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I60" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="J60" t="s">
         <v>4</v>
       </c>
       <c r="K60" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L60" t="s">
         <v>4</v>
       </c>
       <c r="M60" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N60" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -5400,7 +5460,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C61" t="s">
         <v>98</v>
@@ -5421,22 +5481,22 @@
         <v>52</v>
       </c>
       <c r="I61" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J61" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K61" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L61" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M61" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N61" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -5444,10 +5504,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C62" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
@@ -5459,25 +5519,25 @@
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I62" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="J62" t="s">
         <v>4</v>
       </c>
       <c r="K62" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L62" t="s">
         <v>4</v>
       </c>
       <c r="M62" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="N62" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -5485,7 +5545,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C63" t="s">
         <v>99</v>
@@ -5503,22 +5563,22 @@
         <v>59</v>
       </c>
       <c r="I63" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J63" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K63" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L63" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M63" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N63" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -5526,10 +5586,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C64" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D64" t="s">
         <v>24</v>
@@ -5541,22 +5601,22 @@
         <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I64" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="J64" t="s">
         <v>4</v>
       </c>
       <c r="K64" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="L64" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M64" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="N64" t="s">
         <v>121</v>
@@ -5567,10 +5627,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C65" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -5582,25 +5642,25 @@
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I65" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="J65" t="s">
         <v>4</v>
       </c>
       <c r="K65" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="L65" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="M65" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="N65" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -5608,7 +5668,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C66" t="s">
         <v>103</v>
@@ -5623,28 +5683,28 @@
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I66" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J66" t="s">
         <v>4</v>
       </c>
       <c r="K66" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L66" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M66" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N66" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="O66" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -5652,10 +5712,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C67" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D67" t="s">
         <v>24</v>
@@ -5667,22 +5727,22 @@
         <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I67" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="K67" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="L67" t="s">
         <v>4</v>
       </c>
       <c r="M67" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="N67" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -5690,7 +5750,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C68" t="s">
         <v>104</v>
@@ -5708,22 +5768,22 @@
         <v>66</v>
       </c>
       <c r="I68" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J68" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K68" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L68" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M68" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N68" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -5731,10 +5791,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C69" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D69" t="s">
         <v>27</v>
@@ -5746,25 +5806,25 @@
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I69" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J69" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="K69" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L69" t="s">
         <v>4</v>
       </c>
       <c r="M69" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N69" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -5772,7 +5832,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C70" t="s">
         <v>106</v>
@@ -5787,22 +5847,22 @@
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I70" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J70" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="K70" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L70" t="s">
         <v>4</v>
       </c>
       <c r="M70" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="N70" t="s">
         <v>148</v>
@@ -5813,7 +5873,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C71" t="s">
         <v>45</v>
@@ -5831,22 +5891,22 @@
         <v>35</v>
       </c>
       <c r="I71" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J71" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K71" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L71" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M71" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N71" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
@@ -5854,7 +5914,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C72" t="s">
         <v>107</v>
@@ -5869,22 +5929,22 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I72" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="J72" t="s">
         <v>4</v>
       </c>
       <c r="K72" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="L72" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M72" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="N72" t="s">
         <v>148</v>
@@ -5895,7 +5955,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C73" t="s">
         <v>108</v>
@@ -5913,22 +5973,22 @@
         <v>66</v>
       </c>
       <c r="I73" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J73" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K73" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L73" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M73" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N73" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
@@ -5936,10 +5996,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C74" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
@@ -5951,22 +6011,22 @@
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I74" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="J74" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K74" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L74" t="s">
         <v>4</v>
       </c>
       <c r="M74" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N74" t="s">
         <v>148</v>
@@ -5977,10 +6037,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C75" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D75" t="s">
         <v>27</v>
@@ -5992,25 +6052,25 @@
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I75" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="J75" t="s">
         <v>4</v>
       </c>
       <c r="K75" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L75" t="s">
         <v>4</v>
       </c>
       <c r="M75" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="N75" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
@@ -6018,7 +6078,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C76" t="s">
         <v>110</v>
@@ -6036,22 +6096,22 @@
         <v>109</v>
       </c>
       <c r="I76" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J76" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K76" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L76" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M76" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N76" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
@@ -6059,10 +6119,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C77" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D77" t="s">
         <v>27</v>
@@ -6074,25 +6134,25 @@
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I77" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J77" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K77" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L77" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="M77" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="N77" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
@@ -6100,7 +6160,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C78" t="s">
         <v>113</v>
@@ -6115,25 +6175,25 @@
         <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I78" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="J78" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="K78" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="L78" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="M78" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="N78" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
@@ -6141,7 +6201,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C79" t="s">
         <v>114</v>
@@ -6156,25 +6216,25 @@
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I79" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J79" t="s">
         <v>4</v>
       </c>
       <c r="K79" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="L79" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="M79" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="N79" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
@@ -6182,7 +6242,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C80" t="s">
         <v>116</v>
@@ -6200,22 +6260,22 @@
         <v>115</v>
       </c>
       <c r="I80" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J80" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K80" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L80" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M80" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N80" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
@@ -6223,10 +6283,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C81" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D81" t="s">
         <v>118</v>
@@ -6238,28 +6298,28 @@
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H81" t="s">
         <v>52</v>
       </c>
       <c r="I81" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J81" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K81" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L81" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M81" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N81" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
@@ -6267,7 +6327,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C82" t="s">
         <v>120</v>
@@ -6285,22 +6345,22 @@
         <v>119</v>
       </c>
       <c r="I82" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J82" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K82" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L82" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M82" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N82" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
@@ -6308,10 +6368,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C83" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D83" t="s">
         <v>27</v>
@@ -6323,25 +6383,25 @@
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I83" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="J83" t="s">
         <v>4</v>
       </c>
       <c r="K83" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="L83" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="M83" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="N83" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
@@ -6349,7 +6409,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C84" t="s">
         <v>123</v>
@@ -6370,22 +6430,22 @@
         <v>52</v>
       </c>
       <c r="I84" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J84" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K84" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L84" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M84" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N84" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
@@ -6393,7 +6453,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C85" t="s">
         <v>126</v>
@@ -6408,25 +6468,25 @@
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I85" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J85" t="s">
         <v>4</v>
       </c>
       <c r="K85" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="L85" t="s">
         <v>4</v>
       </c>
       <c r="M85" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N85" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
@@ -6434,7 +6494,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C86" t="s">
         <v>127</v>
@@ -6449,28 +6509,28 @@
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H86" t="s">
         <v>52</v>
       </c>
       <c r="I86" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J86" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K86" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L86" t="s">
         <v>4</v>
       </c>
       <c r="M86" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="N86" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
@@ -6478,7 +6538,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C87" t="s">
         <v>129</v>
@@ -6493,25 +6553,25 @@
         <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I87" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="J87" t="s">
         <v>4</v>
       </c>
       <c r="K87" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L87" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M87" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N87" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
@@ -6519,7 +6579,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C88" t="s">
         <v>130</v>
@@ -6534,22 +6594,22 @@
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I88" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="J88" t="s">
         <v>4</v>
       </c>
       <c r="K88" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L88" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M88" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="N88" t="s">
         <v>121</v>
@@ -6560,10 +6620,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C89" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D89" t="s">
         <v>27</v>
@@ -6575,25 +6635,25 @@
         <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I89" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J89" t="s">
         <v>4</v>
       </c>
       <c r="K89" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L89" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M89" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="N89" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
@@ -6601,7 +6661,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C90" t="s">
         <v>131</v>
@@ -6616,25 +6676,25 @@
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I90" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J90" t="s">
         <v>4</v>
       </c>
       <c r="K90" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="L90" t="s">
         <v>4</v>
       </c>
       <c r="M90" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="N90" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
@@ -6642,7 +6702,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C91" t="s">
         <v>132</v>
@@ -6660,22 +6720,22 @@
         <v>35</v>
       </c>
       <c r="I91" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J91" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K91" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L91" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M91" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N91" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
@@ -6683,10 +6743,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C92" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
@@ -6698,25 +6758,25 @@
         <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I92" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J92" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="K92" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="L92" t="s">
         <v>4</v>
       </c>
       <c r="M92" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="N92" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -6724,7 +6784,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>145</v>
@@ -6745,22 +6805,22 @@
         <v>52</v>
       </c>
       <c r="I93" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J93" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K93" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L93" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M93" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N93" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
@@ -6768,7 +6828,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C94" t="s">
         <v>133</v>
@@ -6783,25 +6843,25 @@
         <v>4</v>
       </c>
       <c r="G94" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I94" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J94" t="s">
+        <v>378</v>
+      </c>
+      <c r="K94" t="s">
         <v>384</v>
       </c>
-      <c r="K94" t="s">
-        <v>390</v>
-      </c>
       <c r="L94" t="s">
         <v>4</v>
       </c>
       <c r="M94" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="N94" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
@@ -6809,7 +6869,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C95" t="s">
         <v>135</v>
@@ -6827,22 +6887,22 @@
         <v>136</v>
       </c>
       <c r="I95" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J95" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K95" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L95" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M95" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N95" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
@@ -6850,7 +6910,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C96" t="s">
         <v>137</v>
@@ -6865,25 +6925,25 @@
         <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I96" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J96" t="s">
         <v>4</v>
       </c>
       <c r="K96" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L96" t="s">
         <v>4</v>
       </c>
       <c r="M96" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="N96" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
@@ -6891,7 +6951,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C97" t="s">
         <v>138</v>
@@ -6906,25 +6966,25 @@
         <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I97" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="J97" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="K97" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L97" t="s">
         <v>4</v>
       </c>
       <c r="M97" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="N97" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
@@ -6932,7 +6992,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C98" t="s">
         <v>139</v>
@@ -6953,22 +7013,22 @@
         <v>52</v>
       </c>
       <c r="I98" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J98" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K98" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L98" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M98" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N98" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
@@ -6976,7 +7036,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C99" t="s">
         <v>140</v>
@@ -6991,25 +7051,25 @@
         <v>4</v>
       </c>
       <c r="G99" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I99" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="J99" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K99" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="L99" t="s">
         <v>4</v>
       </c>
       <c r="M99" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="N99" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
@@ -7017,7 +7077,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C100" t="s">
         <v>143</v>
@@ -7035,22 +7095,22 @@
         <v>66</v>
       </c>
       <c r="I100" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J100" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K100" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L100" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M100" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N100" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
@@ -7058,7 +7118,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C101" t="s">
         <v>144</v>
@@ -7073,25 +7133,25 @@
         <v>4</v>
       </c>
       <c r="G101" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I101" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="J101" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="K101" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L101" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="M101" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="N101" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
@@ -7099,7 +7159,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C102" t="s">
         <v>148</v>
@@ -7114,7 +7174,25 @@
         <v>4</v>
       </c>
       <c r="G102" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I102" t="s">
+        <v>399</v>
+      </c>
+      <c r="J102" t="s">
+        <v>408</v>
+      </c>
+      <c r="K102" t="s">
+        <v>390</v>
+      </c>
+      <c r="L102" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" t="s">
+        <v>824</v>
+      </c>
+      <c r="N102" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
@@ -7122,7 +7200,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C103" t="s">
         <v>150</v>
@@ -7140,22 +7218,22 @@
         <v>149</v>
       </c>
       <c r="I103" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J103" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K103" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L103" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M103" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N103" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
@@ -7163,7 +7241,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C104" t="s">
         <v>151</v>
@@ -7181,22 +7259,22 @@
         <v>35</v>
       </c>
       <c r="I104" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J104" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K104" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L104" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M104" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N104" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
@@ -7204,7 +7282,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C105" t="s">
         <v>152</v>
@@ -7219,7 +7297,25 @@
         <v>4</v>
       </c>
       <c r="G105" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I105" t="s">
+        <v>811</v>
+      </c>
+      <c r="J105" t="s">
+        <v>826</v>
+      </c>
+      <c r="K105" t="s">
+        <v>825</v>
+      </c>
+      <c r="L105" t="s">
+        <v>426</v>
+      </c>
+      <c r="M105" t="s">
+        <v>390</v>
+      </c>
+      <c r="N105" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
@@ -7227,7 +7323,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C106" t="s">
         <v>154</v>
@@ -7242,7 +7338,25 @@
         <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I106" t="s">
+        <v>827</v>
+      </c>
+      <c r="J106" t="s">
+        <v>4</v>
+      </c>
+      <c r="K106" t="s">
+        <v>390</v>
+      </c>
+      <c r="L106" t="s">
+        <v>426</v>
+      </c>
+      <c r="M106" t="s">
+        <v>828</v>
+      </c>
+      <c r="N106" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
@@ -7250,7 +7364,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C107" t="s">
         <v>157</v>
@@ -7265,7 +7379,25 @@
         <v>4</v>
       </c>
       <c r="G107" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I107" t="s">
+        <v>829</v>
+      </c>
+      <c r="J107" t="s">
+        <v>4</v>
+      </c>
+      <c r="K107" t="s">
+        <v>384</v>
+      </c>
+      <c r="L107" t="s">
+        <v>830</v>
+      </c>
+      <c r="M107" t="s">
+        <v>784</v>
+      </c>
+      <c r="N107" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
@@ -7273,7 +7405,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C108" t="s">
         <v>158</v>
@@ -7288,10 +7420,25 @@
         <v>4</v>
       </c>
       <c r="G108" t="s">
-        <v>328</v>
-      </c>
-      <c r="H108" t="s">
-        <v>52</v>
+        <v>322</v>
+      </c>
+      <c r="I108" t="s">
+        <v>383</v>
+      </c>
+      <c r="J108" t="s">
+        <v>4</v>
+      </c>
+      <c r="K108" t="s">
+        <v>437</v>
+      </c>
+      <c r="L108" t="s">
+        <v>831</v>
+      </c>
+      <c r="M108" t="s">
+        <v>784</v>
+      </c>
+      <c r="N108" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
@@ -7299,7 +7446,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C109" t="s">
         <v>159</v>
@@ -7314,7 +7461,25 @@
         <v>4</v>
       </c>
       <c r="G109" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I109" t="s">
+        <v>827</v>
+      </c>
+      <c r="J109" t="s">
+        <v>4</v>
+      </c>
+      <c r="K109" t="s">
+        <v>437</v>
+      </c>
+      <c r="L109" t="s">
+        <v>426</v>
+      </c>
+      <c r="M109" t="s">
+        <v>832</v>
+      </c>
+      <c r="N109" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
@@ -7322,7 +7487,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C110" t="s">
         <v>160</v>
@@ -7337,7 +7502,25 @@
         <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I110" t="s">
+        <v>829</v>
+      </c>
+      <c r="J110" t="s">
+        <v>4</v>
+      </c>
+      <c r="K110" t="s">
+        <v>390</v>
+      </c>
+      <c r="L110" t="s">
+        <v>4</v>
+      </c>
+      <c r="M110" t="s">
+        <v>390</v>
+      </c>
+      <c r="N110" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
@@ -7345,7 +7528,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C111" t="s">
         <v>161</v>
@@ -7360,7 +7543,25 @@
         <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I111" t="s">
+        <v>800</v>
+      </c>
+      <c r="J111" t="s">
+        <v>4</v>
+      </c>
+      <c r="K111" t="s">
+        <v>833</v>
+      </c>
+      <c r="L111" t="s">
+        <v>393</v>
+      </c>
+      <c r="M111" t="s">
+        <v>784</v>
+      </c>
+      <c r="N111" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
@@ -7368,7 +7569,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C112" t="s">
         <v>162</v>
@@ -7383,7 +7584,25 @@
         <v>4</v>
       </c>
       <c r="G112" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I112" t="s">
+        <v>829</v>
+      </c>
+      <c r="J112" t="s">
+        <v>4</v>
+      </c>
+      <c r="K112" t="s">
+        <v>437</v>
+      </c>
+      <c r="L112" t="s">
+        <v>393</v>
+      </c>
+      <c r="M112" t="s">
+        <v>784</v>
+      </c>
+      <c r="N112" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
@@ -7391,7 +7610,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C113" t="s">
         <v>163</v>
@@ -7406,7 +7625,25 @@
         <v>4</v>
       </c>
       <c r="G113" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I113" t="s">
+        <v>829</v>
+      </c>
+      <c r="J113" t="s">
+        <v>4</v>
+      </c>
+      <c r="K113" t="s">
+        <v>390</v>
+      </c>
+      <c r="L113" t="s">
+        <v>834</v>
+      </c>
+      <c r="M113" t="s">
+        <v>390</v>
+      </c>
+      <c r="N113" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
@@ -7414,10 +7651,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D114" t="s">
         <v>27</v>
@@ -7429,28 +7666,28 @@
         <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>164</v>
+        <v>835</v>
       </c>
       <c r="H114" t="s">
         <v>52</v>
       </c>
       <c r="I114" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J114" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K114" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L114" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M114" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N114" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
@@ -7458,10 +7695,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C115" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D115" t="s">
         <v>27</v>
@@ -7473,7 +7710,25 @@
         <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I115" t="s">
+        <v>829</v>
+      </c>
+      <c r="J115" t="s">
+        <v>836</v>
+      </c>
+      <c r="K115" t="s">
+        <v>390</v>
+      </c>
+      <c r="L115" t="s">
+        <v>393</v>
+      </c>
+      <c r="M115" t="s">
+        <v>390</v>
+      </c>
+      <c r="N115" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
@@ -7481,22 +7736,40 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D116" t="s">
         <v>27</v>
       </c>
       <c r="E116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F116" t="s">
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I116" t="s">
+        <v>379</v>
+      </c>
+      <c r="J116" t="s">
+        <v>837</v>
+      </c>
+      <c r="K116" t="s">
+        <v>384</v>
+      </c>
+      <c r="L116" t="s">
+        <v>4</v>
+      </c>
+      <c r="M116" t="s">
+        <v>390</v>
+      </c>
+      <c r="N116" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
@@ -7504,25 +7777,43 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C117" t="s">
+        <v>168</v>
+      </c>
+      <c r="D117" t="s">
+        <v>170</v>
+      </c>
+      <c r="E117" t="s">
         <v>169</v>
-      </c>
-      <c r="D117" t="s">
-        <v>171</v>
-      </c>
-      <c r="E117" t="s">
-        <v>170</v>
       </c>
       <c r="F117" t="s">
         <v>18</v>
       </c>
       <c r="G117" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H117" t="s">
         <v>52</v>
+      </c>
+      <c r="I117" t="s">
+        <v>322</v>
+      </c>
+      <c r="J117" t="s">
+        <v>322</v>
+      </c>
+      <c r="K117" t="s">
+        <v>322</v>
+      </c>
+      <c r="L117" t="s">
+        <v>322</v>
+      </c>
+      <c r="M117" t="s">
+        <v>322</v>
+      </c>
+      <c r="N117" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
@@ -7530,40 +7821,40 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D118" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E118" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F118" t="s">
         <v>18</v>
       </c>
       <c r="G118" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I118" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J118" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K118" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L118" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M118" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N118" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
@@ -7571,22 +7862,40 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C119" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D119" t="s">
         <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F119" t="s">
         <v>4</v>
       </c>
       <c r="G119" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I119" t="s">
+        <v>399</v>
+      </c>
+      <c r="J119" t="s">
+        <v>826</v>
+      </c>
+      <c r="K119" t="s">
+        <v>390</v>
+      </c>
+      <c r="L119" t="s">
+        <v>838</v>
+      </c>
+      <c r="M119" t="s">
+        <v>784</v>
+      </c>
+      <c r="N119" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
@@ -7594,10 +7903,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C120" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D120" t="s">
         <v>27</v>
@@ -7609,7 +7918,25 @@
         <v>4</v>
       </c>
       <c r="G120" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I120" t="s">
+        <v>441</v>
+      </c>
+      <c r="J120" t="s">
+        <v>741</v>
+      </c>
+      <c r="K120" t="s">
+        <v>726</v>
+      </c>
+      <c r="L120" t="s">
+        <v>393</v>
+      </c>
+      <c r="M120" t="s">
+        <v>726</v>
+      </c>
+      <c r="N120" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
@@ -7617,10 +7944,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C121" t="s">
-        <v>179</v>
+        <v>839</v>
       </c>
       <c r="D121" t="s">
         <v>91</v>
@@ -7632,7 +7959,25 @@
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I121" t="s">
+        <v>800</v>
+      </c>
+      <c r="J121" t="s">
+        <v>826</v>
+      </c>
+      <c r="K121" t="s">
+        <v>840</v>
+      </c>
+      <c r="L121" t="s">
+        <v>4</v>
+      </c>
+      <c r="M121" t="s">
+        <v>375</v>
+      </c>
+      <c r="N121" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
@@ -7640,10 +7985,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C122" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D122" t="s">
         <v>91</v>
@@ -7655,7 +8000,25 @@
         <v>4</v>
       </c>
       <c r="G122" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I122" t="s">
+        <v>829</v>
+      </c>
+      <c r="J122" t="s">
+        <v>4</v>
+      </c>
+      <c r="K122" t="s">
+        <v>437</v>
+      </c>
+      <c r="L122" t="s">
+        <v>393</v>
+      </c>
+      <c r="M122" t="s">
+        <v>390</v>
+      </c>
+      <c r="N122" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.35">
@@ -7663,13 +8026,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C123" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E123" t="s">
         <v>81</v>
@@ -7678,25 +8041,25 @@
         <v>18</v>
       </c>
       <c r="G123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I123" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J123" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K123" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L123" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M123" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N123" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
@@ -7704,22 +8067,40 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C124" t="s">
-        <v>182</v>
+        <v>842</v>
       </c>
       <c r="D124" t="s">
         <v>35</v>
       </c>
       <c r="E124" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F124" t="s">
         <v>18</v>
       </c>
       <c r="G124" t="s">
         <v>35</v>
+      </c>
+      <c r="I124" t="s">
+        <v>322</v>
+      </c>
+      <c r="J124" t="s">
+        <v>322</v>
+      </c>
+      <c r="K124" t="s">
+        <v>322</v>
+      </c>
+      <c r="L124" t="s">
+        <v>322</v>
+      </c>
+      <c r="M124" t="s">
+        <v>322</v>
+      </c>
+      <c r="N124" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
@@ -7727,22 +8108,40 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C125" t="s">
-        <v>184</v>
+        <v>843</v>
       </c>
       <c r="D125" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E125" t="s">
         <v>81</v>
       </c>
       <c r="F125" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>328</v>
+        <v>181</v>
+      </c>
+      <c r="I125" t="s">
+        <v>322</v>
+      </c>
+      <c r="J125" t="s">
+        <v>322</v>
+      </c>
+      <c r="K125" t="s">
+        <v>322</v>
+      </c>
+      <c r="L125" t="s">
+        <v>322</v>
+      </c>
+      <c r="M125" t="s">
+        <v>322</v>
+      </c>
+      <c r="N125" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
@@ -7750,22 +8149,40 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C126" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D126" t="s">
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F126" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G126" t="s">
-        <v>328</v>
+        <v>286</v>
+      </c>
+      <c r="I126" t="s">
+        <v>322</v>
+      </c>
+      <c r="J126" t="s">
+        <v>322</v>
+      </c>
+      <c r="K126" t="s">
+        <v>322</v>
+      </c>
+      <c r="L126" t="s">
+        <v>322</v>
+      </c>
+      <c r="M126" t="s">
+        <v>322</v>
+      </c>
+      <c r="N126" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.35">
@@ -7773,10 +8190,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C127" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D127" t="s">
         <v>91</v>
@@ -7788,7 +8205,25 @@
         <v>4</v>
       </c>
       <c r="G127" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I127" t="s">
+        <v>379</v>
+      </c>
+      <c r="J127" t="s">
+        <v>730</v>
+      </c>
+      <c r="K127" t="s">
+        <v>767</v>
+      </c>
+      <c r="L127" t="s">
+        <v>401</v>
+      </c>
+      <c r="M127" t="s">
+        <v>844</v>
+      </c>
+      <c r="N127" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.35">
@@ -7796,10 +8231,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C128" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D128" t="s">
         <v>91</v>
@@ -7811,7 +8246,25 @@
         <v>4</v>
       </c>
       <c r="G128" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I128" t="s">
+        <v>383</v>
+      </c>
+      <c r="J128" t="s">
+        <v>845</v>
+      </c>
+      <c r="K128" t="s">
+        <v>384</v>
+      </c>
+      <c r="L128" t="s">
+        <v>393</v>
+      </c>
+      <c r="M128" t="s">
+        <v>375</v>
+      </c>
+      <c r="N128" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
@@ -7819,13 +8272,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C129" t="s">
-        <v>191</v>
+        <v>846</v>
       </c>
       <c r="D129" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E129" t="s">
         <v>10</v>
@@ -7834,7 +8287,25 @@
         <v>4</v>
       </c>
       <c r="G129" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I129" t="s">
+        <v>800</v>
+      </c>
+      <c r="J129" t="s">
+        <v>782</v>
+      </c>
+      <c r="K129" t="s">
+        <v>390</v>
+      </c>
+      <c r="L129" t="s">
+        <v>4</v>
+      </c>
+      <c r="M129" t="s">
+        <v>726</v>
+      </c>
+      <c r="N129" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
@@ -7842,10 +8313,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C130" t="s">
-        <v>193</v>
+        <v>848</v>
       </c>
       <c r="D130" t="s">
         <v>27</v>
@@ -7857,7 +8328,22 @@
         <v>4</v>
       </c>
       <c r="G130" t="s">
-        <v>328</v>
+        <v>322</v>
+      </c>
+      <c r="I130" t="s">
+        <v>847</v>
+      </c>
+      <c r="K130" t="s">
+        <v>390</v>
+      </c>
+      <c r="L130" t="s">
+        <v>4</v>
+      </c>
+      <c r="M130" t="s">
+        <v>784</v>
+      </c>
+      <c r="N130" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
@@ -7865,10 +8351,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C131" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D131" t="s">
         <v>85</v>
@@ -7880,10 +8366,28 @@
         <v>4</v>
       </c>
       <c r="G131" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H131" t="s">
         <v>52</v>
+      </c>
+      <c r="I131" t="s">
+        <v>399</v>
+      </c>
+      <c r="J131" t="s">
+        <v>408</v>
+      </c>
+      <c r="K131" t="s">
+        <v>849</v>
+      </c>
+      <c r="L131" t="s">
+        <v>426</v>
+      </c>
+      <c r="M131" t="s">
+        <v>784</v>
+      </c>
+      <c r="N131" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
@@ -7891,10 +8395,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C132" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D132" t="s">
         <v>66</v>
@@ -7909,22 +8413,22 @@
         <v>149</v>
       </c>
       <c r="I132" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J132" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K132" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L132" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M132" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N132" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.35">
@@ -7932,10 +8436,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C133" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D133" t="s">
         <v>91</v>
@@ -7947,7 +8451,7 @@
         <v>4</v>
       </c>
       <c r="G133" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
@@ -7955,10 +8459,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C134" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D134" t="s">
         <v>85</v>
@@ -7970,25 +8474,25 @@
         <v>18</v>
       </c>
       <c r="G134" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I134" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J134" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K134" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L134" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M134" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N134" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
@@ -7996,22 +8500,22 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C135" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D135" t="s">
         <v>91</v>
       </c>
       <c r="E135" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F135" t="s">
         <v>4</v>
       </c>
       <c r="G135" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
@@ -8019,10 +8523,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C136" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D136" t="s">
         <v>27</v>
@@ -8034,7 +8538,7 @@
         <v>4</v>
       </c>
       <c r="G136" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
@@ -8042,10 +8546,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C137" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D137" t="s">
         <v>91</v>
@@ -8057,25 +8561,25 @@
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I137" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J137" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K137" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L137" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M137" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N137" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
@@ -8083,10 +8587,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C138" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D138" t="s">
         <v>91</v>
@@ -8098,25 +8602,25 @@
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I138" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J138" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K138" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L138" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M138" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N138" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.35">
@@ -8124,10 +8628,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C139" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D139" t="s">
         <v>27</v>
@@ -8139,25 +8643,25 @@
         <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I139" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J139" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K139" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L139" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M139" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N139" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
@@ -8165,10 +8669,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C140" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D140" t="s">
         <v>27</v>
@@ -8180,7 +8684,7 @@
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
@@ -8188,10 +8692,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C141" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D141" t="s">
         <v>35</v>
@@ -8206,22 +8710,22 @@
         <v>35</v>
       </c>
       <c r="I141" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J141" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K141" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L141" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M141" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N141" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
@@ -8229,13 +8733,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C142" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D142" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
@@ -8244,7 +8748,7 @@
         <v>4</v>
       </c>
       <c r="G142" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
@@ -8252,10 +8756,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C143" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D143" t="s">
         <v>91</v>
@@ -8267,7 +8771,7 @@
         <v>4</v>
       </c>
       <c r="G143" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
@@ -8275,10 +8779,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C144" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D144" t="s">
         <v>91</v>
@@ -8290,7 +8794,7 @@
         <v>4</v>
       </c>
       <c r="G144" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.35">
@@ -8298,10 +8802,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C145" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D145" t="s">
         <v>66</v>
@@ -8313,25 +8817,25 @@
         <v>18</v>
       </c>
       <c r="G145" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I145" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J145" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K145" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L145" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M145" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N145" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.35">
@@ -8339,10 +8843,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C146" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D146" t="s">
         <v>27</v>
@@ -8354,7 +8858,7 @@
         <v>4</v>
       </c>
       <c r="G146" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.35">
@@ -8362,7 +8866,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C147" t="s">
         <v>95</v>
@@ -8377,7 +8881,7 @@
         <v>4</v>
       </c>
       <c r="G147" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.35">
@@ -8385,10 +8889,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C148" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D148" t="s">
         <v>91</v>
@@ -8400,7 +8904,7 @@
         <v>4</v>
       </c>
       <c r="G148" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.35">
@@ -8408,10 +8912,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C149" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D149" t="s">
         <v>27</v>
@@ -8431,10 +8935,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C150" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D150" t="s">
         <v>27</v>
@@ -8446,7 +8950,7 @@
         <v>4</v>
       </c>
       <c r="G150" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.35">
@@ -8454,10 +8958,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C151" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D151" t="s">
         <v>85</v>
@@ -8469,25 +8973,25 @@
         <v>18</v>
       </c>
       <c r="G151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I151" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J151" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K151" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L151" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M151" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N151" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.35">
@@ -8495,10 +8999,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C152" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D152" t="s">
         <v>24</v>
@@ -8518,10 +9022,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C153" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D153" t="s">
         <v>24</v>
@@ -8533,7 +9037,7 @@
         <v>4</v>
       </c>
       <c r="G153" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.35">
@@ -8541,10 +9045,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C154" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D154" t="s">
         <v>27</v>
@@ -8556,7 +9060,7 @@
         <v>4</v>
       </c>
       <c r="G154" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.35">
@@ -8564,10 +9068,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C155" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D155" t="s">
         <v>91</v>
@@ -8579,7 +9083,7 @@
         <v>4</v>
       </c>
       <c r="G155" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.35">
@@ -8587,10 +9091,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C156" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D156" t="s">
         <v>27</v>
@@ -8602,7 +9106,7 @@
         <v>4</v>
       </c>
       <c r="G156" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.35">
@@ -8610,16 +9114,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C157" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D157" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E157" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F157" t="s">
         <v>18</v>
@@ -8631,22 +9135,22 @@
         <v>52</v>
       </c>
       <c r="I157" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J157" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K157" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L157" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M157" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N157" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.35">
@@ -8654,10 +9158,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C158" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D158" t="s">
         <v>27</v>
@@ -8669,7 +9173,7 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.35">
@@ -8677,10 +9181,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C159" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D159" t="s">
         <v>27</v>
@@ -8692,7 +9196,7 @@
         <v>4</v>
       </c>
       <c r="G159" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.35">
@@ -8700,10 +9204,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C160" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D160" t="s">
         <v>35</v>
@@ -8723,10 +9227,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C161" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D161" t="s">
         <v>27</v>
@@ -8738,7 +9242,7 @@
         <v>4</v>
       </c>
       <c r="G161" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -8746,10 +9250,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>27</v>
@@ -8761,10 +9265,10 @@
         <v>4</v>
       </c>
       <c r="G162" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.35">
@@ -8772,10 +9276,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C163" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>27</v>
@@ -8787,7 +9291,7 @@
         <v>4</v>
       </c>
       <c r="G163" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.35">
@@ -8795,40 +9299,40 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C164" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E164" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I164" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J164" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K164" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L164" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M164" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N164" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.35">
@@ -8836,10 +9340,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C165" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>27</v>
@@ -8851,7 +9355,7 @@
         <v>4</v>
       </c>
       <c r="G165" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.35">
@@ -8859,10 +9363,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C166" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>85</v>
@@ -8874,25 +9378,25 @@
         <v>18</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I166" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J166" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K166" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L166" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M166" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N166" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.35">
@@ -8900,10 +9404,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C167" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>24</v>
@@ -8915,7 +9419,7 @@
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.35">
@@ -8923,10 +9427,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C168" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>24</v>
@@ -8938,7 +9442,7 @@
         <v>4</v>
       </c>
       <c r="G168" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.35">
@@ -8946,10 +9450,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C169" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>24</v>
@@ -8961,7 +9465,7 @@
         <v>4</v>
       </c>
       <c r="G169" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.35">
@@ -8969,10 +9473,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C170" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>24</v>
@@ -8984,7 +9488,7 @@
         <v>4</v>
       </c>
       <c r="G170" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.35">
@@ -8992,10 +9496,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C171" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>91</v>
@@ -9007,7 +9511,7 @@
         <v>4</v>
       </c>
       <c r="G171" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.35">
@@ -9015,10 +9519,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C172" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>91</v>
@@ -9030,7 +9534,7 @@
         <v>4</v>
       </c>
       <c r="G172" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.35">
@@ -9038,13 +9542,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C173" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E173" t="s">
         <v>65</v>
@@ -9053,7 +9557,7 @@
         <v>4</v>
       </c>
       <c r="G173" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.35">
@@ -9061,10 +9565,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C174" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>24</v>
@@ -9076,25 +9580,25 @@
         <v>18</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I174" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J174" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K174" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L174" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M174" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N174" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.35">
@@ -9102,10 +9606,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C175" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>66</v>
@@ -9125,10 +9629,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C176" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>80</v>
@@ -9140,25 +9644,25 @@
         <v>18</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I176" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J176" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K176" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L176" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M176" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N176" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.35">
@@ -9166,10 +9670,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C177" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>91</v>
@@ -9181,10 +9685,10 @@
         <v>4</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H177" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.35">
@@ -9192,10 +9696,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C178" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>66</v>
@@ -9207,7 +9711,7 @@
         <v>18</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.35">
@@ -9215,10 +9719,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C179" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>66</v>
@@ -9230,7 +9734,7 @@
         <v>18</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.35">
@@ -9238,10 +9742,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C180" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>27</v>
@@ -9253,10 +9757,10 @@
         <v>4</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H180" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.35">
@@ -9264,10 +9768,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C181" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>3</v>
@@ -9279,7 +9783,7 @@
         <v>4</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.35">
@@ -9287,10 +9791,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C182" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>27</v>
@@ -9302,25 +9806,25 @@
         <v>18</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I182" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J182" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K182" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L182" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M182" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N182" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.35">
@@ -9328,10 +9832,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C183" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>27</v>
@@ -9343,7 +9847,7 @@
         <v>4</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.35">
@@ -9351,10 +9855,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C184" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>66</v>
@@ -9366,25 +9870,25 @@
         <v>18</v>
       </c>
       <c r="G184" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I184" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J184" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K184" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L184" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M184" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N184" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.35">
@@ -9392,13 +9896,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C185" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
@@ -9407,7 +9911,7 @@
         <v>4</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.35">
@@ -9415,13 +9919,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C186" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
@@ -9438,10 +9942,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C187" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>66</v>
@@ -9453,25 +9957,25 @@
         <v>18</v>
       </c>
       <c r="G187" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I187" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J187" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K187" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L187" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M187" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N187" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.35">
@@ -9479,10 +9983,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C188" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>66</v>
@@ -9502,10 +10006,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C189" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>27</v>
@@ -9517,7 +10021,7 @@
         <v>4</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.35">
@@ -9525,10 +10029,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C190" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>66</v>
@@ -9540,7 +10044,7 @@
         <v>18</v>
       </c>
       <c r="G190" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.35">
@@ -9548,40 +10052,40 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C191" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E191" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I191" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J191" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K191" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L191" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M191" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N191" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.35">
@@ -9589,10 +10093,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C192" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>24</v>
@@ -9604,28 +10108,28 @@
         <v>18</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I192" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J192" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K192" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L192" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M192" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N192" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.35">
@@ -9633,10 +10137,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C193" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>24</v>
@@ -9648,7 +10152,7 @@
         <v>4</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.35">
@@ -9656,10 +10160,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C194" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>24</v>
@@ -9671,7 +10175,7 @@
         <v>4</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.35">
@@ -9679,10 +10183,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C195" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>3</v>
@@ -9694,7 +10198,7 @@
         <v>4</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.35">
@@ -9702,10 +10206,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C196" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>3</v>
@@ -9717,7 +10221,7 @@
         <v>4</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.35">
@@ -9725,10 +10229,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C197" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>91</v>
@@ -9740,10 +10244,10 @@
         <v>4</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H197" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.35">
@@ -9751,25 +10255,25 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C198" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E198" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.35">
@@ -9777,10 +10281,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C199" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>91</v>
@@ -9792,7 +10296,7 @@
         <v>4</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.35">
@@ -9800,10 +10304,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C200" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>24</v>
@@ -9815,7 +10319,7 @@
         <v>4</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.35">
@@ -9823,10 +10327,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C201" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>27</v>
@@ -9838,7 +10342,7 @@
         <v>4</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.35">
@@ -9846,13 +10350,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C202" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E202" t="s">
         <v>105</v>
@@ -9861,25 +10365,25 @@
         <v>18</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I202" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J202" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K202" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L202" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M202" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N202" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.35">
@@ -9887,10 +10391,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C203" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>91</v>
@@ -9902,10 +10406,10 @@
         <v>4</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H203" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.35">
@@ -9913,10 +10417,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C204" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>66</v>
@@ -9936,10 +10440,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C205" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>27</v>
@@ -9951,7 +10455,7 @@
         <v>4</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.35">
@@ -9959,22 +10463,22 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C206" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E206" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.35">
@@ -9982,10 +10486,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C207" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>3</v>
@@ -9997,7 +10501,7 @@
         <v>4</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.35">
@@ -10005,10 +10509,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C208" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>27</v>
@@ -10020,7 +10524,7 @@
         <v>4</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.35">
@@ -10028,13 +10532,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C209" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E209" t="s">
         <v>155</v>
@@ -10043,25 +10547,25 @@
         <v>18</v>
       </c>
       <c r="G209" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="I209" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J209" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K209" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L209" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M209" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N209" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.35">
@@ -10069,10 +10573,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C210" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>27</v>
@@ -10084,7 +10588,7 @@
         <v>4</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.35">
@@ -10092,22 +10596,22 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C211" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E211" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.35">
@@ -10115,10 +10619,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C212" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>27</v>
@@ -10130,7 +10634,7 @@
         <v>4</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.35">
@@ -10138,10 +10642,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C213" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>91</v>
@@ -10153,7 +10657,7 @@
         <v>4</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.35">
@@ -10161,22 +10665,22 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C214" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E214" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.35">
@@ -10184,10 +10688,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C215" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>27</v>
@@ -10199,7 +10703,7 @@
         <v>4</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.35">
@@ -10207,10 +10711,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C216" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>66</v>
@@ -10225,22 +10729,22 @@
         <v>35</v>
       </c>
       <c r="I216" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J216" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K216" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L216" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M216" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N216" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.35">
@@ -10248,43 +10752,43 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C217" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E217" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F217" t="s">
         <v>18</v>
       </c>
       <c r="G217" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H217" t="s">
         <v>52</v>
       </c>
       <c r="I217" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J217" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K217" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L217" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M217" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N217" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.35">
@@ -10292,10 +10796,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C218" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>27</v>
@@ -10307,25 +10811,25 @@
         <v>18</v>
       </c>
       <c r="G218" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I218" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J218" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K218" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L218" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M218" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N218" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.35">
@@ -10333,10 +10837,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C219" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>27</v>
@@ -10348,7 +10852,7 @@
         <v>4</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.35">
@@ -10356,22 +10860,22 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C220" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E220" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F220" t="s">
         <v>4</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.35">
@@ -10379,22 +10883,22 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C221" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E221" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F221" t="s">
         <v>4</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.35">
@@ -10402,10 +10906,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C222" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>27</v>
@@ -10417,7 +10921,7 @@
         <v>4</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.35">
@@ -10425,10 +10929,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C223" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>27</v>
@@ -10440,7 +10944,7 @@
         <v>4</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.35">
@@ -10448,22 +10952,22 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C224" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F224" t="s">
         <v>4</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.35">
@@ -10471,10 +10975,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C225" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>3</v>
@@ -10486,7 +10990,7 @@
         <v>4</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.35">
@@ -10494,43 +10998,43 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C226" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E226" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F226" t="s">
         <v>18</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H226" t="s">
         <v>52</v>
       </c>
       <c r="I226" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J226" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K226" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L226" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M226" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N226" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.35">
@@ -10538,10 +11042,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C227" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>66</v>
@@ -10561,22 +11065,22 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C228" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E228" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F228" t="s">
         <v>18</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.35">
@@ -10584,10 +11088,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C229" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>24</v>
@@ -10599,25 +11103,25 @@
         <v>18</v>
       </c>
       <c r="G229" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I229" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J229" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K229" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L229" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M229" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N229" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.35">
@@ -10625,10 +11129,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C230" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>91</v>
@@ -10640,7 +11144,7 @@
         <v>4</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.35">
@@ -10648,10 +11152,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C231" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>91</v>
@@ -10663,10 +11167,10 @@
         <v>4</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H231" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.35">
@@ -10674,7 +11178,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C232" t="s">
         <v>69</v>
@@ -10689,7 +11193,7 @@
         <v>4</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.35">
@@ -10697,13 +11201,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C233" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E233" t="s">
         <v>76</v>
@@ -10712,10 +11216,10 @@
         <v>4</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H233" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.35">
@@ -10723,10 +11227,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C234" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>27</v>
@@ -10738,7 +11242,7 @@
         <v>4</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.35">
@@ -10746,10 +11250,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C235" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>27</v>
@@ -10761,7 +11265,7 @@
         <v>4</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.35">
@@ -10769,10 +11273,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C236" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>27</v>
@@ -10784,7 +11288,7 @@
         <v>4</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.35">
@@ -10792,10 +11296,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C237" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>35</v>
@@ -10810,22 +11314,22 @@
         <v>35</v>
       </c>
       <c r="I237" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J237" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K237" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L237" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M237" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N237" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.35">
@@ -10833,10 +11337,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C238" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>35</v>
@@ -10851,22 +11355,22 @@
         <v>35</v>
       </c>
       <c r="I238" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J238" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K238" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L238" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M238" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N238" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.35">
@@ -10874,22 +11378,22 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C239" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E239" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F239" t="s">
         <v>4</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.35">
@@ -10897,10 +11401,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C240" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>27</v>
@@ -10912,7 +11416,7 @@
         <v>4</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.35">
@@ -10920,10 +11424,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C241" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>24</v>
@@ -10935,7 +11439,7 @@
         <v>4</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.35">
@@ -10943,22 +11447,22 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C242" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E242" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F242" t="s">
         <v>4</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.35">
@@ -10966,10 +11470,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C243" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>24</v>
@@ -10981,7 +11485,7 @@
         <v>4</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.35">
@@ -10989,13 +11493,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C244" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E244" t="s">
         <v>16</v>
@@ -11004,7 +11508,7 @@
         <v>4</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.35">
@@ -11012,13 +11516,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C245" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E245" t="s">
         <v>153</v>
@@ -11027,7 +11531,7 @@
         <v>4</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.35">
@@ -11035,10 +11539,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C246" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>24</v>
@@ -11050,7 +11554,7 @@
         <v>4</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.35">
@@ -11058,10 +11562,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C247" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>24</v>
@@ -11073,7 +11577,7 @@
         <v>4</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.35">
@@ -11081,10 +11585,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C248" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>85</v>
@@ -11096,7 +11600,7 @@
         <v>4</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H248" t="s">
         <v>52</v>
@@ -11107,22 +11611,22 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C249" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E249" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F249" t="s">
         <v>4</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.35">
@@ -11130,16 +11634,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C250" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E250" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F250" t="s">
         <v>18</v>
@@ -11148,22 +11652,22 @@
         <v>66</v>
       </c>
       <c r="I250" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J250" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K250" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L250" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M250" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N250" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.35">
@@ -11171,10 +11675,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C251" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>24</v>
@@ -11186,7 +11690,7 @@
         <v>4</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.35">
@@ -11194,10 +11698,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C252" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>24</v>
@@ -11209,10 +11713,10 @@
         <v>4</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H252" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.35">
@@ -11220,25 +11724,25 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C253" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E253" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F253" t="s">
         <v>4</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H253" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.35">
@@ -11246,10 +11750,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C254" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>24</v>
@@ -11261,7 +11765,7 @@
         <v>4</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.35">
@@ -11269,10 +11773,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C255" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>24</v>
@@ -11284,7 +11788,7 @@
         <v>4</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.35">
@@ -11292,10 +11796,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C256" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>27</v>
@@ -11307,7 +11811,7 @@
         <v>4</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.35">
@@ -11315,10 +11819,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C257" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>85</v>
@@ -11330,7 +11834,7 @@
         <v>4</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H257" t="s">
         <v>52</v>
@@ -11341,10 +11845,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C258" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>66</v>
@@ -11359,22 +11863,22 @@
         <v>66</v>
       </c>
       <c r="I258" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J258" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K258" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L258" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M258" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N258" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.35">
@@ -11382,7 +11886,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C259" t="s">
         <v>69</v>
@@ -11397,25 +11901,25 @@
         <v>18</v>
       </c>
       <c r="G259" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="I259" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J259" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K259" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L259" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M259" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N259" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.35">
@@ -11423,7 +11927,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C260" t="s">
         <v>69</v>
@@ -11438,7 +11942,7 @@
         <v>4</v>
       </c>
       <c r="G260" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.35">
@@ -11446,16 +11950,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C261" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E261" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F261" t="s">
         <v>18</v>
@@ -11469,10 +11973,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C262" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>24</v>
@@ -11484,28 +11988,28 @@
         <v>18</v>
       </c>
       <c r="G262" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H262" t="s">
         <v>52</v>
       </c>
       <c r="I262" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J262" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K262" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L262" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M262" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N262" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.35">
@@ -11513,13 +12017,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C263" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E263" t="s">
         <v>142</v>
@@ -11528,7 +12032,7 @@
         <v>4</v>
       </c>
       <c r="G263" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.35">
@@ -11536,10 +12040,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C264" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>91</v>
@@ -11551,7 +12055,7 @@
         <v>4</v>
       </c>
       <c r="G264" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.35">
@@ -11559,10 +12063,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C265" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>27</v>
@@ -11574,7 +12078,7 @@
         <v>4</v>
       </c>
       <c r="G265" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.35">
@@ -11582,10 +12086,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C266" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>66</v>
@@ -11600,22 +12104,22 @@
         <v>35</v>
       </c>
       <c r="I266" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J266" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K266" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L266" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M266" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N266" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.35">
@@ -11623,10 +12127,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C267" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>66</v>
@@ -11638,25 +12142,25 @@
         <v>18</v>
       </c>
       <c r="G267" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="I267" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J267" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K267" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L267" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M267" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N267" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.35">
@@ -11664,7 +12168,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C268" t="s">
         <v>95</v>
@@ -11679,7 +12183,7 @@
         <v>4</v>
       </c>
       <c r="G268" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.35">
@@ -11687,10 +12191,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C269" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>27</v>
@@ -11702,7 +12206,7 @@
         <v>4</v>
       </c>
       <c r="G269" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.35">
@@ -11710,10 +12214,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C270" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>27</v>
@@ -11725,7 +12229,7 @@
         <v>4</v>
       </c>
       <c r="G270" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.35">
@@ -11733,10 +12237,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C271" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>35</v>
@@ -11751,22 +12255,22 @@
         <v>35</v>
       </c>
       <c r="I271" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J271" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K271" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L271" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M271" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N271" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.35">
@@ -11774,10 +12278,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C272" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>91</v>
@@ -11789,7 +12293,7 @@
         <v>4</v>
       </c>
       <c r="G272" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.35">
@@ -11797,16 +12301,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C273" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E273" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F273" t="s">
         <v>18</v>
@@ -11815,22 +12319,22 @@
         <v>66</v>
       </c>
       <c r="I273" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J273" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K273" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L273" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M273" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N273" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.35">
@@ -11838,16 +12342,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C274" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E274" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F274" t="s">
         <v>18</v>
@@ -11856,22 +12360,22 @@
         <v>66</v>
       </c>
       <c r="I274" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J274" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K274" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L274" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M274" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N274" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/data/exclude_list.xlsx
+++ b/data/exclude_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mflor\Documents\GitHub\dryland_restoration_synthesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455ED912-0113-43E0-9F79-A6DA97F929F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1562CBD-AA0F-4E9F-A029-C37A8E53B453}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{C6F08BAA-C670-4BEE-8D8B-BC2F9FF4AD91}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3397" uniqueCount="976">
   <si>
     <t>ID</t>
   </si>
@@ -2880,6 +2880,87 @@
   </si>
   <si>
     <t>activities.aims.restortechnique</t>
+  </si>
+  <si>
+    <t>Atwell Island Restoration Project Activities 2000-2010</t>
+  </si>
+  <si>
+    <t>grey literature</t>
+  </si>
+  <si>
+    <t>rotational grazing</t>
+  </si>
+  <si>
+    <t>seeding, micro-topographic relief, fire, grazing</t>
+  </si>
+  <si>
+    <t>fallowing, disking, micro-topography</t>
+  </si>
+  <si>
+    <t>Central Valley Project Improvement Act Land Retirement Demonstration Project</t>
+  </si>
+  <si>
+    <t>retired croplands</t>
+  </si>
+  <si>
+    <t>salt-remediation products, seed coatings, and mycorrhizal inoculation</t>
+  </si>
+  <si>
+    <t>irrigation, planting, weed control</t>
+  </si>
+  <si>
+    <t>future strategy</t>
+  </si>
+  <si>
+    <t>Efficacy of habitat reclamation for endangered species at the Elk hills oil field, California</t>
+  </si>
+  <si>
+    <t>habitat for endangered species</t>
+  </si>
+  <si>
+    <t>oil and gas fields</t>
+  </si>
+  <si>
+    <t>ripped, disked</t>
+  </si>
+  <si>
+    <t>undisturbed sites</t>
+  </si>
+  <si>
+    <t>seeding, ripped, disked, fertilization</t>
+  </si>
+  <si>
+    <t>grey literature, success-costs</t>
+  </si>
+  <si>
+    <t>Restoration efforts of Atriplex canescens</t>
+  </si>
+  <si>
+    <t>grazing, seeding</t>
+  </si>
+  <si>
+    <t>native species</t>
+  </si>
+  <si>
+    <t>invasive species</t>
+  </si>
+  <si>
+    <t>native shrubland habitat</t>
+  </si>
+  <si>
+    <t>valley saltbush scrub community</t>
+  </si>
+  <si>
+    <t>seeding, tillage, weed suppression</t>
+  </si>
+  <si>
+    <t>tillage</t>
+  </si>
+  <si>
+    <t>solar power plant installation</t>
+  </si>
+  <si>
+    <t>California Valley Solar Ranch San Luis Obispo County, CA</t>
   </si>
 </sst>
 </file>
@@ -3250,11 +3331,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62E3986-7054-4AE0-9A4D-11FC5C2A74FC}">
-  <dimension ref="A1:O274"/>
+  <dimension ref="A1:O279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14628,6 +14709,226 @@
         <v>293</v>
       </c>
     </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>949</v>
+      </c>
+      <c r="C275" t="s">
+        <v>952</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E275" t="s">
+        <v>76</v>
+      </c>
+      <c r="F275" t="s">
+        <v>4</v>
+      </c>
+      <c r="G275" t="s">
+        <v>293</v>
+      </c>
+      <c r="H275" t="s">
+        <v>950</v>
+      </c>
+      <c r="I275" t="s">
+        <v>758</v>
+      </c>
+      <c r="J275" t="s">
+        <v>951</v>
+      </c>
+      <c r="K275" t="s">
+        <v>348</v>
+      </c>
+      <c r="L275" t="s">
+        <v>953</v>
+      </c>
+      <c r="M275" t="s">
+        <v>348</v>
+      </c>
+      <c r="N275" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>954</v>
+      </c>
+      <c r="C276" t="s">
+        <v>957</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E276" t="s">
+        <v>76</v>
+      </c>
+      <c r="F276" t="s">
+        <v>4</v>
+      </c>
+      <c r="G276" t="s">
+        <v>293</v>
+      </c>
+      <c r="H276" t="s">
+        <v>950</v>
+      </c>
+      <c r="I276" t="s">
+        <v>955</v>
+      </c>
+      <c r="J276" t="s">
+        <v>958</v>
+      </c>
+      <c r="K276" t="s">
+        <v>348</v>
+      </c>
+      <c r="L276" t="s">
+        <v>956</v>
+      </c>
+      <c r="M276" t="s">
+        <v>348</v>
+      </c>
+      <c r="N276" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>959</v>
+      </c>
+      <c r="C277" t="s">
+        <v>964</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E277" t="s">
+        <v>76</v>
+      </c>
+      <c r="F277" t="s">
+        <v>4</v>
+      </c>
+      <c r="G277" t="s">
+        <v>293</v>
+      </c>
+      <c r="H277" t="s">
+        <v>965</v>
+      </c>
+      <c r="I277" t="s">
+        <v>961</v>
+      </c>
+      <c r="J277" t="s">
+        <v>4</v>
+      </c>
+      <c r="K277" t="s">
+        <v>960</v>
+      </c>
+      <c r="L277" t="s">
+        <v>962</v>
+      </c>
+      <c r="M277" t="s">
+        <v>963</v>
+      </c>
+      <c r="N277" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>966</v>
+      </c>
+      <c r="C278" t="s">
+        <v>967</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E278" t="s">
+        <v>76</v>
+      </c>
+      <c r="F278" t="s">
+        <v>4</v>
+      </c>
+      <c r="G278" t="s">
+        <v>293</v>
+      </c>
+      <c r="H278" t="s">
+        <v>950</v>
+      </c>
+      <c r="I278" t="s">
+        <v>969</v>
+      </c>
+      <c r="J278" t="s">
+        <v>803</v>
+      </c>
+      <c r="K278" t="s">
+        <v>968</v>
+      </c>
+      <c r="L278" t="s">
+        <v>4</v>
+      </c>
+      <c r="M278" t="s">
+        <v>333</v>
+      </c>
+      <c r="N278" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>975</v>
+      </c>
+      <c r="C279" t="s">
+        <v>972</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E279" t="s">
+        <v>76</v>
+      </c>
+      <c r="F279" t="s">
+        <v>4</v>
+      </c>
+      <c r="G279" t="s">
+        <v>293</v>
+      </c>
+      <c r="H279" t="s">
+        <v>950</v>
+      </c>
+      <c r="I279" t="s">
+        <v>974</v>
+      </c>
+      <c r="J279" t="s">
+        <v>704</v>
+      </c>
+      <c r="K279" t="s">
+        <v>970</v>
+      </c>
+      <c r="L279" t="s">
+        <v>973</v>
+      </c>
+      <c r="M279" t="s">
+        <v>971</v>
+      </c>
+      <c r="N279" t="s">
+        <v>733</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N274" xr:uid="{C78D37E1-FDDF-4641-9FE4-8F903F4F0834}"/>
   <conditionalFormatting sqref="B1:B1048576">
